--- a/excel/MapLayoutId.xlsx
+++ b/excel/MapLayoutId.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$572</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$684</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="582">
   <si>
     <t>ID</t>
   </si>
@@ -1469,6 +1469,12 @@
     <t>1,1,1;2,1,2;3,1,1;4,1,1;5,1,1;1,2,1;2,2,2;3,2,1;4,2,16;5,2,16;1,3,1;2,3,2;3,3,2;4,3,1;5,3,10;1,4,10;2,4,1;3,4,2;4,4,2;5,4,1;1,5,99;2,5,18;3,5,99;4,5,2;5,5,1;1,6,10;2,6,1;3,6,2;4,6,2;5,6,1;1,7,1;2,7,2;3,7,1;4,7,1;5,7,1;1,8,1;2,8,2;3,8,1;4,8,1;5,8,1</t>
   </si>
   <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;1,4,2;2,4,1;3,4,1;4,4,1;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;1,3,1;2,3,2;3,3,2;4,3,2;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
     <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,43;7,1,1;1,2,1;2,2,1;3,2,31;4,2,1;5,2,10;6,2,1;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,42;7,3,1;1,4,7;2,4,2;3,4,1;4,4,1;5,4,1;6,4,31;7,4,1;1,5,1;2,5,1;3,5,1;4,5,10;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,44;4,6,1;5,6,1;6,6,2;7,6,6;1,7,1;2,7,1;3,7,1;4,7,1;5,7,99;6,7,18;7,7,99;1,8,1;2,8,10;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,1</t>
   </si>
   <si>
@@ -1476,6 +1482,336 @@
   </si>
   <si>
     <t>1,1,1;2,1,1;3,1,1;4,1,42;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,10;3,2,1;4,2,43;5,2,1;6,2,1;7,2,10;8,2,1;9,2,1;10,2,10;11,2,1;1,3,1;2,3,1;3,3,1;4,3,44;5,3,1;6,3,31;7,3,1;8,3,1;9,3,31;10,3,16;11,3,16;1,4,1;2,4,1;3,4,1;4,4,45;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,1;2,5,10;3,5,1;4,5,46;5,5,1;6,5,1;7,5,1;8,5,10;9,5,1;10,5,99;11,5,14;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,45;7,6,1;8,6,31;9,6,1;10,6,28;11,6,14;1,7,1;2,7,1;3,7,31;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,99;11,7,14;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2;8,9,2;9,9,2;10,9,2;11,9,14;1,10,2;2,10,2;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,2;11,10,14;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,43;3,2,43;4,2,43;5,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;1,4,2;2,4,2;3,4,2;4,4,2;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,2;4,1,1;5,1,2;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;1,3,1;2,3,1;3,3,2;4,3,45;5,3,1;1,4,1;2,4,44;3,4,1;4,4,1;5,4,1;1,5,1;2,5,99;3,5,18;4,5,99;5,5,1;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,2;2,2,1;3,2,45;4,2,1;5,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;1,4,2;2,4,2;3,4,2;4,4,2;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,43;4,1,1;5,1,2;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;1,3,1;2,3,1;3,3,43;4,3,1;5,3,1;1,4,1;2,4,1;3,4,43;4,4,1;5,4,1;1,5,2;2,5,1;3,5,43;4,5,1;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,43;4,1,1;5,1,2;1,2,2;2,2,2;3,2,1;4,2,2;5,2,2;1,3,2;2,3,1;3,3,43;4,3,1;5,3,2;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,2;2,6,2;3,6,1;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,43;3,2,1;4,2,43;5,2,1;1,3,1;2,3,99;3,3,18;4,3,99;5,3,1;1,4,1;2,4,1;3,4,45;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,2;3,6,1;4,6,2;5,6,1;1,7,1;2,7,2;3,7,1;4,7,2;5,7,1;1,8,1;2,8,2;3,8,1;4,8,2;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,2;4,1,1;5,1,1;1,2,1;2,2,2;3,2,43;4,2,2;5,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;1,4,1;2,4,99;3,4,18;4,4,99;5,4,1;1,5,1;2,5,1;3,5,43;4,5,1;5,5,1;1,6,1;2,6,2;3,6,1;4,6,2;5,6,1;1,7,1;2,7,1;3,7,43;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,2;4,1,1;5,1,2;6,1,1;7,1,1;1,2,43;2,2,1;3,2,2;4,2,1;5,2,2;6,2,1;7,2,43;1,3,1;2,3,1;3,3,2;4,3,1;5,3,2;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,2;2,5,2;3,5,2;4,5,45;5,5,2;6,5,2;7,5,2;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,43;3,7,2;4,7,1;5,7,2;6,7,43;7,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,2;6,8,1;7,8,1;1,9,1;2,9,1;3,9,2;4,9,1;5,9,2;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,44;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,1;2,5,1;3,5,45;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,46;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,43;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;1,2,99;2,2,18;3,2,99;4,2,1;5,2,2;6,2,1;7,2,1;1,3,1;2,3,1;3,3,43;4,3,1;5,3,2;6,3,1;7,3,45;1,4,1;2,4,1;3,4,1;4,4,1;5,4,2;6,4,1;7,4,1;1,5,99;2,5,18;3,5,99;4,5,1;5,5,2;6,5,1;7,5,1;1,6,1;2,6,1;3,6,43;4,6,1;5,6,2;6,6,1;7,6,45;1,7,1;2,7,1;3,7,1;4,7,1;5,7,2;6,7,1;7,7,1;1,8,99;2,8,18;3,8,99;4,8,1;5,8,2;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,2;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;1,3,17;2,3,17;3,3,17;4,3,17;5,3,1;6,3,45;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,1;2,5,1;3,5,43;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,16;6,7,16;7,7,16;1,8,1;2,8,1;3,8,42;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,99;4,1,18;5,1,99;6,1,1;7,1,2;1,2,2;2,2,1;3,2,1;4,2,43;5,2,1;6,2,1;7,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,2;1,4,1;2,4,1;3,4,99;4,4,18;5,4,99;6,4,1;7,4,1;1,5,2;2,5,1;3,5,1;4,5,45;5,5,1;6,5,1;7,5,2;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,2;2,7,99;3,7,99;4,7,19;5,7,99;6,7,99;7,7,2;1,8,2;2,8,1;3,8,1;4,8,43;5,8,1;6,8,1;7,8,2;1,9,2;2,9,1;3,9,2;4,9,1;5,9,2;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,2;2,2,99;3,2,18;4,2,99;5,2,43;6,2,99;7,2,18;8,2,99;9,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,43;8,3,1;9,3,2;1,4,2;2,4,1;3,4,45;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;6,5,2;7,5,2;8,5,2;9,5,2;1,6,1;2,6,1;3,6,1;4,6,99;5,6,18;6,6,99;7,6,1;8,6,1;9,6,1;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;6,7,2;7,7,2;8,7,2;9,7,2;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,2;1,9,2;2,9,99;3,9,18;4,9,99;5,9,43;6,9,99;7,9,18;8,9,99;9,9,2;1,10,2;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,1;9,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,2;1,3,2;2,3,1;3,3,43;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,2;1,4,2;2,4,1;3,4,1;4,4,99;5,4,99;6,4,19;7,4,99;8,4,99;9,4,2;1,5,2;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,45;8,5,1;9,5,2;1,6,2;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,2;1,7,2;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,2;1,8,2;2,8,99;3,8,99;4,8,19;5,8,99;6,8,99;7,8,43;8,8,1;9,8,2;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,99;2,2,18;3,2,99;4,2,1;5,2,43;6,2,1;7,2,99;8,2,18;9,2,99;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;1,4,1;2,4,1;3,4,2;4,4,2;5,4,2;6,4,2;7,4,2;8,4,1;9,4,1;1,5,1;2,5,43;3,5,2;4,5,99;5,5,18;6,5,99;7,5,2;8,5,44;9,5,1;1,6,1;2,6,1;3,6,2;4,6,2;5,6,2;6,6,2;7,6,2;8,6,1;9,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,45;6,7,1;7,7,1;8,7,1;9,7,1;1,8,99;2,8,18;3,8,99;4,8,1;5,8,1;6,8,1;7,8,99;8,8,18;9,8,99;1,9,1;2,9,1;3,9,1;4,9,1;5,9,46;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,42;6,1,1;7,1,1;8,1,1;9,1,1;1,2,99;2,2,18;3,2,99;4,2,1;5,2,43;6,2,1;7,2,99;8,2,18;9,2,99;1,3,2;2,3,2;3,3,99;4,3,1;5,3,44;6,3,1;7,3,99;8,3,2;9,3,2;1,4,2;2,4,2;3,4,99;4,4,1;5,4,45;6,4,1;7,4,99;8,4,2;9,4,2;1,5,2;2,5,2;3,5,22;4,5,1;5,5,46;6,5,1;7,5,29;8,5,2;9,5,2;1,6,2;2,6,2;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,2;9,6,2;1,7,2;2,7,2;3,7,99;4,7,99;5,7,18;6,7,99;7,7,99;8,7,2;9,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2;6,8,2;7,8,2;8,8,2;9,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2;8,9,2;9,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,44;9,2,1;1,3,1;2,3,1;3,3,99;4,3,99;5,3,19;6,3,99;7,3,99;8,3,1;9,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,45;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,2;4,5,2;5,5,2;6,5,2;7,5,2;8,5,1;9,5,1;1,6,43;2,6,1;3,6,2;4,6,99;5,6,18;6,6,99;7,6,2;8,6,1;9,6,45;1,7,1;2,7,1;3,7,2;4,7,2;5,7,2;6,7,2;7,7,2;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,19;6,9,99;7,9,99;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,17;4,3,1;5,3,1;6,3,1;7,3,45;8,3,1;9,3,16;10,3,16;11,3,16;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,44;5,5,99;6,5,18;7,5,99;8,5,1;9,5,1;10,5,1;11,5,1;1,6,2;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,43;10,6,1;11,6,2;1,7,2;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,1;11,7,2;1,8,2;2,8,1;3,8,99;4,8,99;5,8,99;6,8,20;7,8,99;8,8,99;9,8,99;10,8,1;11,8,2;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,43;6,2,1;7,2,1;8,2,1;9,2,1;10,2,1;11,2,2;1,3,1;2,3,1;3,3,99;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,99;10,3,1;11,3,1;1,4,1;2,4,1;3,4,99;4,4,1;5,4,1;6,4,1;7,4,44;8,4,1;9,4,99;10,4,1;11,4,1;1,5,1;2,5,1;3,5,99;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,99;10,5,1;11,5,1;1,6,43;2,6,1;3,6,23;4,6,1;5,6,99;6,6,18;7,6,99;8,6,1;9,6,30;10,6,1;11,6,1;1,7,1;2,7,1;3,7,99;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,99;10,7,1;11,7,1;1,8,1;2,8,1;3,8,99;4,8,1;5,8,1;6,8,45;7,8,1;8,8,1;9,8,99;10,8,1;11,8,1;1,9,1;2,9,1;3,9,99;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,99;10,9,1;11,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,99;6,1,18;7,1,99;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,1;6,2,43;7,2,1;8,2,1;9,2,1;10,2,1;11,2,2;1,3,2;2,3,2;3,3,2;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,2;10,3,2;11,3,2;1,4,17;2,4,17;3,4,17;4,4,17;5,4,1;6,4,1;7,4,1;8,4,16;9,4,16;10,4,16;11,4,16;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,99;3,6,1;4,6,44;5,6,1;6,6,1;7,6,1;8,6,45;9,6,1;10,6,99;11,6,1;1,7,1;2,7,21;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,28;11,7,1;1,8,1;2,8,99;3,8,99;4,8,18;5,8,99;6,8,2;7,8,99;8,8,18;9,8,99;10,8,99;11,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,43;7,9,1;8,9,1;9,9,1;10,9,1;11,9,2;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,99;2,2,18;3,2,99;4,2,1;5,2,1;6,2,43;7,2,1;8,2,1;9,2,99;10,2,18;11,2,99;1,3,2;2,3,2;3,3,99;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,99;10,3,2;11,3,2;1,4,2;2,4,2;3,4,99;4,4,1;5,4,1;6,4,44;7,4,1;8,4,1;9,4,99;10,4,2;11,4,2;1,5,2;2,5,2;3,5,99;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,99;10,5,2;11,5,2;1,6,2;2,6,2;3,6,23;4,6,1;5,6,1;6,6,45;7,6,1;8,6,1;9,6,30;10,6,2;11,6,2;1,7,2;2,7,2;3,7,99;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,99;10,7,2;11,7,2;1,8,2;2,8,2;3,8,99;4,8,1;5,8,1;6,8,46;7,8,1;8,8,1;9,8,99;10,8,2;11,8,2;1,9,2;2,9,2;3,9,99;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,99;10,9,2;11,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,99;5,1,1;6,1,1;7,1,1;8,1,99;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,2;4,2,99;5,2,1;6,2,43;7,2,1;8,2,99;9,2,2;10,2,2;11,2,2;1,3,2;2,3,2;3,3,2;4,3,22;5,3,1;6,3,1;7,3,1;8,3,29;9,3,2;10,3,2;11,3,2;1,4,2;2,4,2;3,4,2;4,4,99;5,4,1;6,4,45;7,4,1;8,4,99;9,4,2;10,4,2;11,4,2;1,5,99;2,5,18;3,5,99;4,5,99;5,5,1;6,5,1;7,5,1;8,5,99;9,5,99;10,5,18;11,5,99;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,44;7,6,1;8,6,1;9,6,1;10,6,1;11,6,1;1,7,1;2,7,1;3,7,43;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,43;10,7,1;11,7,1;1,8,99;2,8,18;3,8,99;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,99;10,8,18;11,8,99;1,9,2;2,9,2;3,9,99;4,9,1;5,9,1;6,9,45;7,9,1;8,9,1;9,9,99;10,9,2;11,9,2;1,10,2;2,10,2;3,10,21;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,28;10,10,2;11,10,2;1,11,2;2,11,2;3,11,99;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,99;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,43;5,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;1,4,1;2,4,44;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,15;2,6,15;3,6,1;4,6,45;5,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,10;1,3,1;2,3,1;3,3,1;4,3,45;5,3,1;1,4,99;2,4,18;3,4,99;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,10;1,6,1;2,6,1;3,6,43;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,43;2,1,1;3,1,1;4,1,2;5,1,1;1,2,1;2,2,10;3,2,1;4,2,2;5,2,1;1,3,1;2,3,1;3,3,1;4,3,2;5,3,1;1,4,1;2,4,1;3,4,1;4,4,2;5,4,1;1,5,2;2,5,2;3,5,2;4,5,45;5,5,1;1,6,2;2,6,43;3,6,1;4,6,1;5,6,1;1,7,2;2,7,1;3,7,1;4,7,10;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,43;4,1,1;5,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,10;1,3,17;2,3,17;3,3,1;4,3,43;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,10;3,5,1;4,5,16;5,5,16;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;1,7,1;2,7,43;3,7,1;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,42;4,1,1;5,1,1;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;1,3,10;2,3,1;3,3,45;4,3,1;5,3,10;1,4,1;2,4,1;3,4,46;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,10;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,10;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;1,4,15;2,4,15;3,4,7;4,4,2;5,4,1;1,5,1;2,5,1;3,5,1;4,5,2;5,5,1;1,6,1;2,6,1;3,6,45;4,6,2;5,6,1;1,7,1;2,7,10;3,7,1;4,7,2;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,17;2,2,17;3,2,1;4,2,10;5,2,1;1,3,1;2,3,1;3,3,43;4,3,1;5,3,1;1,4,1;2,4,10;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,44;5,5,1;1,6,17;2,6,17;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,2;5,7,6;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,10;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,10;4,4,1;5,4,45;6,4,2;7,4,6;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,46;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;1,7,1;2,7,1;3,7,1;4,7,1;5,7,10;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;6,2,43;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,10;7,3,1;1,4,7;2,4,2;3,4,1;4,4,44;5,4,1;6,4,1;7,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;1,7,1;2,7,45;3,7,1;4,7,1;5,7,1;6,7,43;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,43;5,1,1;6,1,1;7,1,2;1,2,2;2,2,1;3,2,10;4,2,10;5,2,10;6,2,1;7,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,2;1,4,2;2,4,2;3,4,1;4,4,43;5,4,1;6,4,2;7,4,2;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,2;7,5,6;1,6,1;2,6,45;3,6,1;4,6,2;5,6,43;6,6,1;7,6,1;1,7,1;2,7,1;3,7,10;4,7,2;5,7,10;6,7,1;7,7,1;1,8,1;2,8,1;3,8,10;4,8,2;5,8,10;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,99;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;1,3,10;2,3,21;3,3,1;4,3,1;5,3,1;6,3,45;7,3,1;1,4,1;2,4,99;3,4,1;4,4,10;5,4,1;6,4,1;7,4,1;1,5,99;2,5,18;3,5,99;4,5,99;5,5,1;6,5,2;7,5,1;1,6,1;2,6,1;3,6,1;4,6,21;5,6,1;6,6,43;7,6,1;1,7,10;2,7,1;3,7,1;4,7,99;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,43;4,8,1;5,8,1;6,8,10;7,8,1;1,9,2;2,9,1;3,9,1;4,9,2;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,10;6,2,44;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;1,4,10;2,4,1;3,4,99;4,4,43;5,4,99;6,4,1;7,4,1;1,5,1;2,5,1;3,5,21;4,5,2;5,5,28;6,5,1;7,5,10;1,6,1;2,6,1;3,6,99;4,6,10;5,6,99;6,6,1;7,6,1;1,7,99;2,7,18;3,7,99;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,2;7,8,6;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,43;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,10;5,2,1;6,2,43;7,2,1;1,3,1;2,3,99;3,3,1;4,3,1;5,3,1;6,3,99;7,3,1;1,4,1;2,4,99;3,4,1;4,4,1;5,4,1;6,4,99;7,4,1;1,5,2;2,5,22;3,5,1;4,5,10;5,5,1;6,5,29;7,5,2;1,6,10;2,6,99;3,6,1;4,6,45;5,6,1;6,6,99;7,6,10;1,7,1;2,7,99;3,7,1;4,7,1;5,7,1;6,7,99;7,7,1;1,8,1;2,8,1;3,8,43;4,8,10;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,43;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,10;5,2,1;6,2,43;7,2,1;1,3,1;2,3,99;3,3,1;4,3,1;5,3,1;6,3,99;7,3,1;1,4,1;2,4,99;3,4,1;4,4,1;5,4,1;6,4,99;7,4,1;1,5,2;2,5,22;3,5,1;4,5,2;5,5,1;6,5,29;7,5,2;1,6,10;2,6,99;3,6,1;4,6,8;5,6,1;6,6,99;7,6,10;1,7,1;2,7,99;3,7,99;4,7,18;5,7,99;6,7,99;7,7,1;1,8,2;2,8,1;3,8,1;4,8,2;5,8,1;6,8,1;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,45;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;1,3,1;2,3,2;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;1,4,7;2,4,2;3,4,2;4,4,2;5,4,2;6,4,2;7,4,6;1,5,1;2,5,1;3,5,10;4,5,1;5,5,1;6,5,2;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,10;6,6,2;7,6,1;1,7,7;2,7,2;3,7,2;4,7,2;5,7,2;6,7,2;7,7,6;1,8,1;2,8,2;3,8,10;4,8,1;5,8,43;6,8,1;7,8,1;1,9,1;2,9,2;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,43;3,2,1;4,2,2;5,2,1;6,2,10;7,2,1;1,3,1;2,3,1;3,3,1;4,3,8;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,99;4,4,18;5,4,99;6,4,1;7,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,45;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,43;3,7,99;4,7,18;5,7,99;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,10;3,2,1;4,2,1;5,2,43;6,2,1;7,2,1;1,3,1;2,3,1;3,3,43;4,3,1;5,3,1;6,3,16;7,3,16;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;6,4,1;7,4,1;1,5,17;2,5,17;3,5,99;4,5,1;5,5,1;6,5,43;7,5,1;1,6,1;2,6,1;3,6,21;4,6,1;5,6,1;6,6,10;7,6,1;1,7,1;2,7,1;3,7,99;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,10;5,8,1;6,8,2;7,8,6;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,10;4,2,1;5,2,2;6,2,1;7,2,43;8,2,1;9,2,1;1,3,1;2,3,7;3,3,2;4,3,2;5,3,2;6,3,2;7,3,2;8,3,6;9,3,1;1,4,1;2,4,1;3,4,1;4,4,99;5,4,1;6,4,99;7,4,1;8,4,1;9,4,10;1,5,1;2,5,10;3,5,1;4,5,21;5,5,2;6,5,28;7,5,1;8,5,43;9,5,1;1,6,1;2,6,1;3,6,1;4,6,99;5,6,2;6,6,99;7,6,1;8,6,1;9,6,1;1,7,1;2,7,7;3,7,2;4,7,2;5,7,2;6,7,2;7,7,2;8,7,6;9,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,45;6,8,1;7,8,1;8,8,1;9,8,2;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,43;9,2,1;1,3,17;2,3,17;3,3,17;4,3,1;5,3,45;6,3,1;7,3,99;8,3,18;9,3,99;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;6,4,10;7,4,1;8,4,1;9,4,1;1,5,1;2,5,45;3,5,1;4,5,1;5,5,10;6,5,1;7,5,1;8,5,43;9,5,1;1,6,1;2,6,1;3,6,1;4,6,10;5,6,1;6,6,10;7,6,1;8,6,1;9,6,1;1,7,99;2,7,18;3,7,99;4,7,1;5,7,1;6,7,1;7,7,16;8,7,16;9,7,16;1,8,1;2,8,1;3,8,1;4,8,1;5,8,2;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,10;3,9,1;4,9,1;5,9,8;6,9,1;7,9,1;8,9,10;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,10;3,2,10;4,2,10;5,2,1;6,2,43;7,2,1;8,2,2;9,2,2;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,2;1,4,1;2,4,1;3,4,44;4,4,1;5,4,99;6,4,99;7,4,19;8,4,99;9,4,99;1,5,2;2,5,10;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;1,6,2;2,6,2;3,6,10;4,6,1;5,6,1;6,6,1;7,6,45;8,6,2;9,6,6;1,7,2;2,7,10;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,1;9,8,2;1,9,1;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,2;9,9,2;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,10;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,1;6,4,43;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,45;6,5,1;7,5,1;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,10;5,6,1;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,2;3,7,1;4,7,1;5,7,1;6,7,43;7,7,1;8,7,2;9,7,14;1,8,14;2,8,1;3,8,43;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,10;8,9,1;9,9,14;1,10,14;2,10,2;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,2;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,43;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,10;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,10;5,3,1;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,1;6,4,15;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,10;6,5,1;7,5,44;8,5,28;9,5,14;1,6,14;2,6,99;3,6,45;4,6,1;5,6,1;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,1;4,7,15;5,7,1;6,7,1;7,7,2;8,7,6;9,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,43;7,8,1;8,8,1;9,8,14;1,9,14;2,9,1;3,9,10;4,9,1;5,9,10;6,9,1;7,9,1;8,9,1;9,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,2;2,2,1;3,2,10;4,2,1;5,2,43;6,2,1;7,2,1;8,2,1;9,2,10;10,2,1;11,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,44;10,3,1;11,3,2;1,4,1;2,4,99;3,4,1;4,4,2;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,99;11,4,1;1,5,1;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,2;9,5,1;10,5,99;11,5,1;1,6,1;2,6,22;3,6,99;4,6,18;5,6,99;6,6,43;7,6,99;8,6,18;9,6,99;10,6,29;11,6,1;1,7,1;2,7,99;3,7,1;4,7,10;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,99;11,7,1;1,8,1;2,8,99;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,99;11,8,1;1,9,1;2,9,1;3,9,43;4,9,1;5,9,1;6,9,1;7,9,45;8,9,1;9,9,1;10,9,1;11,9,1;1,10,2;2,10,1;3,10,1;4,10,10;5,10,1;6,10,1;7,10,1;8,10,1;9,10,10;10,10,1;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,43;3,1,1;4,1,1;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,2;8,2,2;9,2,2;10,2,2;11,2,2;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,2;10,3,2;11,3,2;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,2;11,4,2;1,5,2;2,5,1;3,5,1;4,5,10;5,5,99;6,5,18;7,5,99;8,5,1;9,5,44;10,5,1;11,5,2;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,10;10,6,1;11,6,1;1,7,2;2,7,2;3,7,2;4,7,1;5,7,1;6,7,45;7,7,1;8,7,1;9,7,1;10,7,1;11,7,1;1,8,2;2,8,2;3,8,2;4,8,2;5,8,1;6,8,1;7,8,10;8,8,1;9,8,99;10,8,18;11,8,99;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,1;8,10,1;9,10,45;10,10,10;11,10,1;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,43;3,1,1;4,1,1;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,2;8,2,2;9,2,2;10,2,2;11,2,2;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,2;10,3,2;11,3,2;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,2;11,4,2;1,5,2;2,5,1;3,5,1;4,5,10;5,5,99;6,5,18;7,5,99;8,5,1;9,5,44;10,5,1;11,5,2;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,10;10,6,2;11,6,6;1,7,2;2,7,2;3,7,2;4,7,1;5,7,1;6,7,45;7,7,1;8,7,1;9,7,1;10,7,1;11,7,1;1,8,2;2,8,2;3,8,2;4,8,2;5,8,1;6,8,1;7,8,10;8,8,1;9,8,99;10,8,18;11,8,99;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,1;8,10,1;9,10,45;10,10,10;11,10,1;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,1;9,11,1;10,11,1;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,99;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,2;4,2,21;5,2,1;6,2,10;7,2,1;8,2,43;9,2,1;10,2,1;11,2,1;1,3,1;2,3,1;3,3,2;4,3,99;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,1;11,3,1;1,4,1;2,4,1;3,4,2;4,4,2;5,4,2;6,4,99;7,4,1;8,4,10;9,4,1;10,4,44;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,2;6,5,21;7,5,1;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,43;3,6,1;4,6,1;5,6,2;6,6,99;7,6,1;8,6,1;9,6,10;10,6,1;11,6,1;1,7,1;2,7,1;3,7,10;4,7,1;5,7,2;6,7,2;7,7,2;8,7,99;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,2;8,8,28;9,8,1;10,8,10;11,8,1;1,9,1;2,9,1;3,9,1;4,9,45;5,9,1;6,9,1;7,9,2;8,9,99;9,9,1;10,9,1;11,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,2;8,10,2;9,10,2;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,2;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,99;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,2;4,2,21;5,2,1;6,2,10;7,2,1;8,2,43;9,2,1;10,2,1;11,2,1;1,3,1;2,3,1;3,3,2;4,3,99;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,1;11,3,1;1,4,1;2,4,1;3,4,2;4,4,2;5,4,2;6,4,99;7,4,1;8,4,10;9,4,1;10,4,44;11,4,1;1,5,1;2,5,1;3,5,1;4,5,8;5,5,2;6,5,21;7,5,1;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,43;3,6,1;4,6,1;5,6,2;6,6,99;7,6,1;8,6,1;9,6,10;10,6,1;11,6,1;1,7,1;2,7,1;3,7,10;4,7,1;5,7,2;6,7,2;7,7,2;8,7,99;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,7;7,8,2;8,8,28;9,8,1;10,8,10;11,8,1;1,9,1;2,9,1;3,9,1;4,9,45;5,9,1;6,9,1;7,9,2;8,9,99;9,9,1;10,9,1;11,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,2;8,10,2;9,10,2;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,2;10,11,2;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,2;6,1,1;7,1,1;8,1,2;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,2;4,2,1;5,2,2;6,2,6;7,2,1;8,2,2;9,2,6;10,2,10;11,2,1;1,3,10;2,3,1;3,3,2;4,3,1;5,3,2;6,3,1;7,3,43;8,3,2;9,3,2;10,3,2;11,3,2;1,4,10;2,4,1;3,4,2;4,4,1;5,4,2;6,4,2;7,4,2;8,4,2;9,4,2;10,4,2;11,4,2;1,5,1;2,5,1;3,5,2;4,5,1;5,5,1;6,5,1;7,5,8;8,5,1;9,5,1;10,5,1;11,5,1;1,6,99;2,6,18;3,6,99;4,6,2;5,6,2;6,6,2;7,6,2;8,6,2;9,6,99;10,6,18;11,6,99;1,7,1;2,7,1;3,7,2;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,1;11,7,1;1,8,1;2,8,43;3,8,2;4,8,1;5,8,1;6,8,1;7,8,45;8,8,1;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,2;4,9,1;5,9,10;6,9,1;7,9,1;8,9,1;9,9,10;10,9,1;11,9,1;1,10,1;2,10,1;3,10,2;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,1;1,11,2;2,11,2;3,11,2;4,11,1;5,11,1;6,11,1;7,11,2;8,11,1;9,11,1;10,11,1;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,2;2,3,2;3,3,2;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,2;10,3,2;11,3,2;1,4,2;2,4,2;3,4,1;4,4,1;5,4,1;6,4,1;7,4,45;8,4,1;9,4,1;10,4,2;11,4,2;1,5,2;2,5,1;3,5,1;4,5,44;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,1;11,5,2;1,6,99;2,6,18;3,6,99;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,99;10,6,18;11,6,99;1,7,2;2,7,2;3,7,99;4,7,1;5,7,1;6,7,10;7,7,1;8,7,1;9,7,99;10,7,2;11,7,2;1,8,2;2,8,2;3,8,99;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,99;10,8,2;11,8,2;1,9,2;2,9,2;3,9,22;4,9,1;5,9,1;6,9,1;7,9,42;8,9,1;9,9,29;10,9,2;11,9,2;1,10,2;2,10,2;3,10,99;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,99;10,10,2;11,10,2;1,11,2;2,11,2;3,11,99;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,99;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,1;3,2,43;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,10;10,2,1;11,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,44;6,3,1;7,3,1;8,3,43;9,3,1;10,3,1;11,3,2;1,4,2;2,4,1;3,4,10;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,1;11,4,2;1,5,2;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,1;11,5,2;1,6,99;2,6,18;3,6,99;4,6,2;5,6,2;6,6,2;7,6,2;8,6,2;9,6,99;10,6,18;11,6,99;1,7,2;2,7,1;3,7,1;4,7,1;5,7,1;6,7,8;7,7,1;8,7,1;9,7,1;10,7,1;11,7,2;1,8,2;2,8,2;3,8,1;4,8,10;5,8,10;6,8,1;7,8,45;8,8,1;9,8,1;10,8,2;11,8,2;1,9,2;2,9,2;3,9,2;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,2;10,9,2;11,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,1;6,10,1;7,10,1;8,10,2;9,10,2;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,1;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;8,2,1;9,2,44;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,1;6,5,1;7,5,43;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,10;5,7,1;6,7,1;7,7,1;8,7,1;9,7,10;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,45;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,2;4,9,2;5,9,1;6,9,1;7,9,1;8,9,2;9,9,2;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;8,2,1;9,2,44;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,1;6,5,1;7,5,43;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,10;5,7,1;6,7,1;7,7,1;8,7,1;9,7,10;10,7,99;11,7,14;1,8,14;2,8,99;3,8,18;4,8,99;5,8,1;6,8,45;7,8,1;8,8,1;9,8,2;10,8,6;11,8,14;1,9,14;2,9,1;3,9,2;4,9,2;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,10;8,10,10;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,2;5,11,1;6,11,1;7,11,2;8,11,1;9,11,1;10,11,2;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,43;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,2;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,44;5,4,1;6,4,8;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,15;7,5,1;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,10;5,6,1;6,6,15;7,6,1;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,15;7,7,1;8,7,45;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,44;5,8,1;6,8,9;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,10;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,43;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,44;6,4,1;7,4,1;8,4,2;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,10;6,6,1;7,6,1;8,6,99;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,1;7,7,45;8,7,28;9,7,10;10,7,99;11,7,14;1,8,14;2,8,7;3,8,2;4,8,1;5,8,1;6,8,1;7,8,1;8,8,99;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,99;9,9,18;10,9,99;11,9,14;1,10,14;2,10,1;3,10,1;4,10,10;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,14;1,11,14;2,11,2;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,2;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,43;6,2,1;7,2,1;8,2,1;9,2,10;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,10;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,9;7,5,1;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,2;7,6,99;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,21;6,7,1;7,7,28;8,7,1;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,43;4,8,1;5,8,99;6,8,1;7,8,99;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,43;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,10;5,10,99;6,10,18;7,10,99;8,10,1;9,10,1;10,10,1;11,10,14;1,11,14;2,11,2;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,2;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,2;2,2,31;3,2,1;4,2,31;5,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;1,4,2;2,4,1;3,4,1;4,4,1;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,2;6,1,2;7,1,2;1,2,2;2,2,1;3,2,31;4,2,2;5,2,31;6,2,1;7,2,2;1,3,1;2,3,31;3,3,1;4,3,2;5,3,1;6,3,31;7,3,1;1,4,2;2,4,1;3,4,1;4,4,2;5,4,1;6,4,1;7,4,2;1,5,2;2,5,2;3,5,1;4,5,2;5,5,1;6,5,2;7,5,2;1,6,2;2,6,2;3,6,2;4,6,1;5,6,2;6,6,2;7,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;6,7,2;7,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2;6,8,2;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,1;3,2,31;4,2,1;5,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;1,4,2;2,4,1;3,4,1;4,4,1;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,2;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,31;5,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;1,4,1;2,4,31;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,31;5,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,2;4,1,1;5,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;1,4,1;2,4,99;3,4,18;4,4,99;5,4,1;1,5,2;2,5,1;3,5,1;4,5,1;5,5,2;1,6,2;2,6,1;3,6,31;4,6,1;5,6,2;1,7,2;2,7,1;3,7,1;4,7,1;5,7,2;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,1;3,2,1;4,2,31;5,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,31;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,31;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;1,3,2;2,3,1;3,3,31;4,3,1;5,3,2;1,4,2;2,4,1;3,4,1;4,4,1;5,4,2;1,5,2;2,5,1;3,5,31;4,5,1;5,5,2;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,2;4,1,1;5,1,2;6,1,1;7,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,2;7,2,2;1,3,2;2,3,1;3,3,1;4,3,31;5,3,1;6,3,1;7,3,2;1,4,2;2,4,2;3,4,1;4,4,1;5,4,1;6,4,2;7,4,2;1,5,2;2,5,1;3,5,2;4,5,1;5,5,2;6,5,1;7,5,2;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,2;7,6,2;1,7,2;2,7,1;3,7,1;4,7,31;5,7,1;6,7,1;7,7,2;1,8,2;2,8,2;3,8,1;4,8,1;5,8,1;6,8,2;7,8,2;1,9,2;2,9,1;3,9,2;4,9,2;5,9,2;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,2;5,1,1;6,1,2;7,1,2;1,2,1;2,2,1;3,2,99;4,2,18;5,2,99;6,2,1;7,2,1;1,3,1;2,3,31;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,31;7,4,1;1,5,2;2,5,1;3,5,99;4,5,18;5,5,99;6,5,1;7,5,2;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,31;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,99;4,8,18;5,8,99;6,8,1;7,8,1;1,9,2;2,9,2;3,9,1;4,9,2;5,9,1;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;1,3,1;2,3,1;3,3,99;4,3,18;5,3,99;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,31;5,4,1;6,4,1;7,4,1;1,5,17;2,5,17;3,5,1;4,5,1;5,5,1;6,5,16;7,5,16;1,6,1;2,6,1;3,6,1;4,6,31;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,99;4,7,18;5,7,99;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,2;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,31;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;1,7,1;2,7,31;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,2;5,1,1;6,1,1;7,1,2;1,2,1;2,2,1;3,2,1;4,2,2;5,2,1;6,2,1;7,2,1;1,3,17;2,3,17;3,3,1;4,3,2;5,3,1;6,3,31;7,3,1;1,4,1;2,4,1;3,4,1;4,4,2;5,4,1;6,4,1;7,4,1;1,5,1;2,5,31;3,5,1;4,5,2;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,2;5,6,1;6,6,16;7,6,16;1,7,1;2,7,1;3,7,1;4,7,2;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,2;5,8,1;6,8,31;7,8,1;1,9,1;2,9,1;3,9,1;4,9,2;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,2;2,2,2;3,2,2;4,2,1;5,2,31;6,2,1;7,2,2;8,2,2;9,2,2;1,3,1;2,3,1;3,3,2;4,3,1;5,3,1;6,3,1;7,3,2;8,3,1;9,3,1;1,4,31;2,4,1;3,4,2;4,4,1;5,4,1;6,4,1;7,4,2;8,4,1;9,4,31;1,5,1;2,5,1;3,5,2;4,5,1;5,5,1;6,5,1;7,5,2;8,5,1;9,5,1;1,6,1;2,6,1;3,6,2;4,6,1;5,6,31;6,6,1;7,6,2;8,6,1;9,6,1;1,7,1;2,7,1;3,7,2;4,7,1;5,7,1;6,7,1;7,7,2;8,7,1;9,7,1;1,8,2;2,8,2;3,8,2;4,8,1;5,8,1;6,8,1;7,8,2;8,8,2;9,8,2;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,1;2,2,2;3,2,2;4,2,1;5,2,31;6,2,1;7,2,2;8,2,2;9,2,1;1,3,1;2,3,1;3,3,2;4,3,2;5,3,1;6,3,2;7,3,2;8,3,1;9,3,1;1,4,1;2,4,31;3,4,1;4,4,2;5,4,2;6,4,2;7,4,1;8,4,31;9,4,1;1,5,1;2,5,1;3,5,1;4,5,2;5,5,2;6,5,2;7,5,1;8,5,1;9,5,1;1,6,1;2,6,1;3,6,2;4,6,2;5,6,1;6,6,2;7,6,2;8,6,1;9,6,1;1,7,1;2,7,2;3,7,2;4,7,1;5,7,31;6,7,1;7,7,2;8,7,2;9,7,1;1,8,2;2,8,2;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,2;9,8,2;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,2;5,1,2;6,1,2;7,1,1;8,1,1;9,1,1;1,2,1;2,2,31;3,2,1;4,2,1;5,2,2;6,2,1;7,2,1;8,2,31;9,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,2;6,3,1;7,3,1;8,3,1;9,3,1;1,4,2;2,4,1;3,4,2;4,4,2;5,4,2;6,4,2;7,4,2;8,4,1;9,4,2;1,5,2;2,5,2;3,5,2;4,5,1;5,5,1;6,5,1;7,5,2;8,5,2;9,5,2;1,6,2;2,6,1;3,6,2;4,6,2;5,6,2;6,6,2;7,6,2;8,6,1;9,6,2;1,7,1;2,7,1;3,7,1;4,7,1;5,7,2;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,31;3,8,1;4,8,1;5,8,2;6,8,1;7,8,1;8,8,31;9,8,1;1,9,1;2,9,1;3,9,1;4,9,2;5,9,2;6,9,2;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,2;1,3,2;2,3,1;3,3,99;4,3,99;5,3,19;6,3,99;7,3,99;8,3,1;9,3,2;1,4,2;2,4,1;3,4,31;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,2;1,5,2;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,2;1,6,2;2,6,1;3,6,99;4,6,1;5,6,1;6,6,31;7,6,99;8,6,1;9,6,2;1,7,2;2,7,1;3,7,21;4,7,99;5,7,18;6,7,99;7,7,28;8,7,1;9,7,2;1,8,2;2,8,1;3,8,99;4,8,1;5,8,1;6,8,1;7,8,99;8,8,1;9,8,2;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,2;6,2,1;7,2,31;8,2,1;9,2,2;1,3,1;2,3,1;3,3,1;4,3,1;5,3,2;6,3,1;7,3,1;8,3,1;9,3,2;1,4,17;2,4,17;3,4,17;4,4,17;5,4,2;6,4,1;7,4,1;8,4,1;9,4,2;1,5,1;2,5,1;3,5,1;4,5,1;5,5,2;6,5,1;7,5,31;8,5,1;9,5,2;1,6,2;2,6,2;3,6,31;4,6,1;5,6,99;6,6,1;7,6,1;8,6,1;9,6,2;1,7,1;2,7,1;3,7,1;4,7,1;5,7,21;6,7,1;7,7,1;8,7,1;9,7,2;1,8,17;2,8,17;3,8,17;4,8,17;5,8,99;6,8,1;7,8,31;8,8,1;9,8,2;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,1;2,2,1;3,2,2;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,2;10,2,1;11,2,1;1,3,31;2,3,1;3,3,2;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,2;10,3,1;11,3,31;1,4,1;2,4,1;3,4,2;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,2;10,4,1;11,4,1;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;6,5,2;7,5,2;8,5,2;9,5,2;10,5,2;11,5,2;1,6,1;2,6,1;3,6,2;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,2;10,6,1;11,6,1;1,7,31;2,7,1;3,7,2;4,7,1;5,7,1;6,7,31;7,7,1;8,7,1;9,7,2;10,7,1;11,7,31;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,2;10,8,1;11,8,1;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2;8,9,2;9,9,2;10,9,2;11,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;6,1,2;7,1,2;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,2;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,1;2,3,2;3,3,2;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,2;10,3,2;11,3,1;1,4,31;2,4,1;3,4,2;4,4,2;5,4,1;6,4,2;7,4,1;8,4,2;9,4,2;10,4,1;11,4,31;1,5,1;2,5,2;3,5,2;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,2;10,5,2;11,5,1;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,2;7,6,1;8,6,31;9,6,1;10,6,2;11,6,2;1,7,2;2,7,1;3,7,1;4,7,1;5,7,2;6,7,2;7,7,2;8,7,1;9,7,1;10,7,1;11,7,2;1,8,1;2,8,31;3,8,1;4,8,2;5,8,2;6,8,1;7,8,2;8,8,2;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,2;4,9,2;5,9,1;6,9,31;7,9,1;8,9,2;9,9,2;10,9,1;11,9,1;1,10,1;2,10,2;3,10,2;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,2;10,10,2;11,10,1;1,11,2;2,11,2;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,1;10,2,1;11,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,31;10,3,1;11,3,2;1,4,1;2,4,1;3,4,99;4,4,1;5,4,31;6,4,1;7,4,1;8,4,1;9,4,99;10,4,1;11,4,1;1,5,99;2,5,1;3,5,99;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,99;10,5,1;11,5,99;1,6,21;2,6,1;3,6,22;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,29;10,6,1;11,6,28;1,7,99;2,7,1;3,7,99;4,7,1;5,7,1;6,7,1;7,7,31;8,7,1;9,7,99;10,7,1;11,7,99;1,8,1;2,8,1;3,8,99;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,99;10,8,1;11,8,1;1,9,2;2,9,1;3,9,1;4,9,31;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,2;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,2;4,2,2;5,2,2;6,2,1;7,2,1;8,2,31;9,2,1;10,2,1;11,2,1;1,3,99;2,3,99;3,3,19;4,3,99;5,3,99;6,3,1;7,3,1;8,3,1;9,3,99;10,3,1;11,3,1;1,4,1;2,4,1;3,4,31;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,99;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,99;6,5,1;7,5,1;8,5,1;9,5,99;10,5,1;11,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,28;6,6,1;7,6,1;8,6,31;9,6,30;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,99;6,7,1;7,7,1;8,7,1;9,7,99;10,7,1;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,99;10,8,1;11,8,1;1,9,99;2,9,99;3,9,19;4,9,99;5,9,99;6,9,1;7,9,31;8,9,1;9,9,99;10,9,1;11,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,1;7,10,1;8,10,1;9,10,1;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;8,1,2;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,2;2,3,1;3,3,31;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,31;10,3,1;11,3,2;1,4,2;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;10,4,1;11,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;6,5,1;7,5,2;8,5,2;9,5,2;10,5,2;11,5,2;1,6,2;2,6,2;3,6,2;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,2;10,6,2;11,6,2;1,7,2;2,7,2;3,7,1;4,7,31;5,7,1;6,7,1;7,7,1;8,7,31;9,7,1;10,7,2;11,7,2;1,8,2;2,8,2;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,2;11,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2;8,9,2;9,9,2;10,9,2;11,9,2;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,2;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,31;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,2;3,2,1;4,2,2;5,2,1;6,2,2;7,2,1;1,3,1;2,3,2;3,3,1;4,3,2;5,3,1;6,3,2;7,3,1;1,4,1;2,4,2;3,4,1;4,4,2;5,4,1;6,4,2;7,4,1;1,5,1;2,5,1;3,5,31;4,5,2;5,5,31;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,8;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,2;3,9,2;4,9,1;5,9,2;6,9,2;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,31;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,6;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,31;3,6,1;4,6,1;5,6,1;6,6,31;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,31;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;1,4,1;2,4,1;3,4,99;4,4,18;5,4,99;6,4,1;7,4,1;1,5,1;2,5,1;3,5,1;4,5,9;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,2;5,6,1;6,6,1;7,6,1;1,7,1;2,7,31;3,7,1;4,7,1;5,7,1;6,7,31;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,31;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;1,4,1;2,4,99;3,4,1;4,4,1;5,4,1;6,4,99;7,4,1;1,5,1;2,5,21;3,5,1;4,5,31;5,5,1;6,5,28;7,5,1;1,6,1;2,6,99;3,6,1;4,6,1;5,6,1;6,6,99;7,6,1;1,7,1;2,7,7;3,7,2;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,31;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,31;5,2,1;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,16;7,3,16;1,4,1;2,4,1;3,4,31;4,4,1;5,4,1;6,4,1;7,4,1;1,5,7;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;1,6,17;2,6,17;3,6,17;4,6,1;5,6,31;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,31;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,15;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;1,3,1;2,3,1;3,3,15;4,3,7;5,3,2;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,15;5,4,1;6,4,1;7,4,1;1,5,1;2,5,31;3,5,1;4,5,99;5,5,1;6,5,31;7,5,1;1,6,1;2,6,1;3,6,1;4,6,21;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,99;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,31;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,2;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,2;7,1,2;1,2,1;2,2,15;3,2,1;4,2,31;5,2,1;6,2,2;7,2,1;1,3,10;2,3,2;3,3,1;4,3,1;5,3,1;6,3,2;7,3,1;1,4,1;2,4,2;3,4,1;4,4,31;5,4,15;6,4,2;7,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,10;6,5,1;7,5,1;1,6,1;2,6,2;3,6,15;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,2;6,7,31;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;1,3,15;2,3,1;3,3,31;4,3,1;5,3,1;6,3,1;7,3,1;1,4,2;2,4,15;3,4,1;4,4,1;5,4,1;6,4,1;7,4,10;1,5,2;2,5,2;3,5,15;4,5,1;5,5,10;6,5,1;7,5,1;1,6,2;2,6,15;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,15;2,7,1;3,7,1;4,7,1;5,7,1;6,7,31;7,7,1;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,2;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,99;6,3,18;7,3,99;1,4,1;2,4,1;3,4,1;4,4,31;5,4,1;6,4,1;7,4,1;1,5,1;2,5,15;3,5,1;4,5,1;5,5,1;6,5,10;7,5,1;1,6,15;2,6,15;3,6,1;4,6,31;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,31;7,7,1;1,8,1;2,8,10;3,8,1;4,8,2;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,2;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;1,3,1;2,3,31;3,3,1;4,3,2;5,3,1;6,3,1;7,3,10;1,4,1;2,4,99;3,4,1;4,4,1;5,4,1;6,4,99;7,4,1;1,5,1;2,5,21;3,5,1;4,5,10;5,5,1;6,5,28;7,5,1;1,6,1;2,6,99;3,6,1;4,6,1;5,6,1;6,6,99;7,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,31;6,7,1;7,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1;6,8,10;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,10;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;1,4,1;2,4,10;3,4,1;4,4,1;5,4,1;6,4,1;7,4,10;1,5,99;2,5,99;3,5,19;4,5,99;5,5,99;6,5,1;7,5,1;1,6,1;2,6,1;3,6,10;4,6,1;5,6,1;6,6,31;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,2;2,8,2;3,8,1;4,8,1;5,8,10;6,8,2;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,10;4,2,1;5,2,1;6,2,1;7,2,10;8,2,1;9,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,31;6,3,1;7,3,1;8,3,1;9,3,31;1,4,99;2,4,99;3,4,19;4,4,99;5,4,99;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,10;6,5,1;7,5,1;8,5,31;9,5,1;1,6,1;2,6,1;3,6,1;4,6,31;5,6,1;6,6,1;7,6,10;8,6,1;9,6,1;1,7,99;2,7,18;3,7,99;4,7,1;5,7,2;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,2;6,8,1;7,8,99;8,8,18;9,8,99;1,9,1;2,9,1;3,9,10;4,9,1;5,9,1;6,9,31;7,9,1;8,9,1;9,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,10;6,2,1;7,2,31;8,2,1;9,2,1;1,3,1;2,3,1;3,3,99;4,3,1;5,3,31;6,3,1;7,3,99;8,3,1;9,3,10;1,4,1;2,4,1;3,4,99;4,4,1;5,4,1;6,4,1;7,4,99;8,4,1;9,4,1;1,5,10;2,5,2;3,5,22;4,5,10;5,5,2;6,5,10;7,5,29;8,5,2;9,5,1;1,6,1;2,6,1;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,10;9,6,1;1,7,1;2,7,1;3,7,99;4,7,99;5,7,18;6,7,99;7,7,99;8,7,1;9,7,1;1,8,1;2,8,10;3,8,1;4,8,1;5,8,1;6,8,1;7,8,31;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,10;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,2;3,10,2;4,10,2;5,10,1;6,10,2;7,10,2;8,10,2;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,31;7,2,10;8,2,1;9,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,2;6,3,1;7,3,1;8,3,1;9,3,2;1,4,1;2,4,1;3,4,99;4,4,99;5,4,19;6,4,99;7,4,99;8,4,1;9,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,15;6,5,1;7,5,31;8,5,1;9,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,15;6,6,1;7,6,1;8,6,1;9,6,10;1,7,1;2,7,31;3,7,1;4,7,99;5,7,18;6,7,99;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,1;8,8,31;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,10;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,10;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;1,4,7;2,4,2;3,4,1;4,4,99;5,4,1;6,4,1;7,4,99;8,4,1;9,4,1;1,5,99;2,5,18;3,5,99;4,5,99;5,5,1;6,5,1;7,5,99;8,5,1;9,5,1;1,6,1;2,6,1;3,6,1;4,6,22;5,6,1;6,6,1;7,6,99;8,6,1;9,6,31;1,7,17;2,7,17;3,7,1;4,7,99;5,7,10;6,7,1;7,7,30;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,99;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,99;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,1;4,2,10;5,2,31;6,2,1;7,2,1;8,2,1;9,2,1;1,3,1;2,3,10;3,3,1;4,3,99;5,3,18;6,3,99;7,3,1;8,3,10;9,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,99;4,5,1;5,5,10;6,5,1;7,5,99;8,5,1;9,5,31;1,6,1;2,6,31;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,1;2,7,1;3,7,22;4,7,99;5,7,18;6,7,99;7,7,29;8,7,1;9,7,1;1,8,1;2,8,1;3,8,99;4,8,1;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,1;3,9,99;4,9,1;5,9,10;6,9,1;7,9,99;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,31;9,2,1;1,3,1;2,3,1;3,3,1;4,3,10;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;1,4,99;2,4,18;3,4,99;4,4,15;5,4,31;6,4,1;7,4,10;8,4,1;9,4,1;1,5,1;2,5,1;3,5,1;4,5,15;5,5,1;6,5,1;7,5,1;8,5,1;9,5,31;1,6,1;2,6,2;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,1;1,7,1;2,7,1;3,7,1;4,7,15;5,7,1;6,7,1;7,7,10;8,7,1;9,7,1;1,8,99;2,8,18;3,8,99;4,8,15;5,8,1;6,8,31;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,10;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,10;6,2,1;7,2,1;8,2,31;9,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,10;1,4,31;2,4,1;3,4,99;4,4,1;5,4,1;6,4,1;7,4,99;8,4,1;9,4,1;1,5,1;2,5,1;3,5,21;4,5,1;5,5,31;6,5,1;7,5,21;8,5,1;9,5,1;1,6,1;2,6,1;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,16;2,7,16;3,7,16;4,7,1;5,7,2;6,7,1;7,7,17;8,7,17;9,7,17;1,8,1;2,8,1;3,8,1;4,8,1;5,8,8;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,10;4,9,1;5,9,1;6,9,1;7,9,1;8,9,10;9,9,1;1,10,1;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,2;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;8,2,31;9,2,1;1,3,1;2,3,1;3,3,99;4,3,99;5,3,18;6,3,99;7,3,1;8,3,1;9,3,1;1,4,1;2,4,1;3,4,99;4,4,1;5,4,1;6,4,1;7,4,1;8,4,10;9,4,1;1,5,1;2,5,10;3,5,22;4,5,1;5,5,10;6,5,1;7,5,1;8,5,31;9,5,1;1,6,1;2,6,1;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,1;2,7,1;3,7,99;4,7,99;5,7,18;6,7,99;7,7,99;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,29;8,8,1;9,8,1;1,9,1;2,9,31;3,9,1;4,9,10;5,9,1;6,9,1;7,9,99;8,9,1;9,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,99;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,2;5,1,1;6,1,2;7,1,1;8,1,1;9,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;6,2,10;7,2,1;8,2,1;9,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,31;9,3,1;1,4,17;2,4,17;3,4,17;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,10;6,5,2;7,5,1;8,5,1;9,5,31;1,6,10;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,1;1,7,7;2,7,2;3,7,31;4,7,1;5,7,1;6,7,1;7,7,16;8,7,16;9,7,16;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,31;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;8,2,1;9,2,1;1,3,7;2,3,2;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,31;9,3,1;1,4,99;2,4,99;3,4,19;4,4,99;5,4,99;6,4,1;7,4,1;8,4,2;9,4,6;1,5,1;2,5,1;3,5,31;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,10;7,6,10;8,6,10;9,6,1;1,7,1;2,7,10;3,7,10;4,7,10;5,7,1;6,7,1;7,7,31;8,7,1;9,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1;6,8,10;7,8,10;8,8,10;9,8,1;1,9,1;2,9,10;3,9,10;4,9,10;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,31;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,1;6,5,1;7,5,10;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,10;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,31;6,8,1;7,8,1;8,8,1;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,10;8,9,1;9,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,31;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,15;6,5,1;7,5,10;8,5,28;9,5,14;1,6,14;2,6,99;3,6,7;4,6,1;5,6,1;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,99;3,7,18;4,7,99;5,7,1;6,7,1;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,31;6,8,1;7,8,1;8,8,1;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,10;8,9,1;9,9,14;1,10,14;2,10,2;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,31;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,31;5,4,2;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,1;6,5,1;7,5,10;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,99;5,6,1;6,6,99;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,1;4,7,21;5,7,1;6,7,28;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,1;4,8,99;5,8,2;6,8,99;7,8,1;8,8,31;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,14;1,10,14;2,10,2;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,2;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,31;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,1;6,2,10;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,2;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,10;4,5,1;5,5,8;6,5,31;7,5,1;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,1;5,6,9;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,1;4,7,1;5,7,2;6,7,1;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,1;4,8,31;5,8,1;6,8,10;7,8,1;8,8,1;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,14;1,10,14;2,10,2;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,2;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,31;6,1,1;7,1,1;8,1,2;9,1,2;1,2,17;2,2,17;3,2,1;4,2,1;5,2,2;6,2,10;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,2;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,10;4,5,1;5,5,7;6,5,2;7,5,1;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,2;5,6,6;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,1;4,7,1;5,7,7;6,7,2;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,15;4,8,1;5,8,1;6,8,1;7,8,15;8,8,1;9,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,31;6,9,1;7,9,1;8,9,1;9,9,14;1,10,14;2,10,2;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,2;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,31;4,1,1;5,1,1;6,1,1;7,1,1;8,1,2;9,1,2;1,2,99;2,2,18;3,2,99;4,2,1;5,2,1;6,2,10;7,2,1;8,2,16;9,2,16;1,3,14;2,3,12;3,3,2;4,3,1;5,3,1;6,3,1;7,3,2;8,3,11;9,3,14;1,4,14;2,4,99;3,4,1;4,4,1;5,4,2;6,4,1;7,4,1;8,4,99;9,4,14;1,5,14;2,5,21;3,5,1;4,5,1;5,5,31;6,5,1;7,5,1;8,5,28;9,5,14;1,6,14;2,6,99;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,99;9,6,14;1,7,14;2,7,1;3,7,1;4,7,15;5,7,15;6,7,2;7,7,1;8,7,1;9,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,8;7,8,10;8,8,1;9,8,14;1,9,14;2,9,1;3,9,2;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,2;9,10,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,1;3,2,10;4,2,1;5,2,1;6,2,1;7,2,10;8,2,1;9,2,1;10,2,1;11,2,31;1,3,2;2,3,1;3,3,1;4,3,31;5,3,1;6,3,1;7,3,1;8,3,99;9,3,31;10,3,1;11,3,1;1,4,2;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,99;9,4,1;10,4,1;11,4,10;1,5,2;2,5,1;3,5,1;4,5,1;5,5,1;6,5,10;7,5,1;8,5,99;9,5,1;10,5,2;11,5,1;1,6,99;2,6,99;3,6,99;4,6,20;5,6,99;6,6,99;7,6,99;8,6,30;9,6,1;10,6,2;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,99;9,7,1;10,7,2;11,7,1;1,8,1;2,8,1;3,8,1;4,8,10;5,8,1;6,8,1;7,8,1;8,8,99;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,2;4,9,2;5,9,2;6,9,31;7,9,1;8,9,99;9,9,1;10,9,1;11,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,10;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,10;6,2,1;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,7;2,3,2;3,3,2;4,3,1;5,3,1;6,3,1;7,3,31;8,3,1;9,3,2;10,3,2;11,3,2;1,4,99;2,4,18;3,4,99;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,99;10,4,18;11,4,99;1,5,2;2,5,2;3,5,2;4,5,1;5,5,1;6,5,10;7,5,1;8,5,1;9,5,2;10,5,2;11,5,6;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,1;10,6,2;11,6,2;1,7,7;2,7,2;3,7,1;4,7,1;5,7,10;6,7,1;7,7,1;8,7,10;9,7,1;10,7,1;11,7,2;1,8,1;2,8,1;3,8,31;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,10;11,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,31;6,9,1;7,9,1;8,9,31;9,9,1;10,9,1;11,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,1;11,10,2;1,11,2;2,11,2;3,11,2;4,11,1;5,11,1;6,11,2;7,11,1;8,11,1;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,99;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,2;4,2,2;5,2,21;6,2,1;7,2,31;8,2,1;9,2,1;10,2,31;11,2,1;1,3,2;2,3,2;3,3,2;4,3,2;5,3,99;6,3,1;7,3,1;8,3,10;9,3,1;10,3,1;11,3,1;1,4,99;2,4,99;3,4,19;4,4,99;5,4,99;6,4,1;7,4,1;8,4,1;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,10;10,5,1;11,5,1;1,6,7;2,6,2;3,6,1;4,6,10;5,6,1;6,6,1;7,6,31;8,6,1;9,6,1;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,2;11,7,6;1,8,1;2,8,31;3,8,1;4,8,1;5,8,1;6,8,10;7,8,99;8,8,99;9,8,19;10,8,99;11,8,99;1,9,1;2,9,1;3,9,1;4,9,1;5,9,31;6,9,1;7,9,99;8,9,2;9,9,2;10,9,2;11,9,2;1,10,1;2,10,10;3,10,1;4,10,2;5,10,1;6,10,1;7,10,21;8,10,2;9,10,2;10,10,2;11,10,2;1,11,1;2,11,1;3,11,1;4,11,8;5,11,1;6,11,1;7,11,99;8,11,2;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,1;3,2,1;4,2,1;5,2,31;6,2,1;7,2,10;8,2,1;9,2,31;10,2,1;11,2,1;1,3,8;2,3,1;3,3,2;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,1;11,3,1;1,4,17;2,4,17;3,4,8;4,4,1;5,4,1;6,4,2;7,4,99;8,4,1;9,4,1;10,4,10;11,4,1;1,5,1;2,5,1;3,5,17;4,5,17;5,5,1;6,5,8;7,5,28;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,2;3,6,1;4,6,1;5,6,17;6,6,17;7,6,99;8,6,1;9,6,31;10,6,1;11,6,1;1,7,1;2,7,2;3,7,10;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,10;7,8,1;8,8,1;9,8,1;10,8,1;11,8,1;1,9,99;2,9,99;3,9,99;4,9,20;5,9,99;6,9,99;7,9,99;8,9,99;9,9,1;10,9,1;11,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,28;9,10,1;10,10,1;11,10,1;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,99;9,11,1;10,11,2;11,11,2</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2226,6 +2562,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2539,10 +2881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C572"/>
+  <dimension ref="A1:C684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="B517" sqref="B517"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="B575" sqref="B575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7646,30 +7988,926 @@
     </row>
     <row r="570" s="3" customFormat="1" ht="18.75" spans="1:2">
       <c r="A570" s="9">
+        <v>10031</v>
+      </c>
+      <c r="B570" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="571" s="3" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A571" s="9">
+        <v>10032</v>
+      </c>
+      <c r="B571" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="572" s="3" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A572" s="9">
         <v>90001</v>
-      </c>
-      <c r="B570" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="571" ht="16.5" spans="1:2">
-      <c r="A571" s="9">
-        <v>90002</v>
-      </c>
-      <c r="B571" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="572" ht="16.5" spans="1:2">
-      <c r="A572" s="9">
-        <v>90003</v>
       </c>
       <c r="B572" s="13" t="s">
         <v>469</v>
       </c>
     </row>
+    <row r="573" ht="16.5" spans="1:2">
+      <c r="A573" s="9">
+        <v>90002</v>
+      </c>
+      <c r="B573" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="574" ht="16.5" spans="1:2">
+      <c r="A574" s="9">
+        <v>90003</v>
+      </c>
+      <c r="B574" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="22">
+        <v>8001</v>
+      </c>
+      <c r="B575" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="22">
+        <v>8002</v>
+      </c>
+      <c r="B576" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="22">
+        <v>8003</v>
+      </c>
+      <c r="B577" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="22">
+        <v>8004</v>
+      </c>
+      <c r="B578" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="22">
+        <v>8005</v>
+      </c>
+      <c r="B579" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="22">
+        <v>8006</v>
+      </c>
+      <c r="B580" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="22">
+        <v>8007</v>
+      </c>
+      <c r="B581" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="22">
+        <v>8008</v>
+      </c>
+      <c r="B582" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="22">
+        <v>8009</v>
+      </c>
+      <c r="B583" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="22">
+        <v>8010</v>
+      </c>
+      <c r="B584" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="22">
+        <v>8011</v>
+      </c>
+      <c r="B585" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="22">
+        <v>8012</v>
+      </c>
+      <c r="B586" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="22">
+        <v>8013</v>
+      </c>
+      <c r="B587" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="22">
+        <v>8014</v>
+      </c>
+      <c r="B588" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="22">
+        <v>8015</v>
+      </c>
+      <c r="B589" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="22">
+        <v>8016</v>
+      </c>
+      <c r="B590" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="22">
+        <v>8017</v>
+      </c>
+      <c r="B591" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="22">
+        <v>8018</v>
+      </c>
+      <c r="B592" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="22">
+        <v>8019</v>
+      </c>
+      <c r="B593" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="22">
+        <v>8020</v>
+      </c>
+      <c r="B594" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="22">
+        <v>8021</v>
+      </c>
+      <c r="B595" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="22">
+        <v>8022</v>
+      </c>
+      <c r="B596" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="22">
+        <v>8023</v>
+      </c>
+      <c r="B597" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="22">
+        <v>8024</v>
+      </c>
+      <c r="B598" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="22">
+        <v>8025</v>
+      </c>
+      <c r="B599" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="22">
+        <v>8026</v>
+      </c>
+      <c r="B600" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="22">
+        <v>8027</v>
+      </c>
+      <c r="B601" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="22">
+        <v>8028</v>
+      </c>
+      <c r="B602" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="22">
+        <v>8029</v>
+      </c>
+      <c r="B603" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="22">
+        <v>8030</v>
+      </c>
+      <c r="B604" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="22">
+        <v>8031</v>
+      </c>
+      <c r="B605" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="22">
+        <v>8032</v>
+      </c>
+      <c r="B606" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="22">
+        <v>8033</v>
+      </c>
+      <c r="B607" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="22">
+        <v>8034</v>
+      </c>
+      <c r="B608" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="22">
+        <v>8035</v>
+      </c>
+      <c r="B609" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="22">
+        <v>8036</v>
+      </c>
+      <c r="B610" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="22">
+        <v>8037</v>
+      </c>
+      <c r="B611" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="22">
+        <v>8038</v>
+      </c>
+      <c r="B612" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="22">
+        <v>8039</v>
+      </c>
+      <c r="B613" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="22">
+        <v>8040</v>
+      </c>
+      <c r="B614" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="22">
+        <v>8041</v>
+      </c>
+      <c r="B615" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="22">
+        <v>8042</v>
+      </c>
+      <c r="B616" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="22">
+        <v>8043</v>
+      </c>
+      <c r="B617" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="22">
+        <v>8044</v>
+      </c>
+      <c r="B618" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="22">
+        <v>8045</v>
+      </c>
+      <c r="B619" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="22">
+        <v>8046</v>
+      </c>
+      <c r="B620" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="22">
+        <v>8047</v>
+      </c>
+      <c r="B621" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="22">
+        <v>8048</v>
+      </c>
+      <c r="B622" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="22">
+        <v>8049</v>
+      </c>
+      <c r="B623" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="22">
+        <v>8050</v>
+      </c>
+      <c r="B624" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="22">
+        <v>8051</v>
+      </c>
+      <c r="B625" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="22">
+        <v>8052</v>
+      </c>
+      <c r="B626" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="22">
+        <v>8053</v>
+      </c>
+      <c r="B627" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="22">
+        <v>8054</v>
+      </c>
+      <c r="B628" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="22">
+        <v>8055</v>
+      </c>
+      <c r="B629" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="22">
+        <v>8056</v>
+      </c>
+      <c r="B630" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="22">
+        <v>8057</v>
+      </c>
+      <c r="B631" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="22">
+        <v>9001</v>
+      </c>
+      <c r="B632" s="23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="22">
+        <v>9002</v>
+      </c>
+      <c r="B633" s="23" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="22">
+        <v>9003</v>
+      </c>
+      <c r="B634" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="22">
+        <v>9004</v>
+      </c>
+      <c r="B635" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="22">
+        <v>9005</v>
+      </c>
+      <c r="B636" s="23" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="22">
+        <v>9006</v>
+      </c>
+      <c r="B637" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="22">
+        <v>9007</v>
+      </c>
+      <c r="B638" s="23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="22">
+        <v>9008</v>
+      </c>
+      <c r="B639" s="23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="22">
+        <v>9009</v>
+      </c>
+      <c r="B640" s="23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="22">
+        <v>9010</v>
+      </c>
+      <c r="B641" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="22">
+        <v>9011</v>
+      </c>
+      <c r="B642" s="23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="22">
+        <v>9012</v>
+      </c>
+      <c r="B643" s="23" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="22">
+        <v>9013</v>
+      </c>
+      <c r="B644" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="22">
+        <v>9014</v>
+      </c>
+      <c r="B645" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="22">
+        <v>9015</v>
+      </c>
+      <c r="B646" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="22">
+        <v>9016</v>
+      </c>
+      <c r="B647" s="23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="22">
+        <v>9017</v>
+      </c>
+      <c r="B648" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="22">
+        <v>9018</v>
+      </c>
+      <c r="B649" s="23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="22">
+        <v>9019</v>
+      </c>
+      <c r="B650" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="22">
+        <v>9020</v>
+      </c>
+      <c r="B651" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="22">
+        <v>9021</v>
+      </c>
+      <c r="B652" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="22">
+        <v>9022</v>
+      </c>
+      <c r="B653" s="23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="22">
+        <v>9023</v>
+      </c>
+      <c r="B654" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="22">
+        <v>9024</v>
+      </c>
+      <c r="B655" s="23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="22">
+        <v>9025</v>
+      </c>
+      <c r="B656" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="22">
+        <v>9026</v>
+      </c>
+      <c r="B657" s="23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="22">
+        <v>9027</v>
+      </c>
+      <c r="B658" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="22">
+        <v>9028</v>
+      </c>
+      <c r="B659" s="23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="22">
+        <v>9029</v>
+      </c>
+      <c r="B660" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="22">
+        <v>9030</v>
+      </c>
+      <c r="B661" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="22">
+        <v>9031</v>
+      </c>
+      <c r="B662" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="22">
+        <v>9032</v>
+      </c>
+      <c r="B663" s="23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="22">
+        <v>9033</v>
+      </c>
+      <c r="B664" s="23" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="22">
+        <v>9034</v>
+      </c>
+      <c r="B665" s="23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="22">
+        <v>9035</v>
+      </c>
+      <c r="B666" s="23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="22">
+        <v>9036</v>
+      </c>
+      <c r="B667" s="23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="22">
+        <v>9037</v>
+      </c>
+      <c r="B668" s="23" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="22">
+        <v>9038</v>
+      </c>
+      <c r="B669" s="23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="22">
+        <v>9039</v>
+      </c>
+      <c r="B670" s="23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="22">
+        <v>9040</v>
+      </c>
+      <c r="B671" s="23" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="22">
+        <v>9041</v>
+      </c>
+      <c r="B672" s="23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="22">
+        <v>9042</v>
+      </c>
+      <c r="B673" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="22">
+        <v>9043</v>
+      </c>
+      <c r="B674" s="23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="22">
+        <v>9044</v>
+      </c>
+      <c r="B675" s="23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="22">
+        <v>9045</v>
+      </c>
+      <c r="B676" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="22">
+        <v>9046</v>
+      </c>
+      <c r="B677" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="22">
+        <v>9047</v>
+      </c>
+      <c r="B678" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="22">
+        <v>9048</v>
+      </c>
+      <c r="B679" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="22">
+        <v>9049</v>
+      </c>
+      <c r="B680" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="22">
+        <v>9050</v>
+      </c>
+      <c r="B681" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="22">
+        <v>9051</v>
+      </c>
+      <c r="B682" s="23" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="22">
+        <v>9052</v>
+      </c>
+      <c r="B683" s="23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="22">
+        <v>9053</v>
+      </c>
+      <c r="B684" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C572">
+  <autoFilter ref="A1:C684">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/MapLayoutId.xlsx
+++ b/excel/MapLayoutId.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$684</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$815</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="715">
   <si>
     <t>ID</t>
   </si>
@@ -1812,6 +1812,405 @@
   </si>
   <si>
     <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,1;3,2,1;4,2,1;5,2,31;6,2,1;7,2,10;8,2,1;9,2,31;10,2,1;11,2,1;1,3,8;2,3,1;3,3,2;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,1;11,3,1;1,4,17;2,4,17;3,4,8;4,4,1;5,4,1;6,4,2;7,4,99;8,4,1;9,4,1;10,4,10;11,4,1;1,5,1;2,5,1;3,5,17;4,5,17;5,5,1;6,5,8;7,5,28;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,2;3,6,1;4,6,1;5,6,17;6,6,17;7,6,99;8,6,1;9,6,31;10,6,1;11,6,1;1,7,1;2,7,2;3,7,10;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,10;7,8,1;8,8,1;9,8,1;10,8,1;11,8,1;1,9,99;2,9,99;3,9,99;4,9,20;5,9,99;6,9,99;7,9,99;8,9,99;9,9,1;10,9,1;11,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,2;7,10,2;8,10,28;9,10,1;10,10,1;11,10,1;1,11,2;2,11,2;3,11,2;4,11,2;5,11,2;6,11,2;7,11,2;8,11,99;9,11,1;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;1,3,1;2,3,99;3,3,18;4,3,99;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,2;3,5,1;4,5,2;5,5,1;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,2;1,3,1;2,3,1;3,3,2;4,3,6;5,3,1;6,3,1;7,3,1;1,4,2;2,4,1;3,4,1;4,4,7;5,4,2;6,4,1;7,4,2;1,5,2;2,5,1;3,5,2;4,5,6;5,5,1;6,5,1;7,5,2;1,6,2;2,6,1;3,6,1;4,6,15;5,6,1;6,6,1;7,6,2;1,7,2;2,7,1;3,7,15;4,7,2;5,7,15;6,7,1;7,7,2;1,8,2;2,8,15;3,8,2;4,8,2;5,8,2;6,8,15;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,2;6,1,2;7,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,2;7,2,2;1,3,2;2,3,1;3,3,2;4,3,1;5,3,2;6,3,1;7,3,2;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,2;2,5,1;3,5,2;4,5,1;5,5,2;6,5,1;7,5,2;1,6,2;2,6,2;3,6,1;4,6,1;5,6,1;6,6,2;7,6,2;1,7,2;2,7,2;3,7,2;4,7,1;5,7,2;6,7,2;7,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2;6,8,2;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,2;3,1,1;4,1,1;5,1,1;1,2,1;2,2,2;3,2,2;4,2,1;5,2,1;1,3,1;2,3,1;3,3,2;4,3,2;5,3,1;1,4,1;2,4,1;3,4,1;4,4,2;5,4,2;1,5,99;2,5,18;3,5,99;4,5,1;5,5,1;1,6,2;2,6,2;3,6,99;4,6,1;5,6,1;1,7,2;2,7,2;3,7,21;4,7,1;5,7,1;1,8,2;2,8,2;3,8,99;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,99;4,1,18;5,1,99;6,1,1;7,1,2;1,2,1;2,2,2;3,2,1;4,2,9;5,2,1;6,2,2;7,2,1;1,3,1;2,3,2;3,3,1;4,3,2;5,3,1;6,3,2;7,3,1;1,4,1;2,4,2;3,4,1;4,4,1;5,4,1;6,4,2;7,4,1;1,5,1;2,5,1;3,5,99;4,5,18;5,5,99;6,5,1;7,5,1;1,6,1;2,6,2;3,6,1;4,6,9;5,6,1;6,6,2;7,6,1;1,7,1;2,7,2;3,7,1;4,7,2;5,7,1;6,7,2;7,7,1;1,8,1;2,8,2;3,8,1;4,8,1;5,8,1;6,8,2;7,8,1;1,9,1;2,9,1;3,9,99;4,9,18;5,9,99;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;1,3,17;2,3,17;3,3,1;4,3,10;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,16;5,6,16;1,7,1;2,7,1;3,7,10;4,7,1;5,7,1;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,1;7,3,99;8,3,18;9,3,99;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,2;9,4,6;1,5,1;2,5,2;3,5,99;4,5,2;5,5,1;6,5,10;7,5,1;8,5,1;9,5,1;1,6,10;2,6,1;3,6,99;4,6,8;5,6,1;6,6,1;7,6,1;8,6,1;9,6,1;1,7,1;2,7,2;3,7,22;4,7,99;5,7,18;6,7,99;7,7,1;8,7,10;9,7,1;1,8,2;2,8,1;3,8,99;4,8,2;5,8,1;6,8,2;7,8,1;8,8,2;9,8,1;1,9,1;2,9,1;3,9,99;4,9,1;5,9,2;6,9,1;7,9,2;8,9,1;9,9,2;1,10,2;2,10,2;3,10,99;4,10,99;5,10,99;6,10,20;7,10,99;8,10,99;9,10,99</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;1,3,2;2,3,1;3,3,1;4,3,10;5,3,2;1,4,1;2,4,10;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,1;4,5,10;5,5,1;1,6,2;2,6,10;3,6,1;4,6,1;5,6,2;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,2;5,1,1;6,1,1;7,1,1;1,2,1;2,2,10;3,2,1;4,2,2;5,2,1;6,2,10;7,2,1;1,3,1;2,3,7;3,3,2;4,3,2;5,3,2;6,3,6;7,3,1;1,4,1;2,4,99;3,4,1;4,4,1;5,4,1;6,4,99;7,4,1;1,5,1;2,5,21;3,5,1;4,5,10;5,5,1;6,5,28;7,5,1;1,6,1;2,6,99;3,6,1;4,6,1;5,6,1;6,6,99;7,6,1;1,7,17;2,7,17;3,7,1;4,7,10;5,7,1;6,7,16;7,7,16;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,2;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;1,3,2;2,3,1;3,3,1;4,3,10;5,3,2;1,4,2;2,4,2;3,4,1;4,4,2;5,4,2;1,5,2;2,5,99;3,5,18;4,5,99;5,5,2;1,6,1;2,6,1;3,6,1;4,6,10;5,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;1,4,1;2,4,1;3,4,15;4,4,1;5,4,10;1,5,1;2,5,1;3,5,15;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;1,7,1;2,7,10;3,7,1;4,7,2;5,7,6;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,52;3,2,51;4,2,1;5,2,2;1,3,2;2,3,52;3,3,53;4,3,51;5,3,2;1,4,2;2,4,2;3,4,2;4,4,2;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,2;1,3,2;2,3,52;3,3,53;4,3,51;5,3,2;1,4,1;2,4,10;3,4,2;4,4,52;5,4,51;1,5,52;2,5,51;3,5,1;4,5,10;5,5,1;1,6,2;2,6,1;3,6,10;4,6,1;5,6,2;1,7,2;2,7,1;3,7,1;4,7,1;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,2;2,2,1;3,2,43;4,2,1;5,2,2;1,3,1;2,3,52;3,3,51;4,3,10;5,3,1;1,4,1;2,4,31;3,4,1;4,4,52;5,4,51;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;1,7,2;2,7,1;3,7,1;4,7,1;5,7,2;1,8,2;2,8,2;3,8,1;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;1,3,1;2,3,1;3,3,1;4,3,10;5,3,1;1,4,1;2,4,1;3,4,52;4,4,53;5,4,51;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;1,6,52;2,6,51;3,6,1;4,6,31;5,6,1;1,7,1;2,7,1;3,7,2;4,7,1;5,7,1;1,8,1;2,8,1;3,8,2;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,43;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;1,5,1;2,5,1;3,5,31;4,5,1;5,5,1;1,6,1;2,6,10;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,45;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,10;3,2,1;4,2,31;5,2,1;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;1,4,52;2,4,51;3,4,1;4,4,10;5,4,1;1,5,1;2,5,31;3,5,1;4,5,1;5,5,43;1,6,1;2,6,52;3,6,51;4,6,16;5,6,16;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,2;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,1;5,2,1;1,3,1;2,3,16;3,3,31;4,3,17;5,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;1,5,1;2,5,1;3,5,15;4,5,1;5,5,43;1,6,52;2,6,51;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,10;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;1,3,1;2,3,1;3,3,99;4,3,18;5,3,99;1,4,52;2,4,51;3,4,43;4,4,1;5,4,1;1,5,1;2,5,15;3,5,1;4,5,1;5,5,1;1,6,10;2,6,1;3,6,1;4,6,15;5,6,1;1,7,1;2,7,1;3,7,10;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,52;2,2,51;3,2,1;4,2,1;5,2,1;1,3,15;2,3,1;3,3,1;4,3,10;5,3,1;1,4,1;2,4,15;3,4,1;4,4,1;5,4,1;1,5,1;2,5,10;3,5,15;4,5,1;5,5,1;1,6,7;2,6,2;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,1;4,7,31;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,43;5,2,1;1,3,17;2,3,52;3,3,53;4,3,51;5,3,16;1,4,7;2,4,2;3,4,10;4,4,2;5,4,6;1,5,7;2,5,2;3,5,10;4,5,2;5,5,6;1,6,17;2,6,1;3,6,1;4,6,1;5,6,16;1,7,1;2,7,1;3,7,10;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,43;3,2,52;4,2,51;5,2,1;1,3,1;2,3,15;3,3,10;4,3,15;5,3,1;1,4,1;2,4,10;3,4,15;4,4,10;5,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,31;4,6,1;5,6,1;1,7,1;2,7,99;3,7,18;4,7,99;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,10;2,2,99;3,2,1;4,2,99;5,2,31;1,3,1;2,3,21;3,3,10;4,3,28;5,3,1;1,4,1;2,4,99;3,4,1;4,4,99;5,4,10;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;1,6,1;2,6,43;3,6,1;4,6,52;5,6,51;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,52;4,1,51;5,1,1;1,2,1;2,2,99;3,2,1;4,2,99;5,2,1;1,3,10;2,3,21;3,3,1;4,3,99;5,3,1;1,4,1;2,4,99;3,4,10;4,4,29;5,4,1;1,5,1;2,5,1;3,5,1;4,5,99;5,5,1;1,6,99;2,6,18;3,6,99;4,6,99;5,6,1;1,7,1;2,7,1;3,7,2;4,7,1;5,7,1;1,8,2;2,8,1;3,8,1;4,8,31;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,2;4,1,1;5,1,1;1,2,10;2,2,1;3,2,15;4,2,1;5,2,43;1,3,1;2,3,1;3,3,15;4,3,1;5,3,1;1,4,99;2,4,18;3,4,99;4,4,31;5,4,1;1,5,1;2,5,10;3,5,15;4,5,1;5,5,1;1,6,1;2,6,1;3,6,15;4,6,1;5,6,1;1,7,1;2,7,1;3,7,2;4,7,1;5,7,1;1,8,1;2,8,1;3,8,8;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,9;4,1,1;5,1,1;1,2,1;2,2,1;3,2,2;4,2,1;5,2,1;1,3,1;2,3,99;3,3,18;4,3,99;5,3,1;1,4,1;2,4,10;3,4,31;4,4,10;5,4,1;1,5,1;2,5,99;3,5,18;4,5,99;5,5,1;1,6,1;2,6,1;3,6,10;4,6,1;5,6,1;1,7,1;2,7,99;3,7,18;4,7,99;5,7,1;1,8,2;2,8,1;3,8,1;4,8,1;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,31;5,2,1;1,3,2;2,3,6;3,3,1;4,3,7;5,3,1;1,4,1;2,4,1;3,4,10;4,4,1;5,4,1;1,5,1;2,5,99;3,5,18;4,5,99;5,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;1,7,1;2,7,1;3,7,45;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,1;3,2,1;4,2,99;5,2,15;1,3,1;2,3,10;3,3,1;4,3,28;5,3,1;1,4,1;2,4,1;3,4,1;4,4,99;5,4,1;1,5,7;2,5,2;3,5,1;4,5,1;5,5,1;1,6,1;2,6,1;3,6,1;4,6,99;5,6,1;1,7,52;2,7,51;3,7,10;4,7,28;5,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,43;1,4,1;2,4,1;3,4,15;4,4,1;5,4,10;1,5,1;2,5,1;3,5,15;4,5,10;5,5,1;1,6,1;2,6,1;3,6,10;4,6,1;5,6,1;1,7,1;2,7,10;3,7,1;4,7,2;5,7,6;1,8,10;2,8,1;3,8,15;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,31;3,2,1;4,2,15;5,2,1;1,3,1;2,3,1;3,3,1;4,3,2;5,3,6;1,4,1;2,4,1;3,4,99;4,4,18;5,4,99;1,5,1;2,5,10;3,5,1;4,5,15;5,5,1;1,6,1;2,6,1;3,6,15;4,6,1;5,6,1;1,7,1;2,7,10;3,7,1;4,7,43;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;1,2,1;2,2,31;3,2,1;4,2,2;5,2,6;1,3,17;2,3,17;3,3,1;4,3,10;5,3,1;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;1,5,10;2,5,10;3,5,31;4,5,1;5,5,6;1,6,1;2,6,1;3,6,1;4,6,16;5,6,16;1,7,1;2,7,43;3,7,44;4,7,1;5,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,2;3,2,2;4,2,10;5,2,2;6,2,2;7,2,1;1,3,1;2,3,1;3,3,1;4,3,2;5,3,1;6,3,31;7,3,1;1,4,1;2,4,10;3,4,1;4,4,2;5,4,1;6,4,10;7,4,1;1,5,1;2,5,1;3,5,99;4,5,18;5,5,99;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,31;3,7,1;4,7,52;5,7,53;6,7,51;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,2;4,9,1;5,9,2;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,10;3,2,10;4,2,10;5,2,43;6,2,52;7,2,51;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,31;7,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,10;6,4,10;7,4,10;1,5,1;2,5,31;3,5,1;4,5,45;5,5,1;6,5,1;7,5,1;1,6,1;2,6,15;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;6,7,2;7,7,6;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,99;2,1,99;3,1,19;4,1,99;5,1,99;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,1;5,2,99;6,2,1;7,2,1;1,3,1;2,3,1;3,3,2;4,3,6;5,3,28;6,3,1;7,3,10;1,4,1;2,4,10;3,4,1;4,4,1;5,4,99;6,4,1;7,4,1;1,5,1;2,5,1;3,5,99;4,5,18;5,5,99;6,5,1;7,5,1;1,6,52;2,6,51;3,6,1;4,6,1;5,6,1;6,6,1;7,6,31;1,7,1;2,7,1;3,7,1;4,7,10;5,7,99;6,7,1;7,7,1;1,8,1;2,8,99;3,8,18;4,8,99;5,8,28;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,99;6,9,2;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,1;3,2,1;4,2,31;5,2,52;6,2,53;7,2,51;1,3,1;2,3,10;3,3,1;4,3,1;5,3,99;6,3,18;7,3,99;1,4,1;2,4,99;3,4,1;4,4,1;5,4,99;6,4,1;7,4,1;1,5,1;2,5,21;3,5,10;4,5,1;5,5,28;6,5,1;7,5,1;1,6,1;2,6,99;3,6,1;4,6,1;5,6,99;6,6,1;7,6,1;1,7,17;2,7,17;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,2;7,8,6;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,52;6,3,51;7,3,1;1,4,1;2,4,9;3,4,99;4,4,1;5,4,1;6,4,1;7,4,1;1,5,1;2,5,2;3,5,21;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,99;4,6,1;5,6,52;6,6,53;7,6,51;1,7,1;2,7,1;3,7,31;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,44;3,8,1;4,8,1;5,8,1;6,8,45;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,31;3,2,1;4,2,43;5,2,1;6,2,52;7,2,51;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,31;7,3,1;1,4,2;2,4,2;3,4,15;4,4,1;5,4,1;6,4,1;7,4,15;1,5,2;2,5,15;3,5,1;4,5,1;5,5,1;6,5,15;7,5,2;1,6,15;2,6,1;3,6,45;4,6,1;5,6,15;6,6,2;7,6,2;1,7,1;2,7,1;3,7,1;4,7,1;5,7,99;6,7,18;7,7,99;1,8,52;2,8,51;3,8,1;4,8,1;5,8,43;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,10;3,2,1;4,2,10;5,2,1;6,2,52;7,2,51;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,16;7,3,16;1,4,7;2,4,2;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;1,5,1;2,5,1;3,5,1;4,5,10;5,5,1;6,5,2;7,5,6;1,6,17;2,6,17;3,6,1;4,6,1;5,6,1;6,6,16;7,6,16;1,7,52;2,7,51;3,7,1;4,7,1;5,7,10;6,7,1;7,7,1;1,8,1;2,8,1;3,8,99;4,8,18;5,8,99;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,10;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,99;2,2,18;3,2,99;4,2,1;5,2,1;6,2,31;7,2,1;1,3,1;2,3,1;3,3,99;4,3,1;5,3,1;6,3,2;7,3,6;1,4,1;2,4,1;3,4,21;4,4,1;5,4,31;6,4,2;7,4,6;1,5,52;2,5,51;3,5,99;4,5,1;5,5,1;6,5,2;7,5,6;1,6,1;2,6,31;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,52;5,7,53;6,7,51;7,7,1;1,8,1;2,8,1;3,8,99;4,8,99;5,8,19;6,8,99;7,8,99;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,17;2,1,1;3,1,1;4,1,1;5,1,16;6,1,16;7,1,16;1,2,1;2,2,10;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;1,3,1;2,3,1;3,3,1;4,3,10;5,3,1;6,3,1;7,3,1;1,4,17;2,4,17;3,4,17;4,4,17;5,4,1;6,4,1;7,4,16;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,31;7,5,1;1,6,7;2,6,2;3,6,1;4,6,31;5,6,1;6,6,1;7,6,1;1,7,17;2,7,1;3,7,1;4,7,16;5,7,16;6,7,16;7,7,16;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,1;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,10;3,2,1;4,2,31;5,2,1;6,2,10;7,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,43;5,4,1;6,4,31;7,4,1;1,5,1;2,5,10;3,5,99;4,5,18;5,5,99;6,5,1;7,5,10;1,6,1;2,6,1;3,6,43;4,6,1;5,6,1;6,6,2;7,6,6;1,7,31;2,7,1;3,7,1;4,7,1;5,7,99;6,7,18;7,7,99;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,31;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,99;6,2,18;7,2,99;1,3,1;2,3,99;3,3,1;4,3,2;5,3,6;6,3,99;7,3,1;1,4,1;2,4,21;3,4,1;4,4,1;5,4,1;6,4,28;7,4,1;1,5,1;2,5,99;3,5,7;4,5,2;5,5,1;6,5,99;7,5,10;1,6,99;2,6,18;3,6,99;4,6,1;5,6,1;6,6,31;7,6,1;1,7,2;2,7,2;3,7,99;4,7,1;5,7,99;6,7,18;7,7,99;1,8,2;2,8,2;3,8,21;4,8,1;5,8,1;6,8,10;7,8,1;1,9,2;2,9,2;3,9,99;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,99;5,1,1;6,1,1;7,1,1;1,2,10;2,2,10;3,2,10;4,2,99;5,2,31;6,2,1;7,2,1;1,3,99;2,3,18;3,3,99;4,3,22;5,3,1;6,3,1;7,3,1;1,4,1;2,4,1;3,4,1;4,4,99;5,4,10;6,4,1;7,4,31;1,5,1;2,5,2;3,5,6;4,5,99;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,99;4,6,18;5,6,99;6,6,1;7,6,1;1,7,1;2,7,1;3,7,1;4,7,31;5,7,1;6,7,10;7,7,1;1,8,1;2,8,10;3,8,1;4,8,1;5,8,1;6,8,1;7,8,2;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,8</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,10;3,2,1;4,2,31;5,2,1;6,2,52;7,2,51;1,3,1;2,3,1;3,3,99;4,3,18;5,3,99;6,3,10;7,3,1;1,4,1;2,4,1;3,4,7;4,4,2;5,4,1;6,4,1;7,4,1;1,5,1;2,5,31;3,5,1;4,5,15;5,5,1;6,5,31;7,5,1;1,6,1;2,6,1;3,6,1;4,6,1;5,6,6;6,6,1;7,6,1;1,7,1;2,7,99;3,7,99;4,7,19;5,7,99;6,7,99;7,7,10;1,8,1;2,8,10;3,8,1;4,8,15;5,8,1;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,31;7,2,1;1,3,1;2,3,52;3,3,53;4,3,51;5,3,1;6,3,1;7,3,1;1,4,99;2,4,18;3,4,99;4,4,1;5,4,1;6,4,43;7,4,1;1,5,7;2,5,2;3,5,31;4,5,1;5,5,1;6,5,1;7,5,1;1,6,1;2,6,1;3,6,1;4,6,52;5,6,53;6,6,51;7,6,6;1,7,1;2,7,1;3,7,1;4,7,1;5,7,99;6,7,18;7,7,99;1,8,1;2,8,1;3,8,45;4,8,1;5,8,1;6,8,1;7,8,1;1,9,99;2,9,99;3,9,99;4,9,20;5,9,99;6,9,99;7,9,99</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,31;3,2,99;4,2,10;5,2,1;6,2,1;7,2,44;1,3,1;2,3,1;3,3,21;4,3,43;5,3,1;6,3,31;7,3,1;1,4,10;2,4,1;3,4,99;4,4,1;5,4,1;6,4,10;7,4,1;1,5,1;2,5,1;3,5,9;4,5,9;5,5,9;6,5,1;7,5,1;1,6,43;2,6,1;3,6,2;4,6,2;5,6,2;6,6,1;7,6,43;1,7,1;2,7,31;3,7,1;4,7,1;5,7,99;6,7,18;7,7,99;1,8,1;2,8,1;3,8,10;4,8,1;5,8,1;6,8,10;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,1;2,2,1;3,2,1;4,2,10;5,2,1;6,2,1;7,2,10;1,3,52;2,3,53;3,3,51;4,3,99;5,3,43;6,3,1;7,3,1;1,4,10;2,4,10;3,4,10;4,4,21;5,4,1;6,4,1;7,4,44;1,5,1;2,5,43;3,5,1;4,5,99;5,5,1;6,5,52;7,5,51;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;1,7,1;2,7,1;3,7,99;4,7,45;5,7,1;6,7,10;7,7,1;1,8,1;2,8,43;3,8,21;4,8,1;5,8,1;6,8,10;7,8,1;1,9,1;2,9,1;3,9,99;4,9,1;5,9,1;6,9,10;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,10;6,1,1;7,1,1;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,43;7,2,1;1,3,10;2,3,1;3,3,99;4,3,18;5,3,99;6,3,1;7,3,2;1,4,1;2,4,1;3,4,15;4,4,1;5,4,1;6,4,15;7,4,8;1,5,1;2,5,1;3,5,43;4,5,15;5,5,1;6,5,1;7,5,15;1,6,1;2,6,10;3,6,15;4,6,1;5,6,45;6,6,15;7,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,10;3,8,1;4,8,10;5,8,1;6,8,2;7,8,6;1,9,2;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,99;4,1,18;5,1,99;6,1,1;7,1,2;1,2,1;2,2,1;3,2,1;4,2,7;5,2,1;6,2,31;7,2,1;1,3,1;2,3,1;3,3,2;4,3,6;5,3,1;6,3,1;7,3,10;1,4,1;2,4,31;3,4,1;4,4,7;5,4,2;6,4,1;7,4,1;1,5,10;2,5,1;3,5,1;4,5,6;5,5,1;6,5,10;7,5,1;1,6,1;2,6,1;3,6,99;4,6,18;5,6,99;6,6,1;7,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;1,8,1;2,8,1;3,8,1;4,8,15;5,8,1;6,8,31;7,8,1;1,9,1;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,2;1,2,10;2,2,1;3,2,1;4,2,99;5,2,18;6,2,99;7,2,1;1,3,1;2,3,1;3,3,2;4,3,2;5,3,2;6,3,15;7,3,1;1,4,52;2,4,51;3,4,1;4,4,15;5,4,2;6,4,52;7,4,51;1,5,1;2,5,7;3,5,1;4,5,1;5,5,2;6,5,1;7,5,10;1,6,1;2,6,99;3,6,18;4,6,99;5,6,2;6,6,1;7,6,1;1,7,1;2,7,2;3,7,2;4,7,2;5,7,2;6,7,1;7,7,6;1,8,1;2,8,1;3,8,1;4,8,1;5,8,99;6,8,18;7,8,99;1,9,1;2,9,10;3,9,1;4,9,1;5,9,10;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;1,2,10;2,2,1;3,2,99;4,2,43;5,2,99;6,2,1;7,2,1;1,3,1;2,3,1;3,3,21;4,3,10;5,3,28;6,3,1;7,3,10;1,4,31;2,4,1;3,4,99;4,4,1;5,4,99;6,4,1;7,4,1;1,5,2;2,5,2;3,5,2;4,5,31;5,5,2;6,5,2;7,5,2;1,6,1;2,6,1;3,6,99;4,6,18;5,6,99;6,6,1;7,6,43;1,7,43;2,7,10;3,7,1;4,7,1;5,7,99;6,7,1;7,7,10;1,8,99;2,8,18;3,8,99;4,8,10;5,8,28;6,8,1;7,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,99;6,9,1;7,9,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,10;7,2,1;8,2,1;9,2,1;1,3,17;2,3,17;3,3,17;4,3,1;5,3,1;6,3,52;7,3,53;8,3,51;9,3,1;1,4,7;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,10;9,4,1;1,5,10;2,5,1;3,5,1;4,5,31;5,5,1;6,5,1;7,5,16;8,5,16;9,5,16;1,6,1;2,6,1;3,6,1;4,6,52;5,6,51;6,6,1;7,6,1;8,6,2;9,6,6;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,31;7,7,1;8,7,1;9,7,1;1,8,99;2,8,99;3,8,19;4,8,99;5,8,99;6,8,1;7,8,1;8,8,52;9,8,51;1,9,10;2,9,2;3,9,10;4,9,1;5,9,10;6,9,1;7,9,1;8,9,1;9,9,1;1,10,2;2,10,10;3,10,1;4,10,10;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,1;7,2,99;8,2,18;9,2,99;1,3,99;2,3,18;3,3,99;4,3,52;5,3,53;6,3,51;7,3,43;8,3,1;9,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,10;1,5,1;2,5,45;3,5,1;4,5,99;5,5,18;6,5,99;7,5,1;8,5,1;9,5,1;1,6,1;2,6,10;3,6,1;4,6,1;5,6,10;6,6,1;7,6,1;8,6,1;9,6,1;1,7,7;2,7,2;3,7,1;4,7,1;5,7,1;6,7,46;7,7,99;8,7,18;9,7,99;1,8,99;2,8,18;3,8,99;4,8,52;5,8,51;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,10;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,1;7,2,99;8,2,18;9,2,99;1,3,99;2,3,18;3,3,99;4,3,52;5,3,53;6,3,51;7,3,43;8,3,2;9,3,6;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,10;1,5,1;2,5,45;3,5,1;4,5,99;5,5,18;6,5,99;7,5,1;8,5,1;9,5,1;1,6,1;2,6,10;3,6,1;4,6,1;5,6,10;6,6,1;7,6,1;8,6,1;9,6,1;1,7,7;2,7,2;3,7,1;4,7,1;5,7,1;6,7,46;7,7,99;8,7,18;9,7,99;1,8,99;2,8,18;3,8,99;4,8,52;5,8,51;6,8,1;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,10;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,10;3,2,1;4,2,1;5,2,1;6,2,1;7,2,99;8,2,18;9,2,99;1,3,99;2,3,18;3,3,99;4,3,52;5,3,53;6,3,51;7,3,43;8,3,2;9,3,6;1,4,1;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,10;1,5,1;2,5,45;3,5,1;4,5,99;5,5,18;6,5,99;7,5,1;8,5,1;9,5,1;1,6,1;2,6,10;3,6,1;4,6,1;5,6,10;6,6,1;7,6,1;8,6,1;9,6,1;1,7,7;2,7,2;3,7,1;4,7,1;5,7,1;6,7,46;7,7,99;8,7,18;9,7,99;1,8,99;2,8,18;3,8,99;4,8,52;5,8,51;6,8,1;7,8,1;8,8,2;9,8,6;1,9,1;2,9,1;3,9,1;4,9,10;5,9,1;6,9,1;7,9,1;8,9,10;9,9,1;1,10,2;2,10,1;3,10,1;4,10,1;5,10,1;6,10,10;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;1,3,15;2,3,1;3,3,1;4,3,1;5,3,10;6,3,1;7,3,31;8,3,1;9,3,1;1,4,1;2,4,15;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,2;9,4,6;1,5,1;2,5,10;3,5,15;4,5,1;5,5,10;6,5,1;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,1;2,7,1;3,7,31;4,7,1;5,7,10;6,7,1;7,7,28;8,7,1;9,7,10;1,8,1;2,8,99;3,8,18;4,8,99;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,31;8,9,1;9,9,1;1,10,1;2,10,1;3,10,10;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;1,3,15;2,3,1;3,3,1;4,3,1;5,3,10;6,3,1;7,3,31;8,3,1;9,3,1;1,4,1;2,4,15;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,2;9,4,6;1,5,1;2,5,10;3,5,15;4,5,1;5,5,10;6,5,1;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,2;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,1;2,7,1;3,7,8;4,7,1;5,7,10;6,7,1;7,7,28;8,7,1;9,7,10;1,8,31;2,8,99;3,8,18;4,8,99;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,31;8,9,1;9,9,1;1,10,1;2,10,1;3,10,10;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;1,3,15;2,3,1;3,3,52;4,3,53;5,3,51;6,3,1;7,3,43;8,3,1;9,3,1;1,4,1;2,4,15;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,10;3,5,15;4,5,1;5,5,10;6,5,1;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,99;8,6,1;9,6,1;1,7,7;2,7,1;3,7,45;4,7,1;5,7,10;6,7,1;7,7,28;8,7,1;9,7,10;1,8,99;2,8,18;3,8,99;4,8,1;5,8,52;6,8,51;7,8,99;8,8,1;9,8,1;1,9,1;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,43;8,9,1;9,9,1;1,10,1;2,10,2;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,99;3,2,31;4,2,1;5,2,31;6,2,1;7,2,31;8,2,99;9,2,1;1,3,10;2,3,99;3,3,1;4,3,99;5,3,1;6,3,99;7,3,1;8,3,99;9,3,10;1,4,1;2,4,22;3,4,10;4,4,21;5,4,10;6,4,28;7,4,10;8,4,29;9,4,1;1,5,10;2,5,99;3,5,1;4,5,99;5,5,1;6,5,99;7,5,1;8,5,99;9,5,10;1,6,1;2,6,99;3,6,43;4,6,1;5,6,44;6,6,1;7,6,45;8,6,99;9,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,18;6,8,99;7,8,1;8,8,1;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,45;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,99;3,2,1;4,2,52;5,2,53;6,2,51;7,2,1;8,2,99;9,2,1;1,3,43;2,3,99;3,3,1;4,3,99;5,3,1;6,3,99;7,3,10;8,3,99;9,3,43;1,4,1;2,4,22;3,4,1;4,4,21;5,4,43;6,4,28;7,4,1;8,4,29;9,4,1;1,5,10;2,5,99;3,5,1;4,5,99;5,5,1;6,5,99;7,5,1;8,5,99;9,5,1;1,6,1;2,6,99;3,6,52;4,6,51;5,6,1;6,6,52;7,6,51;8,6,99;9,6,10;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,45;3,8,1;4,8,99;5,8,18;6,8,99;7,8,1;8,8,31;9,8,1;1,9,1;2,9,1;3,9,31;4,9,1;5,9,9;6,9,1;7,9,1;8,9,46;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,2;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,31;7,2,1;8,2,1;9,2,1;1,3,1;2,3,1;3,3,17;4,3,17;5,3,17;6,3,1;7,3,1;8,3,31;9,3,1;1,4,1;2,4,31;3,4,1;4,4,1;5,4,15;6,4,1;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,1;4,5,45;5,5,15;6,5,1;7,5,1;8,5,43;9,5,1;1,6,17;2,6,17;3,6,99;4,6,1;5,6,15;6,6,1;7,6,17;8,6,17;9,6,1;1,7,1;2,7,1;3,7,21;4,7,1;5,7,15;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,10;3,8,99;4,8,1;5,8,31;6,8,1;7,8,43;8,8,1;9,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,19;6,9,99;7,9,99;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,10;4,2,1;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;1,3,52;2,3,51;3,3,17;4,3,17;5,3,17;6,3,52;7,3,51;8,3,1;9,3,1;1,4,1;2,4,1;3,4,1;4,4,1;5,4,15;6,4,1;7,4,1;8,4,1;9,4,1;1,5,7;2,5,2;3,5,10;4,5,1;5,5,15;6,5,1;7,5,52;8,5,53;9,5,51;1,6,17;2,6,17;3,6,99;4,6,1;5,6,15;6,6,1;7,6,17;8,6,17;9,6,1;1,7,1;2,7,1;3,7,21;4,7,10;5,7,15;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,10;3,8,99;4,8,1;5,8,1;6,8,1;7,8,10;8,8,1;9,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,19;6,9,99;7,9,99;8,9,1;9,9,1;1,10,10;2,10,1;3,10,1;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,99;2,1,18;3,1,99;4,1,1;5,1,1;6,1,1;7,1,99;8,1,18;9,1,99;1,2,1;2,2,1;3,2,1;4,2,10;5,2,1;6,2,1;7,2,31;8,2,1;9,2,10;1,3,1;2,3,31;3,3,1;4,3,99;5,3,18;6,3,99;7,3,1;8,3,1;9,3,1;1,4,1;2,4,1;3,4,10;4,4,1;5,4,1;6,4,1;7,4,1;8,4,10;9,4,1;1,5,99;2,5,18;3,5,99;4,5,1;5,5,31;6,5,1;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,10;4,6,1;5,6,1;6,6,1;7,6,1;8,6,10;9,6,1;1,7,1;2,7,31;3,7,1;4,7,99;5,7,18;6,7,99;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,31;9,8,1;1,9,99;2,9,18;3,9,99;4,9,1;5,9,1;6,9,1;7,9,99;8,9,18;9,9,99;1,10,1;2,10,1;3,10,10;4,10,1;5,10,1;6,10,10;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,99;2,1,18;3,1,99;4,1,1;5,1,1;6,1,1;7,1,99;8,1,18;9,1,99;1,2,1;2,2,1;3,2,1;4,2,43;5,2,1;6,2,1;7,2,44;8,2,1;9,2,10;1,3,1;2,3,45;3,3,1;4,3,99;5,3,18;6,3,99;7,3,1;8,3,1;9,3,1;1,4,1;2,4,31;3,4,10;4,4,1;5,4,1;6,4,31;7,4,1;8,4,10;9,4,1;1,5,99;2,5,18;3,5,99;4,5,1;5,5,43;6,5,1;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,43;4,6,1;5,6,1;6,6,1;7,6,1;8,6,10;9,6,1;1,7,1;2,7,31;3,7,1;4,7,99;5,7,18;6,7,99;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,43;7,8,1;8,8,31;9,8,1;1,9,99;2,9,18;3,9,99;4,9,1;5,9,1;6,9,1;7,9,99;8,9,18;9,9,99;1,10,1;2,10,1;3,10,10;4,10,1;5,10,31;6,10,10;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,99;2,1,18;3,1,99;4,1,1;5,1,1;6,1,1;7,1,99;8,1,18;9,1,99;1,2,1;2,2,52;3,2,51;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,10;1,3,7;2,3,1;3,3,1;4,3,99;5,3,18;6,3,99;7,3,1;8,3,1;9,3,6;1,4,1;2,4,31;3,4,10;4,4,1;5,4,1;6,4,31;7,4,1;8,4,10;9,4,1;1,5,99;2,5,18;3,5,99;4,5,52;5,5,53;6,5,51;7,5,99;8,5,18;9,5,99;1,6,1;2,6,1;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,10;9,6,1;1,7,1;2,7,31;3,7,1;4,7,99;5,7,18;6,7,99;7,7,1;8,7,52;9,7,51;1,8,52;2,8,51;3,8,1;4,8,1;5,8,9;6,8,1;7,8,1;8,8,31;9,8,1;1,9,99;2,9,18;3,9,99;4,9,1;5,9,1;6,9,1;7,9,99;8,9,18;9,9,99;1,10,1;2,10,1;3,10,10;4,10,1;5,10,31;6,10,10;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,99;2,2,18;3,2,99;4,2,1;5,2,1;6,2,1;7,2,99;8,2,18;9,2,99;1,3,1;2,3,10;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,10;9,3,1;1,4,1;2,4,15;3,4,1;4,4,31;5,4,1;6,4,1;7,4,1;8,4,15;9,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,31;7,5,1;8,5,10;9,5,1;1,6,99;2,6,18;3,6,99;4,6,1;5,6,1;6,6,1;7,6,99;8,6,18;9,6,99;1,7,1;2,7,1;3,7,1;4,7,31;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;1,8,1;2,8,1;3,8,99;4,8,1;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,1;3,9,21;4,9,1;5,9,2;6,9,1;7,9,28;8,9,1;9,9,1;1,10,1;2,10,1;3,10,99;4,10,1;5,10,8;6,10,1;7,10,99;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,99;2,2,18;3,2,99;4,2,1;5,2,1;6,2,1;7,2,99;8,2,18;9,2,99;1,3,1;2,3,10;3,3,1;4,3,1;5,3,43;6,3,1;7,3,1;8,3,10;9,3,1;1,4,1;2,4,7;3,4,1;4,4,1;5,4,45;6,4,1;7,4,1;8,4,6;9,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,10;9,5,1;1,6,99;2,6,18;3,6,99;4,6,1;5,6,1;6,6,31;7,6,99;8,6,18;9,6,99;1,7,1;2,7,1;3,7,1;4,7,43;5,7,1;6,7,1;7,7,31;8,7,1;9,7,1;1,8,1;2,8,10;3,8,99;4,8,1;5,8,1;6,8,1;7,8,99;8,8,1;9,8,1;1,9,1;2,9,1;3,9,21;4,9,1;5,9,2;6,9,1;7,9,28;8,9,1;9,9,10;1,10,1;2,10,1;3,10,99;4,10,1;5,10,8;6,10,1;7,10,99;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,10;3,2,1;4,2,31;5,2,1;6,2,1;7,2,1;8,2,31;9,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,99;7,3,1;8,3,10;9,3,1;1,4,1;2,4,1;3,4,99;4,4,1;5,4,1;6,4,99;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,21;4,5,1;5,5,10;6,5,99;7,5,1;8,5,99;9,5,1;1,6,10;2,6,1;3,6,99;4,6,1;5,6,1;6,6,30;7,6,1;8,6,28;9,6,31;1,7,1;2,7,1;3,7,31;4,7,10;5,7,1;6,7,99;7,7,1;8,7,99;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,99;7,8,1;8,8,31;9,8,1;1,9,99;2,9,99;3,9,19;4,9,99;5,9,99;6,9,99;7,9,1;8,9,10;9,9,1;1,10,1;2,10,1;3,10,1;4,10,10;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,1;7,2,52;8,2,51;9,2,1;1,3,99;2,3,18;3,3,99;4,3,1;5,3,1;6,3,99;7,3,7;8,3,2;9,3,1;1,4,1;2,4,1;3,4,99;4,4,10;5,4,1;6,4,99;7,4,1;8,4,44;9,4,1;1,5,10;2,5,1;3,5,21;4,5,1;5,5,10;6,5,99;7,5,1;8,5,99;9,5,1;1,6,1;2,6,1;3,6,99;4,6,1;5,6,1;6,6,30;7,6,1;8,6,28;9,6,10;1,7,1;2,7,10;3,7,1;4,7,45;5,7,1;6,7,99;7,7,10;8,7,99;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,99;7,8,1;8,8,43;9,8,1;1,9,99;2,9,99;3,9,19;4,9,99;5,9,99;6,9,99;7,9,1;8,9,1;9,9,6;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,10;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;6,2,1;7,2,10;8,2,1;9,2,1;1,3,1;2,3,1;3,3,16;4,3,16;5,3,1;6,3,17;7,3,17;8,3,1;9,3,31;1,4,15;2,4,1;3,4,10;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,15;1,5,1;2,5,1;3,5,1;4,5,99;5,5,18;6,5,99;7,5,1;8,5,1;9,5,1;1,6,1;2,6,31;3,6,1;4,6,1;5,6,1;6,6,1;7,6,10;8,6,1;9,6,1;1,7,1;2,7,1;3,7,16;4,7,16;5,7,1;6,7,17;7,7,17;8,7,1;9,7,31;1,8,15;2,8,1;3,8,10;4,8,1;5,8,1;6,8,1;7,8,31;8,8,1;9,8,15;1,9,1;2,9,1;3,9,99;4,9,99;5,9,19;6,9,99;7,9,99;8,9,1;9,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,2;6,1,1;7,1,1;8,1,1;9,1,1;1,2,45;2,2,1;3,2,1;4,2,1;5,2,1;6,2,1;7,2,10;8,2,43;9,2,1;1,3,1;2,3,1;3,3,16;4,3,16;5,3,1;6,3,17;7,3,17;8,3,1;9,3,1;1,4,15;2,4,1;3,4,10;4,4,1;5,4,1;6,4,42;7,4,1;8,4,1;9,4,15;1,5,1;2,5,1;3,5,1;4,5,99;5,5,18;6,5,99;7,5,1;8,5,1;9,5,1;1,6,1;2,6,43;3,6,1;4,6,1;5,6,2;6,6,1;7,6,1;8,6,44;9,6,1;1,7,1;2,7,1;3,7,16;4,7,16;5,7,2;6,7,17;7,7,17;8,7,1;9,7,1;1,8,15;2,8,1;3,8,1;4,8,1;5,8,8;6,8,1;7,8,10;8,8,1;9,8,15;1,9,1;2,9,1;3,9,99;4,9,99;5,9,19;6,9,99;7,9,99;8,9,1;9,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,15;7,1,2;8,1,2;9,1,2;1,2,31;2,2,1;3,2,1;4,2,31;5,2,1;6,2,1;7,2,15;8,2,2;9,2,2;1,3,1;2,3,1;3,3,99;4,3,18;5,3,99;6,3,1;7,3,1;8,3,15;9,3,2;1,4,1;2,4,1;3,4,10;4,4,10;5,4,10;6,4,1;7,4,1;8,4,1;9,4,15;1,5,15;2,5,1;3,5,1;4,5,31;5,5,10;6,5,10;7,5,10;8,5,1;9,5,1;1,6,2;2,6,15;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,1;9,6,31;1,7,2;2,7,2;3,7,15;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;1,8,2;2,8,2;3,8,2;4,8,15;5,8,1;6,8,31;7,8,1;8,8,31;9,8,1;1,9,2;2,9,2;3,9,2;4,9,2;5,9,15;6,9,1;7,9,1;8,9,1;9,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,15;7,10,1;8,10,2;9,10,6</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,15;7,1,2;8,1,2;9,1,2;1,2,1;2,2,43;3,2,1;4,2,10;5,2,1;6,2,1;7,2,15;8,2,2;9,2,2;1,3,1;2,3,1;3,3,99;4,3,18;5,3,99;6,3,1;7,3,1;8,3,15;9,3,2;1,4,1;2,4,10;3,4,1;4,4,44;5,4,1;6,4,1;7,4,43;8,4,1;9,4,15;1,5,15;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;1,6,2;2,6,15;3,6,1;4,6,10;5,6,99;6,6,18;7,6,99;8,6,1;9,6,10;1,7,2;2,7,2;3,7,15;4,7,1;5,7,1;6,7,1;7,7,45;8,7,1;9,7,1;1,8,2;2,8,2;3,8,2;4,8,15;5,8,1;6,8,1;7,8,1;8,8,1;9,8,10;1,9,2;2,9,2;3,9,2;4,9,2;5,9,15;6,9,1;7,9,42;8,9,1;9,9,1;1,10,2;2,10,2;3,10,2;4,10,2;5,10,2;6,10,15;7,10,1;8,10,2;9,10,6</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,15;2,2,1;3,2,1;4,2,99;5,2,18;6,2,99;7,2,1;8,2,1;9,2,15;1,3,1;2,3,1;3,3,31;4,3,1;5,3,9;6,3,1;7,3,1;8,3,10;9,3,1;1,4,10;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,31;8,4,1;9,4,1;1,5,1;2,5,1;3,5,99;4,5,99;5,5,19;6,5,99;7,5,99;8,5,1;9,5,10;1,6,1;2,6,1;3,6,31;4,6,1;5,6,2;6,6,10;7,6,1;8,6,1;9,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,8;6,7,1;7,7,1;8,7,1;9,7,1;1,8,15;2,8,1;3,8,1;4,8,99;5,8,18;6,8,99;7,8,31;8,8,1;9,8,15;1,9,1;2,9,1;3,9,31;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,15;2,2,1;3,2,10;4,2,99;5,2,18;6,2,99;7,2,1;8,2,1;9,2,15;1,3,1;2,3,1;3,3,1;4,3,1;5,3,9;6,3,1;7,3,1;8,3,44;9,3,1;1,4,1;2,4,43;3,4,1;4,4,1;5,4,1;6,4,10;7,4,1;8,4,1;9,4,1;1,5,1;2,5,1;3,5,99;4,5,99;5,5,19;6,5,99;7,5,99;8,5,1;9,5,43;1,6,10;2,6,1;3,6,1;4,6,1;5,6,2;6,6,1;7,6,10;8,6,1;9,6,1;1,7,1;2,7,1;3,7,45;4,7,1;5,7,8;6,7,1;7,7,1;8,7,43;9,7,1;1,8,15;2,8,1;3,8,1;4,8,99;5,8,18;6,8,99;7,8,1;8,8,1;9,8,15;1,9,1;2,9,1;3,9,1;4,9,1;5,9,10;6,9,1;7,9,1;8,9,10;9,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,1;7,10,44;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,1;3,2,99;4,2,99;5,2,19;6,2,99;7,2,99;8,2,1;9,2,1;1,3,1;2,3,1;3,3,9;4,3,9;5,3,1;6,3,9;7,3,9;8,3,1;9,3,1;1,4,1;2,4,1;3,4,2;4,4,2;5,4,1;6,4,2;7,4,2;8,4,1;9,4,1;1,5,1;2,5,1;3,5,1;4,5,31;5,5,1;6,5,31;7,5,1;8,5,1;9,5,1;1,6,1;2,6,10;3,6,10;4,6,10;5,6,10;6,6,10;7,6,10;8,6,10;9,6,1;1,7,1;2,7,10;3,7,99;4,7,99;5,7,19;6,7,99;7,7,99;8,7,10;9,7,1;1,8,1;2,8,10;3,8,10;4,8,10;5,8,10;6,8,10;7,8,10;8,8,10;9,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;1,2,1;2,2,1;3,2,99;4,2,99;5,2,19;6,2,99;7,2,99;8,2,1;9,2,1;1,3,43;2,3,1;3,3,9;4,3,9;5,3,10;6,3,9;7,3,9;8,3,1;9,3,44;1,4,1;2,4,1;3,4,1;4,4,2;5,4,1;6,4,2;7,4,1;8,4,1;9,4,1;1,5,10;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,10;1,6,1;2,6,1;3,6,43;4,6,1;5,6,10;6,6,1;7,6,1;8,6,45;9,6,1;1,7,1;2,7,1;3,7,99;4,7,99;5,7,19;6,7,99;7,7,99;8,7,1;9,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,1;9,8,10;1,9,1;2,9,43;3,9,1;4,9,1;5,9,1;6,9,45;7,9,1;8,9,42;9,9,1;1,10,10;2,10,1;3,10,1;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,31;3,2,1;4,2,99;5,2,1;6,2,99;7,2,1;8,2,31;9,2,1;1,3,10;2,3,99;3,3,1;4,3,99;5,3,1;6,3,99;7,3,1;8,3,99;9,3,10;1,4,1;2,4,99;3,4,10;4,4,99;5,4,1;6,4,99;7,4,10;8,4,99;9,4,1;1,5,10;2,5,22;3,5,1;4,5,23;5,5,10;6,5,30;7,5,1;8,5,29;9,5,10;1,6,1;2,6,99;3,6,10;4,6,99;5,6,1;6,6,99;7,6,10;8,6,99;9,6,1;1,7,10;2,7,99;3,7,1;4,7,99;5,7,10;6,7,99;7,7,1;8,7,99;9,7,10;1,8,1;2,8,1;3,8,1;4,8,99;5,8,1;6,8,99;7,8,1;8,8,1;9,8,1;1,9,1;2,9,31;3,9,1;4,9,1;5,9,31;6,9,1;7,9,1;8,9,31;9,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,43;3,2,1;4,2,99;5,2,1;6,2,99;7,2,1;8,2,42;9,2,1;1,3,1;2,3,99;3,3,1;4,3,99;5,3,42;6,3,99;7,3,1;8,3,99;9,3,1;1,4,10;2,4,99;3,4,10;4,4,99;5,4,1;6,4,99;7,4,10;8,4,99;9,4,10;1,5,10;2,5,22;3,5,1;4,5,23;5,5,10;6,5,30;7,5,1;8,5,29;9,5,10;1,6,10;2,6,99;3,6,10;4,6,99;5,6,1;6,6,99;7,6,10;8,6,99;9,6,10;1,7,1;2,7,99;3,7,1;4,7,99;5,7,10;6,7,99;7,7,1;8,7,99;9,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,1;6,8,99;7,8,1;8,8,1;9,8,1;1,9,10;2,9,43;3,9,1;4,9,1;5,9,44;6,9,1;7,9,1;8,9,43;9,9,10;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,31;3,2,1;4,2,10;5,2,1;6,2,10;7,2,1;8,2,31;9,2,1;1,3,15;2,3,1;3,3,1;4,3,1;5,3,10;6,3,1;7,3,1;8,3,1;9,3,15;1,4,2;2,4,15;3,4,1;4,4,10;5,4,31;6,4,10;7,4,1;8,4,15;9,4,2;1,5,2;2,5,2;3,5,15;4,5,1;5,5,10;6,5,1;7,5,15;8,5,2;9,5,2;1,6,2;2,6,15;3,6,1;4,6,10;5,6,31;6,6,10;7,6,1;8,6,15;9,6,2;1,7,15;2,7,1;3,7,1;4,7,1;5,7,10;6,7,1;7,7,1;8,7,1;9,7,15;1,8,7;2,8,2;3,8,31;4,8,1;5,8,15;6,8,1;7,8,31;8,8,1;9,8,6;1,9,1;2,9,1;3,9,1;4,9,15;5,9,2;6,9,15;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,15;4,10,2;5,10,2;6,10,2;7,10,15;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;1,2,1;2,2,1;3,2,10;4,2,10;5,2,43;6,2,10;7,2,10;8,2,1;9,2,1;1,3,15;2,3,1;3,3,52;4,3,51;5,3,1;6,3,1;7,3,44;8,3,1;9,3,15;1,4,2;2,4,15;3,4,1;4,4,10;5,4,10;6,4,10;7,4,1;8,4,15;9,4,2;1,5,2;2,5,2;3,5,15;4,5,1;5,5,45;6,5,1;7,5,15;8,5,2;9,5,2;1,6,2;2,6,15;3,6,1;4,6,52;5,6,53;6,6,51;7,6,1;8,6,15;9,6,2;1,7,15;2,7,1;3,7,1;4,7,43;5,7,1;6,7,1;7,7,1;8,7,1;9,7,15;1,8,7;2,8,2;3,8,1;4,8,1;5,8,15;6,8,1;7,8,42;8,8,1;9,8,6;1,9,1;2,9,1;3,9,1;4,9,15;5,9,2;6,9,15;7,9,1;8,9,1;9,9,1;1,10,1;2,10,1;3,10,15;4,10,2;5,10,2;6,10,2;7,10,15;8,10,1;9,10,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,1;2,2,52;3,2,53;4,2,51;5,2,1;6,2,1;7,2,52;8,2,51;9,2,1;10,2,10;11,2,1;1,3,1;2,3,1;3,3,10;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,10;10,3,1;11,3,1;1,4,99;2,4,18;3,4,99;4,4,99;5,4,1;6,4,31;7,4,1;8,4,99;9,4,99;10,4,18;11,4,99;1,5,1;2,5,1;3,5,1;4,5,21;5,5,1;6,5,1;7,5,1;8,5,28;9,5,1;10,5,1;11,5,1;1,6,1;2,6,10;3,6,1;4,6,99;5,6,1;6,6,31;7,6,1;8,6,99;9,6,1;10,6,10;11,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;6,7,2;7,7,1;8,7,1;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,31;5,8,1;6,8,8;7,8,52;8,8,51;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,99;6,9,20;7,9,99;8,9,99;9,9,99;10,9,1;11,9,1;1,10,1;2,10,10;3,10,1;4,10,1;5,10,1;6,10,10;7,10,1;8,10,1;9,10,1;10,10,10;11,10,1;1,11,1;2,11,1;3,11,1;4,11,99;5,11,99;6,11,19;7,11,99;8,11,99;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,1;2,2,43;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,44;9,2,1;10,2,10;11,2,1;1,3,1;2,3,1;3,3,10;4,3,1;5,3,1;6,3,43;7,3,1;8,3,1;9,3,10;10,3,1;11,3,1;1,4,99;2,4,18;3,4,99;4,4,99;5,4,1;6,4,1;7,4,1;8,4,99;9,4,99;10,4,18;11,4,99;1,5,7;2,5,2;3,5,1;4,5,21;5,5,1;6,5,52;7,5,51;8,5,28;9,5,1;10,5,2;11,5,6;1,6,1;2,6,10;3,6,1;4,6,99;5,6,1;6,6,1;7,6,1;8,6,99;9,6,1;10,6,10;11,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;6,7,45;7,7,1;8,7,1;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,52;10,8,51;11,8,42;1,9,1;2,9,1;3,9,99;4,9,99;5,9,99;6,9,20;7,9,99;8,9,99;9,9,99;10,9,1;11,9,1;1,10,1;2,10,46;3,10,1;4,10,1;5,10,1;6,10,1;7,10,1;8,10,1;9,10,1;10,10,43;11,10,1;1,11,1;2,11,1;3,11,1;4,11,99;5,11,99;6,11,19;7,11,99;8,11,99;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,1;2,2,31;3,2,1;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,31;10,2,1;11,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,10;6,3,31;7,3,1;8,3,99;9,3,1;10,3,10;11,3,1;1,4,99;2,4,18;3,4,99;4,4,1;5,4,1;6,4,10;7,4,1;8,4,28;9,4,1;10,4,10;11,4,10;1,5,1;2,5,1;3,5,15;4,5,7;5,5,2;6,5,1;7,5,1;8,5,99;9,5,1;10,5,1;11,5,1;1,6,1;2,6,31;3,6,1;4,6,99;5,6,18;6,6,99;7,6,1;8,6,99;9,6,1;10,6,31;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,10;6,7,1;7,7,1;8,7,28;9,7,1;10,7,10;11,7,10;1,8,10;2,8,1;3,8,99;4,8,99;5,8,19;6,8,99;7,8,99;8,8,99;9,8,1;10,8,1;11,8,10;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,10;7,9,1;8,9,1;9,9,1;10,9,1;11,9,1;1,10,1;2,10,10;3,10,1;4,10,31;5,10,1;6,10,1;7,10,99;8,10,99;9,10,19;10,10,99;11,10,99;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,10;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,43;4,2,1;5,2,1;6,2,1;7,2,52;8,2,53;9,2,51;10,2,43;11,2,1;1,3,1;2,3,1;3,3,1;4,3,1;5,3,1;6,3,43;7,3,1;8,3,99;9,3,1;10,3,1;11,3,1;1,4,99;2,4,18;3,4,99;4,4,1;5,4,1;6,4,1;7,4,1;8,4,28;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,15;4,5,7;5,5,2;6,5,1;7,5,1;8,5,99;9,5,1;10,5,52;11,5,51;1,6,1;2,6,1;3,6,1;4,6,99;5,6,18;6,6,99;7,6,1;8,6,99;9,6,1;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,44;6,7,1;7,7,1;8,7,28;9,7,1;10,7,45;11,7,1;1,8,1;2,8,1;3,8,99;4,8,99;5,8,19;6,8,99;7,8,99;8,8,99;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,2;11,9,6;1,10,1;2,10,52;3,10,51;4,10,1;5,10,42;6,10,1;7,10,99;8,10,99;9,10,19;10,10,99;11,10,99;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,31;7,2,1;8,2,1;9,2,31;10,2,1;11,2,1;1,3,1;2,3,1;3,3,16;4,3,16;5,3,99;6,3,1;7,3,99;8,3,17;9,3,17;10,3,1;11,3,1;1,4,1;2,4,1;3,4,2;4,4,6;5,4,99;6,4,1;7,4,99;8,4,7;9,4,1;10,4,1;11,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,22;6,5,10;7,5,29;8,5,1;9,5,1;10,5,10;11,5,1;1,6,1;2,6,31;3,6,1;4,6,1;5,6,99;6,6,1;7,6,99;8,6,1;9,6,1;10,6,31;11,6,1;1,7,1;2,7,10;3,7,1;4,7,1;5,7,99;6,7,1;7,7,99;8,7,1;9,7,1;10,7,10;11,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,99;6,8,19;7,8,99;8,8,99;9,8,1;10,8,1;11,8,1;1,9,1;2,9,31;3,9,1;4,9,10;5,9,10;6,9,10;7,9,10;8,9,10;9,9,1;10,9,31;11,9,1;1,10,1;2,10,1;3,10,1;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,1;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,10;6,11,1;7,11,10;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,10;3,2,43;4,2,1;5,2,1;6,2,10;7,2,1;8,2,1;9,2,1;10,2,44;11,2,1;1,3,1;2,3,1;3,3,16;4,3,16;5,3,99;6,3,1;7,3,99;8,3,17;9,3,17;10,3,1;11,3,1;1,4,1;2,4,10;3,4,2;4,4,6;5,4,99;6,4,1;7,4,99;8,4,7;9,4,2;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,22;6,5,42;7,5,29;8,5,1;9,5,1;10,5,1;11,5,10;1,6,1;2,6,45;3,6,1;4,6,10;5,6,99;6,6,1;7,6,99;8,6,10;9,6,1;10,6,43;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,99;6,7,10;7,7,99;8,7,1;9,7,1;10,7,1;11,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,99;6,8,19;7,8,99;8,8,99;9,8,1;10,8,10;11,8,1;1,9,1;2,9,43;3,9,1;4,9,10;5,9,1;6,9,10;7,9,1;8,9,10;9,9,1;10,9,46;11,9,1;1,10,1;2,10,1;3,10,1;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,1;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,10;6,11,1;7,11,10;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,52;11,1,51;1,2,1;2,2,52;3,2,51;4,2,1;5,2,1;6,2,52;7,2,53;8,2,51;9,2,1;10,2,1;11,2,1;1,3,1;2,3,1;3,3,16;4,3,16;5,3,99;6,3,1;7,3,99;8,3,17;9,3,17;10,3,1;11,3,1;1,4,1;2,4,10;3,4,2;4,4,6;5,4,99;6,4,1;7,4,99;8,4,7;9,4,2;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,22;6,5,1;7,5,29;8,5,1;9,5,1;10,5,1;11,5,10;1,6,1;2,6,1;3,6,1;4,6,10;5,6,99;6,6,1;7,6,99;8,6,10;9,6,1;10,6,1;11,6,1;1,7,1;2,7,52;3,7,51;4,7,1;5,7,99;6,7,10;7,7,99;8,7,1;9,7,1;10,7,52;11,7,51;1,8,1;2,8,1;3,8,1;4,8,99;5,8,99;6,8,19;7,8,99;8,8,99;9,8,1;10,8,10;11,8,1;1,9,1;2,9,43;3,9,1;4,9,10;5,9,1;6,9,10;7,9,1;8,9,10;9,9,1;10,9,46;11,9,1;1,10,1;2,10,1;3,10,1;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,1;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,10;6,11,1;7,11,10;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,31;4,2,1;5,2,1;6,2,1;7,2,1;8,2,1;9,2,1;10,2,31;11,2,1;1,3,99;2,3,18;3,3,99;4,3,99;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;10,3,1;11,3,1;1,4,1;2,4,1;3,4,1;4,4,99;5,4,7;6,4,2;7,4,1;8,4,99;9,4,10;10,4,10;11,4,10;1,5,1;2,5,99;3,5,1;4,5,29;5,5,99;6,5,18;7,5,99;8,5,28;9,5,10;10,5,2;11,5,10;1,6,1;2,6,21;3,6,1;4,6,99;5,6,1;6,6,31;7,6,1;8,6,99;9,6,10;10,6,2;11,6,10;1,7,1;2,7,99;3,7,1;4,7,99;5,7,1;6,7,1;7,7,1;8,7,1;9,7,10;10,7,10;11,7,10;1,8,1;2,8,1;3,8,1;4,8,99;5,8,99;6,8,19;7,8,99;8,8,99;9,8,1;10,8,1;11,8,1;1,9,1;2,9,31;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,31;11,9,1;1,10,1;2,10,1;3,10,99;4,10,99;5,10,99;6,10,20;7,10,99;8,10,99;9,10,99;10,10,1;11,10,1;1,11,1;2,11,1;3,11,15;4,11,2;5,11,2;6,11,2;7,11,2;8,11,2;9,11,15;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,15;5,1,1;6,1,1;7,1,1;8,1,15;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,15;4,2,1;5,2,1;6,2,31;7,2,1;8,2,1;9,2,15;10,2,2;11,2,2;1,3,2;2,3,15;3,3,1;4,3,10;5,3,1;6,3,1;7,3,42;8,3,1;9,3,1;10,3,15;11,3,2;1,4,15;2,4,1;3,4,1;4,4,43;5,4,99;6,4,18;7,4,99;8,4,10;9,4,1;10,4,1;11,4,15;1,5,10;2,5,31;3,5,1;4,5,2;5,5,6;6,5,2;7,5,7;8,5,2;9,5,1;10,5,31;11,5,10;1,6,1;2,6,1;3,6,1;4,6,99;5,6,99;6,6,19;7,6,99;8,6,99;9,6,1;10,6,1;11,6,1;1,7,10;2,7,1;3,7,31;4,7,1;5,7,10;6,7,10;7,7,10;8,7,43;9,7,31;10,7,1;11,7,10;1,8,15;2,8,1;3,8,1;4,8,45;5,8,99;6,8,18;7,8,99;8,8,1;9,8,1;10,8,1;11,8,15;1,9,2;2,9,15;3,9,1;4,9,1;5,9,1;6,9,9;7,9,1;8,9,1;9,9,1;10,9,15;11,9,2;1,10,2;2,10,2;3,10,15;4,10,1;5,10,1;6,10,2;7,10,1;8,10,1;9,10,15;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,15;5,11,1;6,11,1;7,11,1;8,11,15;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,15;5,1,1;6,1,1;7,1,1;8,1,15;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,15;4,2,1;5,2,31;6,2,1;7,2,10;8,2,1;9,2,15;10,2,2;11,2,2;1,3,2;2,3,15;3,3,1;4,3,10;5,3,1;6,3,8;7,3,1;8,3,1;9,3,10;10,3,15;11,3,2;1,4,15;2,4,1;3,4,1;4,4,1;5,4,99;6,4,18;7,4,99;8,4,1;9,4,1;10,4,1;11,4,15;1,5,1;2,5,1;3,5,10;4,5,1;5,5,10;6,5,31;7,5,1;8,5,1;9,5,10;10,5,1;11,5,1;1,6,7;2,6,2;3,6,1;4,6,99;5,6,99;6,6,19;7,6,99;8,6,99;9,6,1;10,6,2;11,6,6;1,7,1;2,7,1;3,7,1;4,7,1;5,7,1;6,7,31;7,7,10;8,7,1;9,7,10;10,7,1;11,7,1;1,8,15;2,8,1;3,8,1;4,8,10;5,8,99;6,8,18;7,8,99;8,8,1;9,8,31;10,8,1;11,8,15;1,9,2;2,9,15;3,9,1;4,9,31;5,9,1;6,9,9;7,9,1;8,9,1;9,9,1;10,9,15;11,9,2;1,10,2;2,10,2;3,10,15;4,10,1;5,10,1;6,10,2;7,10,1;8,10,1;9,10,15;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,15;5,11,1;6,11,1;7,11,1;8,11,15;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,15;5,1,1;6,1,1;7,1,1;8,1,15;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,15;4,2,1;5,2,42;6,2,1;7,2,1;8,2,1;9,2,15;10,2,2;11,2,2;1,3,2;2,3,15;3,3,1;4,3,31;5,3,1;6,3,10;7,3,1;8,3,31;9,3,1;10,3,15;11,3,2;1,4,15;2,4,1;3,4,1;4,4,1;5,4,1;6,4,1;7,4,1;8,4,1;9,4,43;10,4,1;11,4,15;1,5,1;2,5,1;3,5,1;4,5,99;5,5,10;6,5,1;7,5,10;8,5,99;9,5,1;10,5,1;11,5,1;1,6,1;2,6,2;3,6,6;4,6,21;5,6,1;6,6,3;7,6,1;8,6,28;9,6,7;10,6,2;11,6,1;1,7,1;2,7,1;3,7,1;4,7,99;5,7,10;6,7,1;7,7,10;8,7,99;9,7,1;10,7,31;11,7,1;1,8,15;2,8,1;3,8,31;4,8,1;5,8,1;6,8,1;7,8,1;8,8,43;9,8,1;10,8,1;11,8,15;1,9,2;2,9,15;3,9,1;4,9,43;5,9,1;6,9,31;7,9,1;8,9,1;9,9,1;10,9,15;11,9,2;1,10,2;2,10,2;3,10,15;4,10,1;5,10,1;6,10,1;7,10,10;8,10,10;9,10,15;10,10,2;11,10,2;1,11,2;2,11,2;3,11,2;4,11,15;5,11,10;6,11,2;7,11,10;8,11,15;9,11,2;10,11,2;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,10;7,2,1;8,2,31;9,2,1;10,2,2;11,2,2;1,3,2;2,3,1;3,3,1;4,3,1;5,3,99;6,3,18;7,3,99;8,3,1;9,3,1;10,3,1;11,3,2;1,4,1;2,4,1;3,4,31;4,4,10;5,4,10;6,4,9;7,4,10;8,4,10;9,4,31;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,1;11,5,1;1,6,31;2,6,1;3,6,10;4,6,99;5,6,99;6,6,19;7,6,99;8,6,99;9,6,10;10,6,1;11,6,31;1,7,1;2,7,1;3,7,1;4,7,10;5,7,10;6,7,9;7,7,10;8,7,10;9,7,1;10,7,1;11,7,1;1,8,1;2,8,1;3,8,31;4,8,1;5,8,1;6,8,2;7,8,1;8,8,1;9,8,31;10,8,1;11,8,1;1,9,1;2,9,10;3,9,99;4,9,99;5,9,99;6,9,20;7,9,99;8,9,99;9,9,99;10,9,10;11,9,1;1,10,1;2,10,1;3,10,10;4,10,10;5,10,10;6,10,9;7,10,10;8,10,10;9,10,10;10,10,1;11,10,1;1,11,10;2,11,1;3,11,2;4,11,1;5,11,1;6,11,2;7,11,1;8,11,1;9,11,2;10,11,1;11,11,10</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,8;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,2;2,3,1;3,3,31;4,3,1;5,3,99;6,3,18;7,3,99;8,3,1;9,3,31;10,3,1;11,3,2;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;6,4,2;7,4,1;8,4,10;9,4,1;10,4,1;11,4,1;1,5,31;2,5,1;3,5,1;4,5,10;5,5,1;6,5,8;7,5,1;8,5,10;9,5,1;10,5,1;11,5,31;1,6,1;2,6,1;3,6,1;4,6,99;5,6,99;6,6,19;7,6,99;8,6,99;9,6,1;10,6,1;11,6,1;1,7,1;2,7,31;3,7,1;4,7,10;5,7,1;6,7,2;7,7,1;8,7,10;9,7,1;10,7,31;11,7,1;1,8,1;2,8,1;3,8,1;4,8,10;5,8,1;6,8,8;7,8,1;8,8,10;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,99;6,9,20;7,9,99;8,9,99;9,9,99;10,9,1;11,9,1;1,10,1;2,10,31;3,10,1;4,10,10;5,10,1;6,10,10;7,10,1;8,10,10;9,10,1;10,10,31;11,10,1;1,11,2;2,11,1;3,11,1;4,11,10;5,11,1;6,11,10;7,11,1;8,11,10;9,11,1;10,11,1;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,2;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,8;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,2;2,3,1;3,3,43;4,3,1;5,3,99;6,3,18;7,3,99;8,3,1;9,3,31;10,3,1;11,3,2;1,4,1;2,4,1;3,4,1;4,4,10;5,4,1;6,4,2;7,4,1;8,4,10;9,4,1;10,4,1;11,4,1;1,5,42;2,5,1;3,5,1;4,5,10;5,5,1;6,5,8;7,5,1;8,5,10;9,5,1;10,5,1;11,5,44;1,6,1;2,6,1;3,6,1;4,6,99;5,6,99;6,6,19;7,6,99;8,6,99;9,6,1;10,6,1;11,6,1;1,7,1;2,7,45;3,7,1;4,7,10;5,7,1;6,7,2;7,7,1;8,7,10;9,7,1;10,7,43;11,7,1;1,8,1;2,8,1;3,8,1;4,8,10;5,8,1;6,8,8;7,8,1;8,8,10;9,8,1;10,8,1;11,8,1;1,9,1;2,9,1;3,9,99;4,9,99;5,9,99;6,9,20;7,9,99;8,9,99;9,9,99;10,9,1;11,9,1;1,10,1;2,10,31;3,10,1;4,10,10;5,10,1;6,10,10;7,10,1;8,10,10;9,10,1;10,10,31;11,10,1;1,11,2;2,11,1;3,11,1;4,11,10;5,11,1;6,11,10;7,11,1;8,11,10;9,11,1;10,11,1;11,11,2</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,99;4,2,99;5,2,19;6,2,99;7,2,99;8,2,1;9,2,1;10,2,1;11,2,1;1,3,1;2,3,1;3,3,99;4,3,1;5,3,10;6,3,31;7,3,10;8,3,1;9,3,1;10,3,31;11,3,1;1,4,1;2,4,1;3,4,21;4,4,1;5,4,1;6,4,10;7,4,1;8,4,10;9,4,1;10,4,1;11,4,1;1,5,1;2,5,31;3,5,99;4,5,99;5,5,99;6,5,19;7,5,99;8,5,99;9,5,1;10,5,1;11,5,1;1,6,1;2,6,1;3,6,10;4,6,1;5,6,10;6,6,1;7,6,6;8,6,15;9,6,7;10,6,1;11,6,1;1,7,31;2,7,1;3,7,1;4,7,10;5,7,1;6,7,1;7,7,15;8,7,9;9,7,15;10,7,1;11,7,1;1,8,1;2,8,1;3,8,10;4,8,1;5,8,10;6,8,15;7,8,1;8,8,2;9,8,1;10,8,15;11,8,1;1,9,1;2,9,1;3,9,99;4,9,18;5,9,99;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,31;8,10,1;9,10,99;10,10,18;11,10,99;1,11,1;2,11,1;3,11,31;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,99;4,2,99;5,2,19;6,2,99;7,2,99;8,2,52;9,2,53;10,2,51;11,2,1;1,3,1;2,3,42;3,3,99;4,3,1;5,3,1;6,3,10;7,3,1;8,3,1;9,3,43;10,3,1;11,3,1;1,4,1;2,4,1;3,4,21;4,4,7;5,4,1;6,4,1;7,4,1;8,4,10;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,99;4,5,99;5,5,99;6,5,19;7,5,99;8,5,99;9,5,1;10,5,1;11,5,45;1,6,1;2,6,1;3,6,52;4,6,51;5,6,1;6,6,2;7,6,6;8,6,15;9,6,1;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,44;5,7,1;6,7,1;7,7,15;8,7,10;9,7,15;10,7,1;11,7,1;1,8,1;2,8,43;3,8,1;4,8,1;5,8,1;6,8,15;7,8,10;8,8,10;9,8,10;10,8,15;11,8,1;1,9,1;2,9,1;3,9,99;4,9,18;5,9,99;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,1;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,1;7,10,43;8,10,1;9,10,99;10,10,18;11,10,99;1,11,2;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,10;3,2,1;4,2,31;5,2,99;6,2,99;7,2,99;8,2,20;9,2,99;10,2,99;11,2,99;1,3,1;2,3,1;3,3,1;4,3,1;5,3,31;6,3,1;7,3,10;8,3,1;9,3,1;10,3,2;11,3,6;1,4,17;2,4,17;3,4,17;4,4,1;5,4,1;6,4,1;7,4,99;8,4,1;9,4,1;10,4,1;11,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,10;6,5,1;7,5,99;8,5,1;9,5,1;10,5,10;11,5,1;1,6,1;2,6,99;3,6,18;4,6,99;5,6,1;6,6,1;7,6,29;8,6,1;9,6,16;10,6,16;11,6,16;1,7,1;2,7,10;3,7,1;4,7,1;5,7,1;6,7,31;7,7,99;8,7,1;9,7,1;10,7,10;11,7,1;1,8,7;2,8,2;3,8,1;4,8,31;5,8,1;6,8,1;7,8,99;8,8,99;9,8,18;10,8,99;11,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,10;10,9,1;11,9,1;1,10,1;2,10,1;3,10,31;4,10,1;5,10,1;6,10,31;7,10,99;8,10,99;9,10,19;10,10,99;11,10,99;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,10;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,43;3,2,1;4,2,10;5,2,99;6,2,99;7,2,99;8,2,20;9,2,99;10,2,99;11,2,99;1,3,1;2,3,1;3,3,10;4,3,1;5,3,1;6,3,1;7,3,10;8,3,1;9,3,1;10,3,1;11,3,6;1,4,17;2,4,17;3,4,17;4,4,1;5,4,42;6,4,1;7,4,99;8,4,1;9,4,1;10,4,1;11,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,1;7,5,99;8,5,1;9,5,44;10,5,1;11,5,1;1,6,1;2,6,99;3,6,18;4,6,99;5,6,1;6,6,1;7,6,29;8,6,1;9,6,16;10,6,16;11,6,16;1,7,1;2,7,1;3,7,10;4,7,45;5,7,1;6,7,1;7,7,99;8,7,10;9,7,1;10,7,1;11,7,1;1,8,7;2,8,2;3,8,1;4,8,1;5,8,1;6,8,1;7,8,99;8,8,99;9,8,18;10,8,99;11,8,1;1,9,1;2,9,1;3,9,1;4,9,1;5,9,10;6,9,1;7,9,1;8,9,42;9,9,1;10,9,1;11,9,10;1,10,1;2,10,1;3,10,10;4,10,1;5,10,1;6,10,43;7,10,99;8,10,99;9,10,19;10,10,99;11,10,99;1,11,1;2,11,2;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,2;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,43;3,2,1;4,2,1;5,2,99;6,2,99;7,2,99;8,2,20;9,2,99;10,2,99;11,2,99;1,3,1;2,3,1;3,3,52;4,3,51;5,3,1;6,3,1;7,3,1;8,3,10;9,3,1;10,3,1;11,3,6;1,4,17;2,4,17;3,4,17;4,4,1;5,4,42;6,4,1;7,4,99;8,4,1;9,4,52;10,4,51;11,4,1;1,5,1;2,5,10;3,5,1;4,5,1;5,5,1;6,5,1;7,5,99;8,5,1;9,5,44;10,5,1;11,5,1;1,6,1;2,6,99;3,6,18;4,6,99;5,6,1;6,6,1;7,6,29;8,6,1;9,6,16;10,6,16;11,6,16;1,7,1;2,7,1;3,7,1;4,7,45;5,7,1;6,7,10;7,7,99;8,7,1;9,7,10;10,7,1;11,7,1;1,8,7;2,8,2;3,8,1;4,8,1;5,8,1;6,8,1;7,8,99;8,8,99;9,8,18;10,8,99;11,8,1;1,9,1;2,9,1;3,9,1;4,9,52;5,9,53;6,9,51;7,9,1;8,9,10;9,9,1;10,9,1;11,9,10;1,10,1;2,10,1;3,10,1;4,10,1;5,10,1;6,10,43;7,10,99;8,10,99;9,10,19;10,10,99;11,10,99;1,11,1;2,11,2;3,11,1;4,11,10;5,11,1;6,11,1;7,11,1;8,11,1;9,11,2;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,99;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,10;3,2,10;4,2,2;5,2,21;6,2,1;7,2,31;8,2,1;9,2,1;10,2,10;11,2,1;1,3,1;2,3,31;3,3,10;4,3,2;5,3,99;6,3,10;7,3,1;8,3,1;9,3,52;10,3,53;11,3,51;1,4,1;2,4,10;3,4,10;4,4,2;5,4,99;6,4,18;7,4,99;8,4,10;9,4,10;10,4,10;11,4,31;1,5,1;2,5,1;3,5,10;4,5,2;5,5,2;6,5,2;7,5,2;8,5,2;9,5,10;10,5,1;11,5,1;1,6,10;2,6,1;3,6,52;4,6,51;5,6,99;6,6,18;7,6,99;8,6,2;9,6,10;10,6,31;11,6,1;1,7,1;2,7,1;3,7,31;4,7,1;5,7,1;6,7,10;7,7,99;8,7,2;9,7,10;10,7,1;11,7,1;1,8,1;2,8,10;3,8,1;4,8,1;5,8,31;6,8,1;7,8,99;8,8,2;9,8,10;10,8,10;11,8,10;1,9,1;2,9,52;3,9,53;4,9,51;5,9,1;6,9,10;7,9,29;8,9,2;9,9,10;10,9,31;11,9,10;1,10,1;2,10,31;3,10,10;4,10,1;5,10,1;6,10,1;7,10,99;8,10,2;9,10,10;10,10,1;11,10,10;1,11,1;2,11,1;3,11,1;4,11,1;5,11,10;6,11,1;7,11,99;8,11,2;9,11,10;10,11,1;11,11,10</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,99;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,1;2,2,1;3,2,1;4,2,2;5,2,21;6,2,1;7,2,1;8,2,43;9,2,1;10,2,10;11,2,1;1,3,1;2,3,44;3,3,10;4,3,2;5,3,99;6,3,7;7,3,2;8,3,1;9,3,52;10,3,53;11,3,51;1,4,52;2,4,51;3,4,10;4,4,2;5,4,99;6,4,18;7,4,99;8,4,10;9,4,1;10,4,1;11,4,43;1,5,10;2,5,10;3,5,10;4,5,2;5,5,2;6,5,2;7,5,2;8,5,2;9,5,10;10,5,1;11,5,1;1,6,1;2,6,1;3,6,52;4,6,51;5,6,99;6,6,18;7,6,99;8,6,2;9,6,10;10,6,42;11,6,1;1,7,1;2,7,1;3,7,1;4,7,1;5,7,2;6,7,6;7,7,99;8,7,2;9,7,10;10,7,1;11,7,1;1,8,1;2,8,1;3,8,43;4,8,1;5,8,1;6,8,1;7,8,99;8,8,2;9,8,10;10,8,10;11,8,10;1,9,1;2,9,52;3,9,53;4,9,51;5,9,1;6,9,43;7,9,29;8,9,2;9,9,42;10,9,31;11,9,10;1,10,1;2,10,45;3,10,1;4,10,1;5,10,1;6,10,1;7,10,99;8,10,2;9,10,10;10,10,1;11,10,10;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,99;8,11,2;9,11,10;10,11,1;11,11,10</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,31;3,2,10;4,2,1;5,2,1;6,2,1;7,2,10;8,2,1;9,2,10;10,2,1;11,2,2;1,3,17;2,3,17;3,3,52;4,3,51;5,3,1;6,3,1;7,3,31;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,31;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,10;6,5,10;7,5,10;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,31;5,6,1;6,6,52;7,6,53;8,6,51;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,1;7,7,1;8,7,1;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,10;4,8,1;5,8,99;6,8,18;7,8,99;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,31;8,9,1;9,9,10;10,9,1;11,9,14;1,10,14;2,10,1;3,10,31;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,1;7,2,1;8,2,31;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,15;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,99;5,5,1;6,5,1;7,5,1;8,5,99;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,10;4,6,21;5,6,1;6,6,31;7,6,1;8,6,28;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,10;4,7,99;5,7,1;6,7,1;7,7,1;8,7,99;9,7,10;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,9;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,31;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,31;10,9,1;11,9,14;1,10,14;2,10,1;3,10,10;4,10,1;5,10,1;6,10,31;7,10,1;8,10,1;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,1;7,2,1;8,2,43;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,42;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,15;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,99;5,5,1;6,5,1;7,5,1;8,5,99;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,10;4,6,21;5,6,1;6,6,45;7,6,1;8,6,28;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,10;4,7,99;5,7,1;6,7,1;7,7,1;8,7,99;9,7,10;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,9;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,44;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,43;10,9,1;11,9,14;1,10,14;2,10,1;3,10,10;4,10,1;5,10,1;6,10,42;7,10,1;8,10,1;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,1;7,2,1;8,2,43;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,42;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,8;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,99;5,5,1;6,5,1;7,5,1;8,5,99;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,43;4,6,21;5,6,1;6,6,31;7,6,1;8,6,28;9,6,42;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,99;5,7,1;6,7,1;7,7,1;8,7,99;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,9;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,31;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,31;10,9,1;11,9,14;1,10,14;2,10,1;3,10,10;4,10,1;5,10,1;6,10,42;7,10,1;8,10,1;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,1;7,2,1;8,2,31;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,43;5,4,1;6,4,1;7,4,1;8,4,42;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,99;5,5,10;6,5,10;7,5,10;8,5,99;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,21;5,6,10;6,6,15;7,6,10;8,6,28;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,99;5,7,10;6,7,10;7,7,10;8,7,99;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,45;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,43;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,8;7,10,1;8,10,1;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,10;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,10;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,99;6,1,18;7,1,99;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,9;7,2,1;8,2,43;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,2;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,42;6,4,1;7,4,1;8,4,10;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,10;7,5,31;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,10;4,6,1;5,6,10;6,6,15;7,6,10;8,6,1;9,6,45;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,31;5,7,1;6,7,10;7,7,1;8,7,43;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,99;6,8,18;7,8,99;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,45;4,9,1;5,9,1;6,9,2;7,9,1;8,9,1;9,9,43;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,1;5,10,1;6,10,8;7,10,1;8,10,31;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,10;4,11,1;5,11,1;6,11,2;7,11,1;8,11,1;9,11,10;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,1;7,2,42;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,1;7,4,1;8,4,43;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,1;6,5,10;7,5,1;8,5,31;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,1;6,6,1;7,6,1;8,6,1;9,6,44;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,10;5,7,1;6,7,10;7,7,1;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,99;3,8,18;4,8,99;5,8,1;6,8,1;7,8,1;8,8,99;9,8,18;10,8,99;11,8,14;1,9,14;2,9,1;3,9,1;4,9,10;5,9,1;6,9,45;7,9,1;8,9,10;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,10;5,11,1;6,11,1;7,11,1;8,11,10;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,31;5,2,1;6,2,10;7,2,1;8,2,31;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,1;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,31;7,4,1;8,4,43;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,10;6,5,1;7,5,10;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,1;6,6,10;7,6,1;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,7;4,7,2;5,7,1;6,7,2;7,7,1;8,7,2;9,7,6;10,7,99;11,7,14;1,8,14;2,8,99;3,8,18;4,8,99;5,8,1;6,8,10;7,8,1;8,8,99;9,8,18;10,8,99;11,8,14;1,9,14;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,10;11,9,14;1,10,14;2,10,1;3,10,31;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,10;5,11,1;6,11,2;7,11,1;8,11,10;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,31;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,43;6,4,15;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,31;7,5,1;8,5,42;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,15;4,6,10;5,6,1;6,6,1;7,6,1;8,6,10;9,6,15;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,31;7,7,1;8,7,1;9,7,1;10,7,99;11,7,14;1,8,14;2,8,99;3,8,18;4,8,99;5,8,1;6,8,2;7,8,1;8,8,99;9,8,18;10,8,99;11,8,14;1,9,14;2,9,10;3,9,10;4,9,1;5,9,43;6,9,8;7,9,1;8,9,1;9,9,10;10,9,10;11,9,14;1,10,14;2,10,10;3,10,2;4,10,99;5,10,99;6,10,19;7,10,99;8,10,99;9,10,2;10,10,10;11,10,14;1,11,14;2,11,10;3,11,10;4,11,1;5,11,1;6,11,2;7,11,1;8,11,1;9,11,10;10,11,10;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,99;4,2,18;5,2,99;6,2,1;7,2,1;8,2,31;9,2,1;10,2,15;11,2,1;1,3,1;2,3,10;3,3,1;4,3,1;5,3,10;6,3,1;7,3,1;8,3,1;9,3,1;10,3,15;11,3,1;1,4,1;2,4,15;3,4,1;4,4,99;5,4,1;6,4,99;7,4,18;8,4,99;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,99;5,5,1;6,5,10;7,5,10;8,5,1;9,5,1;10,5,1;11,5,1;1,6,1;2,6,1;3,6,1;4,6,22;5,6,99;6,6,18;7,6,99;8,6,1;9,6,1;10,6,31;11,6,1;1,7,1;2,7,31;3,7,1;4,7,99;5,7,10;6,7,1;7,7,1;8,7,1;9,7,1;10,7,1;11,7,1;1,8,1;2,8,1;3,8,1;4,8,99;5,8,10;6,8,99;7,8,18;8,8,99;9,8,1;10,8,10;11,8,1;1,9,1;2,9,10;3,9,1;4,9,1;5,9,1;6,9,1;7,9,99;8,9,7;9,9,2;10,9,1;11,9,10;1,10,1;2,10,99;3,10,18;4,10,99;5,10,10;6,10,10;7,10,28;8,10,1;9,10,1;10,10,10;11,10,1;1,11,1;2,11,1;3,11,10;4,11,1;5,11,1;6,11,1;7,11,99;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,42;3,2,99;4,2,18;5,2,99;6,2,1;7,2,43;8,2,52;9,2,51;10,2,15;11,2,1;1,3,1;2,3,10;3,3,1;4,3,1;5,3,10;6,3,1;7,3,1;8,3,1;9,3,42;10,3,15;11,3,1;1,4,1;2,4,15;3,4,1;4,4,99;5,4,2;6,4,99;7,4,18;8,4,99;9,4,1;10,4,1;11,4,1;1,5,1;2,5,1;3,5,1;4,5,99;5,5,8;6,5,10;7,5,10;8,5,1;9,5,52;10,5,51;11,5,1;1,6,1;2,6,44;3,6,1;4,6,22;5,6,99;6,6,18;7,6,99;8,6,9;9,6,1;10,6,1;11,6,10;1,7,1;2,7,1;3,7,1;4,7,99;5,7,10;6,7,1;7,7,1;8,7,2;9,7,1;10,7,45;11,7,1;1,8,10;2,8,1;3,8,43;4,8,99;5,8,10;6,8,99;7,8,18;8,8,99;9,8,1;10,8,1;11,8,1;1,9,10;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,99;8,9,1;9,9,1;10,9,52;11,9,51;1,10,1;2,10,99;3,10,18;4,10,99;5,10,10;6,10,10;7,10,28;8,10,1;9,10,43;10,10,1;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,99;8,11,1;9,11,1;10,11,10;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,99;4,2,18;5,2,99;6,2,1;7,2,99;8,2,18;9,2,99;10,2,10;11,2,1;1,3,1;2,3,31;3,3,1;4,3,1;5,3,99;6,3,1;7,3,99;8,3,1;9,3,31;10,3,1;11,3,1;1,4,8;2,4,1;3,4,10;4,4,1;5,4,99;6,4,10;7,4,99;8,4,10;9,4,1;10,4,1;11,4,8;1,5,99;2,5,18;3,5,99;4,5,1;5,5,22;6,5,9;7,5,29;8,5,1;9,5,99;10,5,18;11,5,99;1,6,1;2,6,31;3,6,1;4,6,1;5,6,99;6,6,1;7,6,99;8,6,1;9,6,1;10,6,1;11,6,1;1,7,1;2,7,1;3,7,10;4,7,1;5,7,99;6,7,1;7,7,99;8,7,31;9,7,1;10,7,10;11,7,1;1,8,10;2,8,99;3,8,1;4,8,1;5,8,1;6,8,10;7,8,1;8,8,1;9,8,1;10,8,99;11,8,1;1,9,31;2,9,21;3,9,1;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,28;11,9,1;1,10,1;2,10,99;3,10,1;4,10,31;5,10,1;6,10,1;7,10,10;8,10,31;9,10,1;10,10,99;11,10,10;1,11,1;2,11,1;3,11,1;4,11,10;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,1;2,2,1;3,2,99;4,2,18;5,2,99;6,2,1;7,2,99;8,2,18;9,2,99;10,2,1;11,2,10;1,3,1;2,3,1;3,3,43;4,3,1;5,3,99;6,3,43;7,3,99;8,3,1;9,3,10;10,3,1;11,3,1;1,4,8;2,4,1;3,4,10;4,4,1;5,4,99;6,4,1;7,4,99;8,4,1;9,4,42;10,4,1;11,4,8;1,5,99;2,5,18;3,5,99;4,5,1;5,5,22;6,5,9;7,5,29;8,5,1;9,5,99;10,5,18;11,5,99;1,6,1;2,6,45;3,6,1;4,6,1;5,6,99;6,6,1;7,6,99;8,6,1;9,6,44;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,10;5,7,99;6,7,1;7,7,99;8,7,1;9,7,1;10,7,1;11,7,10;1,8,1;2,8,99;3,8,1;4,8,1;5,8,1;6,8,1;7,8,10;8,8,1;9,8,1;10,8,99;11,8,1;1,9,1;2,9,21;3,9,10;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,28;11,9,1;1,10,1;2,10,99;3,10,1;4,10,1;5,10,1;6,10,43;7,10,1;8,10,1;9,10,10;10,10,99;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,31;2,2,1;3,2,99;4,2,18;5,2,99;6,2,1;7,2,99;8,2,18;9,2,99;10,2,1;11,2,10;1,3,1;2,3,1;3,3,43;4,3,1;5,3,99;6,3,43;7,3,99;8,3,1;9,3,10;10,3,1;11,3,1;1,4,8;2,4,1;3,4,10;4,4,1;5,4,99;6,4,1;7,4,99;8,4,1;9,4,42;10,4,1;11,4,8;1,5,99;2,5,18;3,5,99;4,5,1;5,5,22;6,5,9;7,5,29;8,5,1;9,5,99;10,5,18;11,5,99;1,6,1;2,6,45;3,6,1;4,6,31;5,6,99;6,6,1;7,6,99;8,6,1;9,6,31;10,6,1;11,6,1;1,7,1;2,7,1;3,7,1;4,7,10;5,7,99;6,7,1;7,7,99;8,7,1;9,7,1;10,7,1;11,7,10;1,8,1;2,8,99;3,8,1;4,8,1;5,8,1;6,8,1;7,8,10;8,8,1;9,8,31;10,8,99;11,8,1;1,9,10;2,9,21;3,9,10;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,28;11,9,10;1,10,1;2,10,99;3,10,1;4,10,31;5,10,1;6,10,43;7,10,1;8,10,1;9,10,10;10,10,99;11,10,1;1,11,1;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,1</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,1;4,2,10;5,2,99;6,2,18;7,2,99;8,2,10;9,2,31;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,9;7,3,1;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,10;5,4,1;6,4,2;7,4,1;8,4,10;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,31;5,5,1;6,5,10;7,5,1;8,5,31;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,99;4,6,18;5,6,99;6,6,1;7,6,99;8,6,18;9,6,99;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,10;5,7,1;6,7,1;7,7,1;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,31;5,8,1;6,8,10;7,8,1;8,8,1;9,8,31;10,8,1;11,8,14;1,9,14;2,9,10;3,9,1;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,10;11,9,14;1,10,14;2,10,1;3,10,31;4,10,1;5,10,1;6,10,10;7,10,1;8,10,31;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,10;5,11,1;6,11,1;7,11,1;8,11,10;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,52;11,1,51;1,2,2;2,2,2;3,2,31;4,2,1;5,2,99;6,2,18;7,2,99;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,9;7,3,52;8,3,51;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,43;5,4,1;6,4,2;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,31;5,5,1;6,5,1;7,5,1;8,5,44;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,99;4,6,18;5,6,99;6,6,1;7,6,99;8,6,18;9,6,99;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,43;5,7,1;6,7,1;7,7,1;8,7,1;9,7,31;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,1;6,8,1;7,8,45;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,31;4,10,1;5,10,1;6,10,52;7,10,51;8,10,1;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,31;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,31;5,3,99;6,3,18;7,3,99;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,10;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,31;8,5,1;9,5,10;10,5,99;11,5,14;1,6,14;2,6,21;3,6,7;4,6,2;5,6,1;6,6,99;7,6,10;8,6,1;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,99;4,7,18;5,7,99;6,7,21;7,7,1;8,7,1;9,7,31;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,10;5,8,31;6,8,99;7,8,1;8,8,1;9,8,2;10,8,6;11,8,14;1,9,14;2,9,1;3,9,1;4,9,1;5,9,1;6,9,1;7,9,1;8,9,1;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,99;5,10,18;6,10,99;7,10,1;8,10,31;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,10;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,10;4,2,1;5,2,43;6,2,1;7,2,1;8,2,42;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,99;6,3,18;7,3,99;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,52;6,4,51;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,31;6,5,1;7,5,45;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,7;4,6,2;5,6,1;6,6,99;7,6,1;8,6,1;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,99;4,7,18;5,7,99;6,7,21;7,7,31;8,7,1;9,7,42;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,31;6,8,99;7,8,1;8,8,1;9,8,2;10,8,6;11,8,14;1,9,14;2,9,1;3,9,43;4,9,1;5,9,1;6,9,1;7,9,1;8,9,45;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,1;4,10,99;5,10,18;6,10,99;7,10,52;8,10,51;9,10,1;10,10,10;11,10,14;1,11,14;2,11,1;3,11,10;4,11,1;5,11,1;6,11,1;7,11,1;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,15;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,1;5,3,1;6,3,1;7,3,31;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,10;5,4,1;6,4,15;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,1;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,31;4,6,1;5,6,99;6,6,18;7,6,99;8,6,10;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,9;7,7,1;8,7,1;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,10;5,8,1;6,8,2;7,8,1;8,8,31;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,99;5,9,1;6,9,1;7,9,1;8,9,99;9,9,10;10,9,1;11,9,14;1,10,14;2,10,1;3,10,10;4,10,21;5,10,1;6,10,10;7,10,1;8,10,28;9,10,1;10,10,10;11,10,14;1,11,14;2,11,1;3,11,1;4,11,99;5,11,1;6,11,1;7,11,1;8,11,99;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,1;4,2,52;5,2,53;6,2,51;7,2,1;8,2,43;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,10;5,3,1;6,3,1;7,3,1;8,3,10;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,43;6,4,1;7,4,52;8,4,51;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,10;7,5,1;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,10;4,6,1;5,6,99;6,6,18;7,6,99;8,6,1;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,42;5,7,1;6,7,9;7,7,1;8,7,43;9,7,1;10,7,99;11,7,14;1,8,14;2,8,10;3,8,1;4,8,1;5,8,1;6,8,2;7,8,1;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,99;5,9,1;6,9,1;7,9,1;8,9,99;9,9,1;10,9,45;11,9,14;1,10,14;2,10,1;3,10,43;4,10,21;5,10,10;6,10,1;7,10,42;8,10,28;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,99;5,11,1;6,11,1;7,11,1;8,11,99;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,1;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,1;1,2,2;2,2,2;3,2,1;4,2,1;5,2,31;6,2,1;7,2,1;8,2,43;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,10;5,3,1;6,3,1;7,3,1;8,3,10;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,43;6,4,1;7,4,1;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,10;7,5,1;8,5,31;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,10;4,6,1;5,6,99;6,6,18;7,6,99;8,6,1;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,31;5,7,1;6,7,9;7,7,1;8,7,43;9,7,1;10,7,99;11,7,14;1,8,14;2,8,10;3,8,1;4,8,1;5,8,1;6,8,2;7,8,1;8,8,1;9,8,31;10,8,1;11,8,14;1,9,14;2,9,1;3,9,1;4,9,99;5,9,1;6,9,1;7,9,1;8,9,99;9,9,1;10,9,45;11,9,14;1,10,14;2,10,1;3,10,43;4,10,21;5,10,10;6,10,1;7,10,31;8,10,28;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,99;5,11,1;6,11,1;7,11,1;8,11,99;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,31;5,3,1;6,3,15;7,3,31;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,10;5,4,1;6,4,1;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,31;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,31;5,6,99;6,6,18;7,6,99;8,6,1;9,6,31;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,10;7,7,1;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,7;3,8,2;4,8,1;5,8,1;6,8,1;7,8,1;8,8,1;9,8,1;10,8,6;11,8,14;1,9,14;2,9,99;3,9,18;4,9,99;5,9,1;6,9,1;7,9,31;8,9,99;9,9,18;10,9,99;11,9,14;1,10,14;2,10,1;3,10,1;4,10,31;5,10,1;6,10,10;7,10,1;8,10,1;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,10;4,11,1;5,11,1;6,11,2;7,11,1;8,11,10;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,1;7,2,43;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,42;5,3,1;6,3,15;7,3,31;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,10;5,4,1;6,4,1;7,4,1;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,1;5,5,1;6,5,1;7,5,31;8,5,1;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,31;5,6,99;6,6,18;7,6,99;8,6,1;9,6,44;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,1;5,7,1;6,7,10;7,7,1;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,7;3,8,2;4,8,1;5,8,43;6,8,1;7,8,1;8,8,1;9,8,2;10,8,6;11,8,14;1,9,14;2,9,99;3,9,18;4,9,99;5,9,1;6,9,1;7,9,31;8,9,99;9,9,18;10,9,99;11,9,14;1,10,14;2,10,1;3,10,1;4,10,31;5,10,1;6,10,10;7,10,42;8,10,1;9,10,10;10,10,1;11,10,14;1,11,14;2,11,1;3,11,10;4,11,1;5,11,1;6,11,1;7,11,1;8,11,10;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,2;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,52;7,2,53;8,2,51;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,31;5,3,1;6,3,15;7,3,1;8,3,10;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,1;6,4,1;7,4,31;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,52;5,5,51;6,5,1;7,5,1;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,31;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,10;4,7,1;5,7,1;6,7,10;7,7,99;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,7;3,8,1;4,8,1;5,8,31;6,8,1;7,8,28;8,8,1;9,8,1;10,8,6;11,8,14;1,9,14;2,9,99;3,9,18;4,9,99;5,9,1;6,9,1;7,9,99;8,9,99;9,9,18;10,9,99;11,9,14;1,10,14;2,10,1;3,10,10;4,10,1;5,10,1;6,10,1;7,10,1;8,10,31;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,52;6,11,51;7,11,1;8,11,1;9,11,10;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,10;5,2,1;6,2,15;7,2,1;8,2,1;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,31;5,3,1;6,3,1;7,3,1;8,3,10;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,15;7,4,31;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,1;6,5,1;7,5,1;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,31;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,10;4,7,1;5,7,1;6,7,9;7,7,99;8,7,10;9,7,1;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,1;5,8,31;6,8,2;7,8,99;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,99;3,9,18;4,9,99;5,9,1;6,9,1;7,9,29;8,9,1;9,9,10;10,9,1;11,9,14;1,10,14;2,10,7;3,10,2;4,10,1;5,10,10;6,10,1;7,10,99;8,10,31;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,99;8,11,1;9,11,10;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,2;3,2,1;4,2,43;5,2,1;6,2,15;7,2,1;8,2,10;9,2,1;10,2,2;11,2,2;1,3,17;2,3,17;3,3,1;4,3,31;5,3,10;6,3,1;7,3,1;8,3,44;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,2;4,4,1;5,4,1;6,4,15;7,4,31;8,4,1;9,4,2;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,43;5,5,1;6,5,10;7,5,1;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,31;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,10;4,7,1;5,7,1;6,7,9;7,7,99;8,7,10;9,7,42;10,7,99;11,7,14;1,8,14;2,8,1;3,8,1;4,8,42;5,8,31;6,8,2;7,8,99;8,8,1;9,8,1;10,8,1;11,8,14;1,9,14;2,9,99;3,9,18;4,9,99;5,9,1;6,9,1;7,9,29;8,9,1;9,9,10;10,9,43;11,9,14;1,10,14;2,10,7;3,10,2;4,10,1;5,10,10;6,10,1;7,10,99;8,10,31;9,10,1;10,10,1;11,10,14;1,11,14;2,11,1;3,11,1;4,11,1;5,11,1;6,11,1;7,11,99;8,11,1;9,11,10;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,1;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,1;11,1,2;1,2,2;2,2,1;3,2,31;4,2,1;5,2,99;6,2,18;7,2,99;8,2,10;9,2,1;10,2,1;11,2,2;1,3,17;2,3,17;3,3,1;4,3,10;5,3,99;6,3,1;7,3,10;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,21;6,4,1;7,4,31;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,99;6,5,7;7,5,2;8,5,10;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,99;9,6,1;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,31;5,7,1;6,7,10;7,7,1;8,7,28;9,7,1;10,7,99;11,7,14;1,8,14;2,8,10;3,8,1;4,8,1;5,8,10;6,8,1;7,8,6;8,8,99;9,8,1;10,8,10;11,8,14;1,9,14;2,9,1;3,9,99;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,21;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,99;4,11,1;5,11,1;6,11,10;7,11,31;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,1;3,2,31;4,2,1;5,2,99;6,2,18;7,2,99;8,2,10;9,2,1;10,2,1;11,2,2;1,3,17;2,3,17;3,3,1;4,3,43;5,3,99;6,3,1;7,3,42;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,21;6,4,1;7,4,31;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,99;6,5,8;7,5,2;8,5,45;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,99;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,1;4,7,43;5,7,1;6,7,2;7,7,6;8,7,28;9,7,1;10,7,99;11,7,14;1,8,14;2,8,10;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,99;9,8,1;10,8,43;11,8,14;1,9,14;2,9,1;3,9,99;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,21;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,99;4,11,1;5,11,1;6,11,10;7,11,31;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,1;4,1,1;5,1,1;6,1,1;7,1,1;8,1,1;9,1,1;10,1,2;11,1,2;1,2,2;2,2,1;3,2,31;4,2,1;5,2,99;6,2,18;7,2,99;8,2,10;9,2,1;10,2,1;11,2,2;1,3,17;2,3,17;3,3,1;4,3,43;5,3,99;6,3,52;7,3,51;8,3,1;9,3,1;10,3,16;11,3,16;1,4,14;2,4,12;3,4,1;4,4,1;5,4,21;6,4,1;7,4,31;8,4,1;9,4,1;10,4,11;11,4,14;1,5,14;2,5,99;3,5,1;4,5,10;5,5,99;6,5,8;7,5,2;8,5,45;9,5,1;10,5,99;11,5,14;1,6,14;2,6,21;3,6,1;4,6,1;5,6,99;6,6,18;7,6,99;8,6,99;9,6,10;10,6,28;11,6,14;1,7,14;2,7,99;3,7,52;4,7,53;5,7,51;6,7,2;7,7,6;8,7,28;9,7,1;10,7,99;11,7,14;1,8,14;2,8,10;3,8,1;4,8,1;5,8,10;6,8,1;7,8,1;8,8,99;9,8,1;10,8,43;11,8,14;1,9,14;2,9,1;3,9,99;4,9,99;5,9,99;6,9,19;7,9,99;8,9,99;9,9,1;10,9,1;11,9,14;1,10,14;2,10,1;3,10,21;4,10,1;5,10,10;6,10,1;7,10,1;8,10,1;9,10,31;10,10,1;11,10,14;1,11,14;2,11,1;3,11,99;4,11,1;5,11,1;6,11,10;7,11,31;8,11,1;9,11,1;10,11,1;11,11,14</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;1,2,2;2,2,1;3,2,1;4,2,1;5,2,2;1,3,1;2,3,1;3,3,9;4,3,1;5,3,1;1,4,2;2,4,1;3,4,2;4,4,1;5,4,2;1,5,2;2,5,2;3,5,2;4,5,2;5,5,2;1,6,2;2,6,2;3,6,2;4,6,2;5,6,2;1,7,2;2,7,2;3,7,2;4,7,2;5,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2</t>
+  </si>
+  <si>
+    <t>1,1,2;2,1,2;3,1,2;4,1,2;5,1,2;6,1,2;7,1,2;1,2,2;2,2,2;3,2,1;4,2,1;5,2,1;6,2,2;7,2,2;1,3,7;2,3,2;3,3,1;4,3,1;5,3,1;6,3,2;7,3,6;1,4,15;2,4,15;3,4,2;4,4,2;5,4,2;6,4,15;7,4,15;1,5,2;2,5,2;3,5,1;4,5,1;5,5,1;6,5,2;7,5,2;1,6,2;2,6,2;3,6,99;4,6,18;5,6,99;6,6,2;7,6,2;1,7,2;2,7,2;3,7,1;4,7,1;5,7,1;6,7,2;7,7,2;1,8,2;2,8,2;3,8,2;4,8,2;5,8,2;6,8,2;7,8,2;1,9,2;2,9,2;3,9,2;4,9,2;5,9,2;6,9,2;7,9,2</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +2223,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +2245,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1855,12 +2260,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1888,6 +2287,13 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2371,16 +2777,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2389,119 +2792,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2520,39 +2926,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2570,6 +2986,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2881,6033 +3307,7097 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C684"/>
+  <dimension ref="A1:C817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="B575" sqref="B575"/>
+    <sheetView tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="B819" sqref="B819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.2666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="216.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.2666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="216.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <v>1001</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>1002</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>1003</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>1004</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <v>1005</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <v>1006</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>1007</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>1008</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>1009</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>1010</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>1011</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>1012</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>1013</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>1014</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>1015</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>1016</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>1017</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="16.5" spans="1:3">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>1018</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="16.5" spans="1:3">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>1019</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" ht="16.5" spans="1:3">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>1020</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" ht="16.5" spans="1:3">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <v>1021</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" ht="16.5" spans="1:3">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>1022</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="16.5" spans="1:3">
-      <c r="A25" s="9">
+      <c r="A25" s="12">
         <v>1023</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="16.5" spans="1:3">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <v>1024</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" ht="16.5" spans="1:3">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <v>1025</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" ht="16.5" spans="1:3">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <v>1026</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" ht="16.5" spans="1:3">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <v>1027</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" ht="16.5" spans="1:3">
-      <c r="A30" s="9">
+      <c r="A30" s="12">
         <v>1028</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" ht="16.5" spans="1:3">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <v>1029</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" ht="16.5" spans="1:3">
-      <c r="A32" s="9">
+      <c r="A32" s="12">
         <v>1030</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" ht="16.5" spans="1:3">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>1031</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" ht="16.5" spans="1:3">
-      <c r="A34" s="9">
+      <c r="A34" s="12">
         <v>1032</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" ht="16.5" spans="1:3">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <v>1033</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" ht="16.5" spans="1:3">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>1034</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" ht="16.5" spans="1:3">
-      <c r="A37" s="9">
+      <c r="A37" s="12">
         <v>1035</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" ht="16.5" spans="1:3">
-      <c r="A38" s="9">
+      <c r="A38" s="12">
         <v>1036</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" ht="16.5" spans="1:3">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>1037</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" ht="16.5" spans="1:3">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>1038</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" ht="16.5" spans="1:3">
-      <c r="A41" s="9">
+      <c r="A41" s="12">
         <v>1039</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" ht="16.5" spans="1:3">
-      <c r="A42" s="9">
+      <c r="A42" s="12">
         <v>1040</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" ht="16.5" spans="1:3">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>1041</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" ht="16.5" spans="1:3">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <v>1042</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" ht="16.5" spans="1:3">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>1043</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" ht="16.5" spans="1:3">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <v>1044</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" ht="16.5" spans="1:3">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>1045</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" ht="16.5" spans="1:3">
-      <c r="A48" s="9">
+      <c r="A48" s="12">
         <v>1046</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" ht="16.5" spans="1:3">
-      <c r="A49" s="9">
+      <c r="A49" s="12">
         <v>1047</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" ht="16.5" spans="1:3">
-      <c r="A50" s="9">
+      <c r="A50" s="12">
         <v>1048</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" ht="16.5" spans="1:3">
-      <c r="A51" s="9">
+      <c r="A51" s="12">
         <v>1049</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" ht="16.5" spans="1:3">
-      <c r="A52" s="9">
+      <c r="A52" s="12">
         <v>1050</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" ht="16.5" spans="1:3">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <v>1051</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" ht="16.5" spans="1:3">
-      <c r="A54" s="9">
+      <c r="A54" s="12">
         <v>1052</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" ht="16.5" spans="1:3">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <v>1053</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" ht="16.5" spans="1:3">
-      <c r="A56" s="9">
+      <c r="A56" s="12">
         <v>1054</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" ht="16.5" spans="1:3">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <v>1055</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" ht="16.5" spans="1:3">
-      <c r="A58" s="9">
+      <c r="A58" s="12">
         <v>1056</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" ht="16.5" spans="1:3">
-      <c r="A59" s="9">
+      <c r="A59" s="12">
         <v>1057</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" ht="16.5" spans="1:3">
-      <c r="A60" s="9">
+      <c r="A60" s="12">
         <v>1058</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" ht="16.5" spans="1:3">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <v>1059</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" ht="16.5" spans="1:3">
-      <c r="A62" s="9">
+      <c r="A62" s="12">
         <v>1060</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="7"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" ht="16.5" spans="1:3">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <v>1061</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" ht="16.5" spans="1:3">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
         <v>1062</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" ht="16.5" spans="1:3">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <v>1063</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="7"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" ht="16.5" spans="1:3">
-      <c r="A66" s="9">
+      <c r="A66" s="12">
         <v>1064</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" ht="16.5" spans="1:3">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <v>1065</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" ht="16.5" spans="1:3">
-      <c r="A68" s="9">
+      <c r="A68" s="12">
         <v>1066</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" ht="16.5" spans="1:3">
-      <c r="A69" s="9">
+      <c r="A69" s="12">
         <v>1067</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" ht="16.5" spans="1:3">
-      <c r="A70" s="9">
+      <c r="A70" s="12">
         <v>1068</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" ht="16.5" spans="1:3">
-      <c r="A71" s="9">
+      <c r="A71" s="12">
         <v>1069</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="7"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" ht="16.5" spans="1:3">
-      <c r="A72" s="9">
+      <c r="A72" s="12">
         <v>1070</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="7"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" ht="16.5" spans="1:3">
-      <c r="A73" s="9">
+      <c r="A73" s="12">
         <v>1071</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="7"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" ht="16.5" spans="1:3">
-      <c r="A74" s="9">
+      <c r="A74" s="12">
         <v>1072</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="7"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" ht="16.5" spans="1:3">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
         <v>1073</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="7"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" ht="16.5" spans="1:3">
-      <c r="A76" s="9">
+      <c r="A76" s="12">
         <v>1074</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="7"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" ht="16.5" spans="1:3">
-      <c r="A77" s="9">
+      <c r="A77" s="12">
         <v>1075</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" ht="16.5" spans="1:3">
-      <c r="A78" s="9">
+      <c r="A78" s="12">
         <v>1076</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" ht="16.5" spans="1:3">
-      <c r="A79" s="9">
+      <c r="A79" s="12">
         <v>1077</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="7"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" ht="16.5" spans="1:3">
-      <c r="A80" s="9">
+      <c r="A80" s="12">
         <v>1078</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="7"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" ht="16.5" spans="1:3">
-      <c r="A81" s="9">
+      <c r="A81" s="12">
         <v>1079</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="7"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A82" s="9">
+      <c r="A82" s="12">
         <v>1080</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="7"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A83" s="9">
+      <c r="A83" s="12">
         <v>1081</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="7"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A84" s="9">
+      <c r="A84" s="12">
         <v>1082</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="7"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A85" s="9">
+      <c r="A85" s="12">
         <v>1083</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="7"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A86" s="9">
+      <c r="A86" s="12">
         <v>1084</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="12"/>
+      <c r="C86" s="15"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A87" s="9">
+      <c r="A87" s="12">
         <v>1085</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="12"/>
+      <c r="C87" s="15"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A88" s="9">
+      <c r="A88" s="12">
         <v>1086</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="15"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A89" s="9">
+      <c r="A89" s="12">
         <v>1087</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="12"/>
+      <c r="C89" s="15"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A90" s="9">
+      <c r="A90" s="12">
         <v>1088</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="12"/>
+      <c r="C90" s="15"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A91" s="9">
+      <c r="A91" s="12">
         <v>1089</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="12"/>
+      <c r="C91" s="15"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A92" s="9">
+      <c r="A92" s="12">
         <v>1090</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="15"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A93" s="9">
+      <c r="A93" s="12">
         <v>1091</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="15"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A94" s="9">
+      <c r="A94" s="12">
         <v>1092</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="12"/>
+      <c r="C94" s="15"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A95" s="9">
+      <c r="A95" s="12">
         <v>1093</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="12"/>
+      <c r="C95" s="15"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A96" s="9">
+      <c r="A96" s="12">
         <v>1094</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="12"/>
+      <c r="C96" s="15"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A97" s="9">
+      <c r="A97" s="12">
         <v>1095</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="12"/>
+      <c r="C97" s="15"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A98" s="9">
+      <c r="A98" s="12">
         <v>1096</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="12"/>
+      <c r="C98" s="15"/>
     </row>
     <row r="99" ht="16.5" spans="1:3">
-      <c r="A99" s="9">
+      <c r="A99" s="12">
         <v>2001</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" ht="16.5" spans="1:3">
-      <c r="A100" s="9">
+      <c r="A100" s="12">
         <v>2002</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" ht="16.5" spans="1:3">
-      <c r="A101" s="9">
+      <c r="A101" s="12">
         <v>2003</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="7"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" ht="16.5" spans="1:3">
-      <c r="A102" s="9">
+      <c r="A102" s="12">
         <v>2004</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="7"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" ht="16.5" spans="1:3">
-      <c r="A103" s="9">
+      <c r="A103" s="12">
         <v>2005</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="7"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" ht="16.5" spans="1:3">
-      <c r="A104" s="9">
+      <c r="A104" s="12">
         <v>2006</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="7"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" ht="16.5" spans="1:3">
-      <c r="A105" s="9">
+      <c r="A105" s="12">
         <v>2007</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="7"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" ht="16.5" spans="1:3">
-      <c r="A106" s="9">
+      <c r="A106" s="12">
         <v>2008</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="7"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" ht="16.5" spans="1:3">
-      <c r="A107" s="9">
+      <c r="A107" s="12">
         <v>2009</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" ht="16.5" spans="1:3">
-      <c r="A108" s="9">
+      <c r="A108" s="12">
         <v>2010</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="7"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" ht="16.5" spans="1:3">
-      <c r="A109" s="9">
+      <c r="A109" s="12">
         <v>2011</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="7"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" ht="16.5" spans="1:3">
-      <c r="A110" s="9">
+      <c r="A110" s="12">
         <v>2012</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="7"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" ht="16.5" spans="1:3">
-      <c r="A111" s="9">
+      <c r="A111" s="12">
         <v>2013</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="7"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" ht="16.5" spans="1:3">
-      <c r="A112" s="9">
+      <c r="A112" s="12">
         <v>2014</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="7"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" ht="16.5" spans="1:3">
-      <c r="A113" s="9">
+      <c r="A113" s="12">
         <v>2015</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="7"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" ht="16.5" spans="1:3">
-      <c r="A114" s="9">
+      <c r="A114" s="12">
         <v>2016</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="7"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" ht="16.5" spans="1:3">
-      <c r="A115" s="9">
+      <c r="A115" s="12">
         <v>2017</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="7"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" ht="16.5" spans="1:3">
-      <c r="A116" s="9">
+      <c r="A116" s="12">
         <v>2018</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="7"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" ht="16.5" spans="1:3">
-      <c r="A117" s="9">
+      <c r="A117" s="12">
         <v>2019</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="7"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" ht="16.5" spans="1:3">
-      <c r="A118" s="9">
+      <c r="A118" s="12">
         <v>2020</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="7"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" ht="16.5" spans="1:3">
-      <c r="A119" s="9">
+      <c r="A119" s="12">
         <v>2021</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="7"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" ht="16.5" spans="1:3">
-      <c r="A120" s="9">
+      <c r="A120" s="12">
         <v>2022</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="7"/>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" ht="16.5" spans="1:3">
-      <c r="A121" s="9">
+      <c r="A121" s="12">
         <v>2023</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="7"/>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" ht="16.5" spans="1:3">
-      <c r="A122" s="9">
+      <c r="A122" s="12">
         <v>2024</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="7"/>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" ht="16.5" spans="1:3">
-      <c r="A123" s="9">
+      <c r="A123" s="12">
         <v>2025</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="7"/>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" ht="16.5" spans="1:3">
-      <c r="A124" s="9">
+      <c r="A124" s="12">
         <v>2026</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="7"/>
+      <c r="C124" s="5"/>
     </row>
     <row r="125" ht="16.5" spans="1:3">
-      <c r="A125" s="9">
+      <c r="A125" s="12">
         <v>2027</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="7"/>
+      <c r="C125" s="5"/>
     </row>
     <row r="126" ht="16.5" spans="1:3">
-      <c r="A126" s="9">
+      <c r="A126" s="12">
         <v>2028</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="7"/>
+      <c r="C126" s="5"/>
     </row>
     <row r="127" ht="16.5" spans="1:3">
-      <c r="A127" s="9">
+      <c r="A127" s="12">
         <v>2029</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="7"/>
+      <c r="C127" s="5"/>
     </row>
     <row r="128" ht="16.5" spans="1:3">
-      <c r="A128" s="9">
+      <c r="A128" s="12">
         <v>2030</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="7"/>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" ht="16.5" spans="1:3">
-      <c r="A129" s="9">
+      <c r="A129" s="12">
         <v>2031</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="7"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" ht="16.5" spans="1:3">
-      <c r="A130" s="9">
+      <c r="A130" s="12">
         <v>2032</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="7"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131" ht="16.5" spans="1:3">
-      <c r="A131" s="9">
+      <c r="A131" s="12">
         <v>2033</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="7"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132" ht="16.5" spans="1:3">
-      <c r="A132" s="9">
+      <c r="A132" s="12">
         <v>2034</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="7"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" ht="16.5" spans="1:3">
-      <c r="A133" s="9">
+      <c r="A133" s="12">
         <v>2035</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="7"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" ht="16.5" spans="1:3">
-      <c r="A134" s="9">
+      <c r="A134" s="12">
         <v>2036</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="7"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" ht="16.5" spans="1:3">
-      <c r="A135" s="9">
+      <c r="A135" s="12">
         <v>2037</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="7"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" ht="16.5" spans="1:3">
-      <c r="A136" s="9">
+      <c r="A136" s="12">
         <v>2038</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="7"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137" ht="16.5" spans="1:3">
-      <c r="A137" s="9">
+      <c r="A137" s="12">
         <v>2039</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C137" s="7"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" ht="16.5" spans="1:3">
-      <c r="A138" s="9">
+      <c r="A138" s="12">
         <v>2040</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C138" s="7"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" ht="16.5" spans="1:3">
-      <c r="A139" s="9">
+      <c r="A139" s="12">
         <v>2041</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="7"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" ht="16.5" spans="1:3">
-      <c r="A140" s="9">
+      <c r="A140" s="12">
         <v>2042</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C140" s="7"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" ht="16.5" spans="1:3">
-      <c r="A141" s="9">
+      <c r="A141" s="12">
         <v>2043</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="7"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" ht="16.5" spans="1:3">
-      <c r="A142" s="9">
+      <c r="A142" s="12">
         <v>2044</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C142" s="7"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" ht="16.5" spans="1:3">
-      <c r="A143" s="9">
+      <c r="A143" s="12">
         <v>2045</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C143" s="7"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" ht="16.5" spans="1:3">
-      <c r="A144" s="9">
+      <c r="A144" s="12">
         <v>2046</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="7"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" ht="16.5" spans="1:3">
-      <c r="A145" s="9">
+      <c r="A145" s="12">
         <v>2047</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="7"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" ht="16.5" spans="1:3">
-      <c r="A146" s="9">
+      <c r="A146" s="12">
         <v>2048</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="7"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" ht="16.5" spans="1:3">
-      <c r="A147" s="9">
+      <c r="A147" s="12">
         <v>2049</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="7"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" ht="16.5" spans="1:3">
-      <c r="A148" s="9">
+      <c r="A148" s="12">
         <v>2050</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="7"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" ht="16.5" spans="1:3">
-      <c r="A149" s="9">
+      <c r="A149" s="12">
         <v>2051</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="7"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" ht="16.5" spans="1:3">
-      <c r="A150" s="9">
+      <c r="A150" s="12">
         <v>2052</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="7"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" ht="16.5" spans="1:3">
-      <c r="A151" s="9">
+      <c r="A151" s="12">
         <v>2053</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="7"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" ht="16.5" spans="1:3">
-      <c r="A152" s="9">
+      <c r="A152" s="12">
         <v>2054</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="7"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" ht="16.5" spans="1:3">
-      <c r="A153" s="9">
+      <c r="A153" s="12">
         <v>2055</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="7"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" ht="16.5" spans="1:3">
-      <c r="A154" s="9">
+      <c r="A154" s="12">
         <v>2056</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="7"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155" ht="16.5" spans="1:3">
-      <c r="A155" s="9">
+      <c r="A155" s="12">
         <v>2057</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="7"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" ht="16.5" spans="1:3">
-      <c r="A156" s="9">
+      <c r="A156" s="12">
         <v>2058</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="7"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" ht="16.5" spans="1:3">
-      <c r="A157" s="9">
+      <c r="A157" s="12">
         <v>2059</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="7"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" ht="16.5" spans="1:3">
-      <c r="A158" s="9">
+      <c r="A158" s="12">
         <v>2060</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="7"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" ht="16.5" spans="1:3">
-      <c r="A159" s="9">
+      <c r="A159" s="12">
         <v>2061</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="7"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" ht="16.5" spans="1:3">
-      <c r="A160" s="9">
+      <c r="A160" s="12">
         <v>2062</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="7"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" ht="16.5" spans="1:3">
-      <c r="A161" s="9">
+      <c r="A161" s="12">
         <v>2063</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="7"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" ht="16.5" spans="1:3">
-      <c r="A162" s="9">
+      <c r="A162" s="12">
         <v>2064</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="7"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163" ht="16.5" spans="1:3">
-      <c r="A163" s="9">
+      <c r="A163" s="12">
         <v>2065</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="7"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" ht="16.5" spans="1:3">
-      <c r="A164" s="9">
+      <c r="A164" s="12">
         <v>2066</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="7"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165" ht="16.5" spans="1:3">
-      <c r="A165" s="9">
+      <c r="A165" s="12">
         <v>2067</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="7"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" ht="16.5" spans="1:3">
-      <c r="A166" s="9">
+      <c r="A166" s="12">
         <v>2068</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" ht="16.5" spans="1:3">
-      <c r="A167" s="9">
+      <c r="A167" s="12">
         <v>2069</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="7"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" ht="16.5" spans="1:3">
-      <c r="A168" s="9">
+      <c r="A168" s="12">
         <v>2070</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="7"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169" ht="16.5" spans="1:3">
-      <c r="A169" s="9">
+      <c r="A169" s="12">
         <v>2071</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="7"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170" ht="16.5" spans="1:3">
-      <c r="A170" s="9">
+      <c r="A170" s="12">
         <v>2072</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="7"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171" ht="16.5" spans="1:3">
-      <c r="A171" s="9">
+      <c r="A171" s="12">
         <v>2073</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="7"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" ht="16.5" spans="1:3">
-      <c r="A172" s="9">
+      <c r="A172" s="12">
         <v>2074</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="7"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173" ht="16.5" spans="1:3">
-      <c r="A173" s="9">
+      <c r="A173" s="12">
         <v>2075</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="7"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174" ht="16.5" spans="1:3">
-      <c r="A174" s="9">
+      <c r="A174" s="12">
         <v>2076</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="7"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" ht="16.5" spans="1:3">
-      <c r="A175" s="9">
+      <c r="A175" s="12">
         <v>2077</v>
       </c>
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="7"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" ht="16.5" spans="1:3">
-      <c r="A176" s="9">
+      <c r="A176" s="12">
         <v>2078</v>
       </c>
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="7"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" ht="16.5" spans="1:3">
-      <c r="A177" s="9">
+      <c r="A177" s="12">
         <v>2079</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="7"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" ht="16.5" spans="1:3">
-      <c r="A178" s="9">
+      <c r="A178" s="12">
         <v>2080</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="7"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A179" s="9">
+      <c r="A179" s="12">
         <v>2081</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C179" s="12"/>
+      <c r="C179" s="15"/>
     </row>
     <row r="180" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A180" s="9">
+      <c r="A180" s="12">
         <v>2082</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="12"/>
+      <c r="C180" s="15"/>
     </row>
     <row r="181" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A181" s="9">
+      <c r="A181" s="12">
         <v>2083</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="12"/>
+      <c r="C181" s="15"/>
     </row>
     <row r="182" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A182" s="9">
+      <c r="A182" s="12">
         <v>2084</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="12"/>
+      <c r="C182" s="15"/>
     </row>
     <row r="183" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A183" s="9">
+      <c r="A183" s="12">
         <v>2085</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="12"/>
+      <c r="C183" s="15"/>
     </row>
     <row r="184" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A184" s="9">
+      <c r="A184" s="12">
         <v>2086</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="12"/>
+      <c r="C184" s="15"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A185" s="9">
+      <c r="A185" s="12">
         <v>2087</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="12"/>
+      <c r="C185" s="15"/>
     </row>
     <row r="186" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A186" s="9">
+      <c r="A186" s="12">
         <v>2088</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="12"/>
+      <c r="C186" s="15"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A187" s="9">
+      <c r="A187" s="12">
         <v>2089</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="12"/>
+      <c r="C187" s="15"/>
     </row>
     <row r="188" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A188" s="9">
+      <c r="A188" s="12">
         <v>2090</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="12"/>
+      <c r="C188" s="15"/>
     </row>
     <row r="189" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A189" s="9">
+      <c r="A189" s="12">
         <v>2091</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="12"/>
+      <c r="C189" s="15"/>
     </row>
     <row r="190" ht="16.5" spans="1:3">
-      <c r="A190" s="9">
+      <c r="A190" s="12">
         <v>3001</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="7"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191" ht="16.5" spans="1:3">
-      <c r="A191" s="9">
+      <c r="A191" s="12">
         <v>3002</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="7"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" ht="16.5" spans="1:3">
-      <c r="A192" s="9">
+      <c r="A192" s="12">
         <v>3003</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="7"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193" ht="16.5" spans="1:3">
-      <c r="A193" s="9">
+      <c r="A193" s="12">
         <v>3004</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="7"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" ht="16.5" spans="1:3">
-      <c r="A194" s="9">
+      <c r="A194" s="12">
         <v>3005</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="7"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" ht="16.5" spans="1:3">
-      <c r="A195" s="9">
+      <c r="A195" s="12">
         <v>3006</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="7"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" ht="16.5" spans="1:3">
-      <c r="A196" s="9">
+      <c r="A196" s="12">
         <v>3007</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="7"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" ht="16.5" spans="1:3">
-      <c r="A197" s="9">
+      <c r="A197" s="12">
         <v>3008</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="7"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" ht="16.5" spans="1:3">
-      <c r="A198" s="9">
+      <c r="A198" s="12">
         <v>3009</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="7"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" ht="16.5" spans="1:3">
-      <c r="A199" s="9">
+      <c r="A199" s="12">
         <v>3010</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="7"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" ht="16.5" spans="1:3">
-      <c r="A200" s="9">
+      <c r="A200" s="12">
         <v>3011</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="7"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201" ht="16.5" spans="1:3">
-      <c r="A201" s="9">
+      <c r="A201" s="12">
         <v>3012</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="7"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202" ht="16.5" spans="1:3">
-      <c r="A202" s="9">
+      <c r="A202" s="12">
         <v>3013</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C202" s="7"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203" ht="16.5" spans="1:3">
-      <c r="A203" s="9">
+      <c r="A203" s="12">
         <v>3014</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B203" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C203" s="7"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204" ht="16.5" spans="1:3">
-      <c r="A204" s="9">
+      <c r="A204" s="12">
         <v>3015</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="7"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205" ht="16.5" spans="1:3">
-      <c r="A205" s="9">
+      <c r="A205" s="12">
         <v>3016</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="7"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206" ht="16.5" spans="1:3">
-      <c r="A206" s="9">
+      <c r="A206" s="12">
         <v>3017</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="7"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207" ht="16.5" spans="1:3">
-      <c r="A207" s="9">
+      <c r="A207" s="12">
         <v>3018</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="7"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208" ht="16.5" spans="1:3">
-      <c r="A208" s="9">
+      <c r="A208" s="12">
         <v>3019</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="7"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209" ht="16.5" spans="1:3">
-      <c r="A209" s="9">
+      <c r="A209" s="12">
         <v>3020</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="7"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210" ht="16.5" spans="1:3">
-      <c r="A210" s="9">
+      <c r="A210" s="12">
         <v>3021</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="7"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211" ht="16.5" spans="1:3">
-      <c r="A211" s="9">
+      <c r="A211" s="12">
         <v>3022</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="7"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212" ht="16.5" spans="1:3">
-      <c r="A212" s="9">
+      <c r="A212" s="12">
         <v>3023</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="7"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213" ht="16.5" spans="1:3">
-      <c r="A213" s="9">
+      <c r="A213" s="12">
         <v>3024</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B213" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C213" s="7"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214" ht="16.5" spans="1:3">
-      <c r="A214" s="9">
+      <c r="A214" s="12">
         <v>3025</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="7"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" ht="16.5" spans="1:3">
-      <c r="A215" s="9">
+      <c r="A215" s="12">
         <v>3026</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="7"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" ht="16.5" spans="1:3">
-      <c r="A216" s="9">
+      <c r="A216" s="12">
         <v>3027</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B216" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C216" s="7"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217" ht="16.5" spans="1:3">
-      <c r="A217" s="9">
+      <c r="A217" s="12">
         <v>3028</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C217" s="7"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" ht="16.5" spans="1:3">
-      <c r="A218" s="9">
+      <c r="A218" s="12">
         <v>3029</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C218" s="7"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" ht="16.5" spans="1:3">
-      <c r="A219" s="9">
+      <c r="A219" s="12">
         <v>3030</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="7"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" ht="16.5" spans="1:3">
-      <c r="A220" s="9">
+      <c r="A220" s="12">
         <v>3031</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C220" s="7"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" ht="16.5" spans="1:3">
-      <c r="A221" s="9">
+      <c r="A221" s="12">
         <v>3032</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C221" s="7"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" ht="16.5" spans="1:3">
-      <c r="A222" s="9">
+      <c r="A222" s="12">
         <v>3033</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C222" s="7"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" ht="16.5" spans="1:3">
-      <c r="A223" s="9">
+      <c r="A223" s="12">
         <v>3034</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C223" s="7"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" ht="16.5" spans="1:3">
-      <c r="A224" s="9">
+      <c r="A224" s="12">
         <v>3035</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C224" s="7"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" ht="16.5" spans="1:3">
-      <c r="A225" s="9">
+      <c r="A225" s="12">
         <v>3036</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C225" s="7"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" ht="16.5" spans="1:3">
-      <c r="A226" s="9">
+      <c r="A226" s="12">
         <v>3037</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C226" s="7"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" ht="16.5" spans="1:3">
-      <c r="A227" s="9">
+      <c r="A227" s="12">
         <v>3038</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C227" s="7"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" ht="16.5" spans="1:3">
-      <c r="A228" s="9">
+      <c r="A228" s="12">
         <v>3039</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="B228" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C228" s="7"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" ht="16.5" spans="1:3">
-      <c r="A229" s="9">
+      <c r="A229" s="12">
         <v>3040</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B229" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C229" s="7"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" ht="16.5" spans="1:3">
-      <c r="A230" s="9">
+      <c r="A230" s="12">
         <v>3041</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C230" s="7"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" ht="16.5" spans="1:3">
-      <c r="A231" s="9">
+      <c r="A231" s="12">
         <v>3042</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C231" s="7"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" ht="16.5" spans="1:3">
-      <c r="A232" s="9">
+      <c r="A232" s="12">
         <v>3043</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C232" s="7"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" ht="16.5" spans="1:3">
-      <c r="A233" s="9">
+      <c r="A233" s="12">
         <v>3044</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="B233" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C233" s="7"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" ht="16.5" spans="1:3">
-      <c r="A234" s="9">
+      <c r="A234" s="12">
         <v>3045</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="B234" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C234" s="7"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" ht="16.5" spans="1:3">
-      <c r="A235" s="9">
+      <c r="A235" s="12">
         <v>3046</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="B235" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="7"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" ht="16.5" spans="1:3">
-      <c r="A236" s="9">
+      <c r="A236" s="12">
         <v>3047</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="B236" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C236" s="7"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" ht="16.5" spans="1:3">
-      <c r="A237" s="9">
+      <c r="A237" s="12">
         <v>3048</v>
       </c>
-      <c r="B237" s="13" t="s">
+      <c r="B237" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C237" s="7"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" ht="16.5" spans="1:3">
-      <c r="A238" s="9">
+      <c r="A238" s="12">
         <v>3049</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="7"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" ht="16.5" spans="1:3">
-      <c r="A239" s="9">
+      <c r="A239" s="12">
         <v>3050</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C239" s="7"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" ht="16.5" spans="1:3">
-      <c r="A240" s="9">
+      <c r="A240" s="12">
         <v>3051</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C240" s="7"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" ht="16.5" spans="1:3">
-      <c r="A241" s="9">
+      <c r="A241" s="12">
         <v>3052</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C241" s="7"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" ht="16.5" spans="1:3">
-      <c r="A242" s="9">
+      <c r="A242" s="12">
         <v>3053</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C242" s="7"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" ht="16.5" spans="1:3">
-      <c r="A243" s="9">
+      <c r="A243" s="12">
         <v>3054</v>
       </c>
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C243" s="7"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" ht="16.5" spans="1:3">
-      <c r="A244" s="9">
+      <c r="A244" s="12">
         <v>3055</v>
       </c>
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C244" s="7"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" ht="16.5" spans="1:3">
-      <c r="A245" s="9">
+      <c r="A245" s="12">
         <v>3056</v>
       </c>
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C245" s="7"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" ht="16.5" spans="1:3">
-      <c r="A246" s="9">
+      <c r="A246" s="12">
         <v>3057</v>
       </c>
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C246" s="7"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" ht="16.5" spans="1:3">
-      <c r="A247" s="9">
+      <c r="A247" s="12">
         <v>3058</v>
       </c>
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C247" s="7"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" ht="16.5" spans="1:3">
-      <c r="A248" s="9">
+      <c r="A248" s="12">
         <v>3059</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C248" s="7"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" ht="16.5" spans="1:3">
-      <c r="A249" s="9">
+      <c r="A249" s="12">
         <v>3060</v>
       </c>
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C249" s="7"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" ht="16.5" spans="1:3">
-      <c r="A250" s="9">
+      <c r="A250" s="12">
         <v>3061</v>
       </c>
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C250" s="7"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" ht="16.5" spans="1:3">
-      <c r="A251" s="9">
+      <c r="A251" s="12">
         <v>3062</v>
       </c>
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C251" s="7"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" ht="16.5" spans="1:3">
-      <c r="A252" s="9">
+      <c r="A252" s="12">
         <v>3063</v>
       </c>
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C252" s="7"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" ht="16.5" spans="1:3">
-      <c r="A253" s="9">
+      <c r="A253" s="12">
         <v>3064</v>
       </c>
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C253" s="7"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" ht="16.5" spans="1:3">
-      <c r="A254" s="9">
+      <c r="A254" s="12">
         <v>3065</v>
       </c>
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C254" s="7"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" ht="16.5" spans="1:3">
-      <c r="A255" s="9">
+      <c r="A255" s="12">
         <v>3066</v>
       </c>
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C255" s="7"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" ht="16.5" spans="1:3">
-      <c r="A256" s="9">
+      <c r="A256" s="12">
         <v>3067</v>
       </c>
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C256" s="7"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" ht="16.5" spans="1:3">
-      <c r="A257" s="9">
+      <c r="A257" s="12">
         <v>3068</v>
       </c>
-      <c r="B257" s="14" t="s">
+      <c r="B257" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C257" s="7"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" ht="16.5" spans="1:3">
-      <c r="A258" s="9">
+      <c r="A258" s="12">
         <v>3069</v>
       </c>
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C258" s="7"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" ht="16.5" spans="1:3">
-      <c r="A259" s="9">
+      <c r="A259" s="12">
         <v>3070</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C259" s="7"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" ht="16.5" spans="1:3">
-      <c r="A260" s="9">
+      <c r="A260" s="12">
         <v>3071</v>
       </c>
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C260" s="7"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" ht="16.5" spans="1:3">
-      <c r="A261" s="9">
+      <c r="A261" s="12">
         <v>3072</v>
       </c>
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C261" s="7"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" ht="16.5" spans="1:3">
-      <c r="A262" s="9">
+      <c r="A262" s="12">
         <v>3073</v>
       </c>
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C262" s="7"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" ht="16.5" spans="1:3">
-      <c r="A263" s="9">
+      <c r="A263" s="12">
         <v>3074</v>
       </c>
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C263" s="7"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" ht="16.5" spans="1:3">
-      <c r="A264" s="9">
+      <c r="A264" s="12">
         <v>3075</v>
       </c>
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C264" s="7"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" ht="16.5" spans="1:3">
-      <c r="A265" s="9">
+      <c r="A265" s="12">
         <v>3076</v>
       </c>
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C265" s="7"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" ht="16.5" spans="1:3">
-      <c r="A266" s="9">
+      <c r="A266" s="12">
         <v>3077</v>
       </c>
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C266" s="7"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" ht="16.5" spans="1:3">
-      <c r="A267" s="9">
+      <c r="A267" s="12">
         <v>3078</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C267" s="7"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" ht="16.5" spans="1:3">
-      <c r="A268" s="9">
+      <c r="A268" s="12">
         <v>3079</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C268" s="7"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" ht="16.5" spans="1:3">
-      <c r="A269" s="9">
+      <c r="A269" s="12">
         <v>3080</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C269" s="7"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A270" s="9">
+      <c r="A270" s="12">
         <v>3081</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C270" s="12"/>
+      <c r="C270" s="15"/>
     </row>
     <row r="271" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A271" s="9">
+      <c r="A271" s="12">
         <v>3082</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C271" s="12"/>
+      <c r="C271" s="15"/>
     </row>
     <row r="272" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A272" s="9">
+      <c r="A272" s="12">
         <v>3083</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C272" s="12"/>
+      <c r="C272" s="15"/>
     </row>
     <row r="273" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A273" s="9">
+      <c r="A273" s="12">
         <v>3084</v>
       </c>
-      <c r="B273" s="15" t="s">
+      <c r="B273" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C273" s="12"/>
+      <c r="C273" s="15"/>
     </row>
     <row r="274" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A274" s="9">
+      <c r="A274" s="12">
         <v>3085</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C274" s="12"/>
+      <c r="C274" s="15"/>
     </row>
     <row r="275" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A275" s="9">
+      <c r="A275" s="12">
         <v>3086</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C275" s="12"/>
+      <c r="C275" s="15"/>
     </row>
     <row r="276" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A276" s="9">
+      <c r="A276" s="12">
         <v>3087</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="12"/>
+      <c r="C276" s="15"/>
     </row>
     <row r="277" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A277" s="9">
+      <c r="A277" s="12">
         <v>3088</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C277" s="12"/>
+      <c r="C277" s="15"/>
     </row>
     <row r="278" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A278" s="9">
+      <c r="A278" s="12">
         <v>3089</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C278" s="12"/>
+      <c r="C278" s="15"/>
     </row>
     <row r="279" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A279" s="9">
+      <c r="A279" s="12">
         <v>3090</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C279" s="12"/>
+      <c r="C279" s="15"/>
     </row>
     <row r="280" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A280" s="9">
+      <c r="A280" s="12">
         <v>3091</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C280" s="12"/>
+      <c r="C280" s="15"/>
     </row>
     <row r="281" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A281" s="9">
+      <c r="A281" s="12">
         <v>3092</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="B281" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C281" s="12"/>
+      <c r="C281" s="15"/>
     </row>
     <row r="282" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A282" s="9">
+      <c r="A282" s="12">
         <v>3093</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C282" s="12"/>
+      <c r="C282" s="15"/>
     </row>
     <row r="283" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A283" s="9">
+      <c r="A283" s="12">
         <v>3094</v>
       </c>
-      <c r="B283" s="13" t="s">
+      <c r="B283" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C283" s="12"/>
+      <c r="C283" s="15"/>
     </row>
     <row r="284" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A284" s="9">
+      <c r="A284" s="12">
         <v>3095</v>
       </c>
-      <c r="B284" s="13" t="s">
+      <c r="B284" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C284" s="12"/>
+      <c r="C284" s="15"/>
     </row>
     <row r="285" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A285" s="9">
+      <c r="A285" s="12">
         <v>3096</v>
       </c>
-      <c r="B285" s="13" t="s">
+      <c r="B285" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C285" s="12"/>
+      <c r="C285" s="15"/>
     </row>
     <row r="286" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A286" s="9">
+      <c r="A286" s="12">
         <v>3097</v>
       </c>
-      <c r="B286" s="13" t="s">
+      <c r="B286" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C286" s="12"/>
+      <c r="C286" s="15"/>
     </row>
     <row r="287" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A287" s="9">
+      <c r="A287" s="12">
         <v>3098</v>
       </c>
-      <c r="B287" s="13" t="s">
+      <c r="B287" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C287" s="12"/>
+      <c r="C287" s="15"/>
     </row>
     <row r="288" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A288" s="9">
+      <c r="A288" s="12">
         <v>3099</v>
       </c>
-      <c r="B288" s="13" t="s">
+      <c r="B288" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C288" s="12"/>
+      <c r="C288" s="15"/>
     </row>
     <row r="289" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A289" s="9">
+      <c r="A289" s="12">
         <v>3100</v>
       </c>
-      <c r="B289" s="13" t="s">
+      <c r="B289" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C289" s="12"/>
+      <c r="C289" s="15"/>
     </row>
     <row r="290" ht="16.5" spans="1:3">
-      <c r="A290" s="9">
+      <c r="A290" s="12">
         <v>4001</v>
       </c>
-      <c r="B290" s="13" t="s">
+      <c r="B290" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C290" s="7"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" ht="16.5" spans="1:3">
-      <c r="A291" s="9">
+      <c r="A291" s="12">
         <v>4002</v>
       </c>
-      <c r="B291" s="13" t="s">
+      <c r="B291" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C291" s="7"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" ht="16.5" spans="1:3">
-      <c r="A292" s="9">
+      <c r="A292" s="12">
         <v>4003</v>
       </c>
-      <c r="B292" s="13" t="s">
+      <c r="B292" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C292" s="7"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" ht="16.5" spans="1:3">
-      <c r="A293" s="9">
+      <c r="A293" s="12">
         <v>4004</v>
       </c>
-      <c r="B293" s="13" t="s">
+      <c r="B293" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C293" s="7"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" ht="16.5" spans="1:3">
-      <c r="A294" s="9">
+      <c r="A294" s="12">
         <v>4005</v>
       </c>
-      <c r="B294" s="13" t="s">
+      <c r="B294" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C294" s="7"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" ht="16.5" spans="1:3">
-      <c r="A295" s="9">
+      <c r="A295" s="12">
         <v>4006</v>
       </c>
-      <c r="B295" s="13" t="s">
+      <c r="B295" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C295" s="7"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" ht="16.5" spans="1:3">
-      <c r="A296" s="9">
+      <c r="A296" s="12">
         <v>4007</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B296" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C296" s="7"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" ht="16.5" spans="1:3">
-      <c r="A297" s="9">
+      <c r="A297" s="12">
         <v>4008</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B297" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C297" s="7"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" ht="16.5" spans="1:3">
-      <c r="A298" s="9">
+      <c r="A298" s="12">
         <v>4009</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="B298" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C298" s="7"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" ht="16.5" spans="1:3">
-      <c r="A299" s="9">
+      <c r="A299" s="12">
         <v>4010</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C299" s="7"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" ht="16.5" spans="1:3">
-      <c r="A300" s="9">
+      <c r="A300" s="12">
         <v>4011</v>
       </c>
-      <c r="B300" s="13" t="s">
+      <c r="B300" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C300" s="7"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" ht="16.5" spans="1:3">
-      <c r="A301" s="9">
+      <c r="A301" s="12">
         <v>4012</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="B301" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C301" s="7"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" ht="16.5" spans="1:3">
-      <c r="A302" s="9">
+      <c r="A302" s="12">
         <v>4013</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C302" s="7"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" ht="16.5" spans="1:3">
-      <c r="A303" s="9">
+      <c r="A303" s="12">
         <v>4014</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="B303" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C303" s="7"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" ht="16.5" spans="1:3">
-      <c r="A304" s="9">
+      <c r="A304" s="12">
         <v>4015</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C304" s="7"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" ht="16.5" spans="1:3">
-      <c r="A305" s="9">
+      <c r="A305" s="12">
         <v>4016</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C305" s="7"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" ht="16.5" spans="1:3">
-      <c r="A306" s="9">
+      <c r="A306" s="12">
         <v>4017</v>
       </c>
-      <c r="B306" s="13" t="s">
+      <c r="B306" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C306" s="7"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" ht="16.5" spans="1:3">
-      <c r="A307" s="9">
+      <c r="A307" s="12">
         <v>4018</v>
       </c>
-      <c r="B307" s="13" t="s">
+      <c r="B307" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C307" s="7"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" ht="16.5" spans="1:3">
-      <c r="A308" s="9">
+      <c r="A308" s="12">
         <v>4019</v>
       </c>
-      <c r="B308" s="13" t="s">
+      <c r="B308" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C308" s="7"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" ht="16.5" spans="1:3">
-      <c r="A309" s="9">
+      <c r="A309" s="12">
         <v>4020</v>
       </c>
-      <c r="B309" s="13" t="s">
+      <c r="B309" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C309" s="7"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" ht="16.5" spans="1:3">
-      <c r="A310" s="9">
+      <c r="A310" s="12">
         <v>4021</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C310" s="7"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" ht="16.5" spans="1:3">
-      <c r="A311" s="9">
+      <c r="A311" s="12">
         <v>4022</v>
       </c>
-      <c r="B311" s="13" t="s">
+      <c r="B311" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C311" s="7"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" ht="16.5" spans="1:3">
-      <c r="A312" s="9">
+      <c r="A312" s="12">
         <v>4023</v>
       </c>
-      <c r="B312" s="13" t="s">
+      <c r="B312" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C312" s="7"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" ht="16.5" spans="1:3">
-      <c r="A313" s="9">
+      <c r="A313" s="12">
         <v>4024</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B313" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C313" s="7"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" ht="16.5" spans="1:3">
-      <c r="A314" s="9">
+      <c r="A314" s="12">
         <v>4025</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B314" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C314" s="7"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" ht="16.5" spans="1:3">
-      <c r="A315" s="9">
+      <c r="A315" s="12">
         <v>4026</v>
       </c>
-      <c r="B315" s="13" t="s">
+      <c r="B315" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C315" s="7"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" ht="16.5" spans="1:3">
-      <c r="A316" s="9">
+      <c r="A316" s="12">
         <v>4027</v>
       </c>
-      <c r="B316" s="13" t="s">
+      <c r="B316" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C316" s="7"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" ht="16.5" spans="1:3">
-      <c r="A317" s="9">
+      <c r="A317" s="12">
         <v>4028</v>
       </c>
-      <c r="B317" s="13" t="s">
+      <c r="B317" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C317" s="7"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" ht="16.5" spans="1:3">
-      <c r="A318" s="9">
+      <c r="A318" s="12">
         <v>4029</v>
       </c>
-      <c r="B318" s="13" t="s">
+      <c r="B318" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C318" s="7"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" ht="16.5" spans="1:3">
-      <c r="A319" s="9">
+      <c r="A319" s="12">
         <v>4030</v>
       </c>
-      <c r="B319" s="13" t="s">
+      <c r="B319" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C319" s="7"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" ht="16.5" spans="1:3">
-      <c r="A320" s="9">
+      <c r="A320" s="12">
         <v>4031</v>
       </c>
-      <c r="B320" s="13" t="s">
+      <c r="B320" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C320" s="7"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" ht="16.5" spans="1:3">
-      <c r="A321" s="9">
+      <c r="A321" s="12">
         <v>4032</v>
       </c>
-      <c r="B321" s="13" t="s">
+      <c r="B321" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C321" s="7"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" ht="16.5" spans="1:3">
-      <c r="A322" s="9">
+      <c r="A322" s="12">
         <v>4033</v>
       </c>
-      <c r="B322" s="13" t="s">
+      <c r="B322" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C322" s="7"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" ht="16.5" spans="1:3">
-      <c r="A323" s="9">
+      <c r="A323" s="12">
         <v>4034</v>
       </c>
-      <c r="B323" s="13" t="s">
+      <c r="B323" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C323" s="7"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" ht="16.5" spans="1:3">
-      <c r="A324" s="9">
+      <c r="A324" s="12">
         <v>4035</v>
       </c>
-      <c r="B324" s="13" t="s">
+      <c r="B324" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C324" s="7"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" ht="16.5" spans="1:3">
-      <c r="A325" s="9">
+      <c r="A325" s="12">
         <v>4036</v>
       </c>
-      <c r="B325" s="13" t="s">
+      <c r="B325" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C325" s="7"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" ht="16.5" spans="1:3">
-      <c r="A326" s="9">
+      <c r="A326" s="12">
         <v>4037</v>
       </c>
-      <c r="B326" s="13" t="s">
+      <c r="B326" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C326" s="7"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" ht="16.5" spans="1:3">
-      <c r="A327" s="9">
+      <c r="A327" s="12">
         <v>4038</v>
       </c>
-      <c r="B327" s="13" t="s">
+      <c r="B327" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C327" s="7"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" ht="16.5" spans="1:3">
-      <c r="A328" s="9">
+      <c r="A328" s="12">
         <v>4039</v>
       </c>
-      <c r="B328" s="13" t="s">
+      <c r="B328" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C328" s="7"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" ht="16.5" spans="1:3">
-      <c r="A329" s="9">
+      <c r="A329" s="12">
         <v>4040</v>
       </c>
-      <c r="B329" s="13" t="s">
+      <c r="B329" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C329" s="7"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" ht="16.5" spans="1:3">
-      <c r="A330" s="9">
+      <c r="A330" s="12">
         <v>4041</v>
       </c>
-      <c r="B330" s="13" t="s">
+      <c r="B330" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C330" s="7"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" ht="16.5" spans="1:3">
-      <c r="A331" s="9">
+      <c r="A331" s="12">
         <v>4042</v>
       </c>
-      <c r="B331" s="13" t="s">
+      <c r="B331" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C331" s="7"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" ht="16.5" spans="1:3">
-      <c r="A332" s="9">
+      <c r="A332" s="12">
         <v>4043</v>
       </c>
-      <c r="B332" s="13" t="s">
+      <c r="B332" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C332" s="7"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" ht="16.5" spans="1:3">
-      <c r="A333" s="9">
+      <c r="A333" s="12">
         <v>4044</v>
       </c>
-      <c r="B333" s="13" t="s">
+      <c r="B333" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C333" s="7"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" ht="16.5" spans="1:3">
-      <c r="A334" s="9">
+      <c r="A334" s="12">
         <v>4045</v>
       </c>
-      <c r="B334" s="13" t="s">
+      <c r="B334" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C334" s="7"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" ht="16.5" spans="1:3">
-      <c r="A335" s="9">
+      <c r="A335" s="12">
         <v>4046</v>
       </c>
-      <c r="B335" s="13" t="s">
+      <c r="B335" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C335" s="7"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" ht="16.5" spans="1:3">
-      <c r="A336" s="9">
+      <c r="A336" s="12">
         <v>4047</v>
       </c>
-      <c r="B336" s="13" t="s">
+      <c r="B336" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C336" s="7"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" ht="16.5" spans="1:3">
-      <c r="A337" s="9">
+      <c r="A337" s="12">
         <v>4048</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="B337" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C337" s="7"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" ht="16.5" spans="1:3">
-      <c r="A338" s="9">
+      <c r="A338" s="12">
         <v>4049</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="B338" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C338" s="7"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" ht="16.5" spans="1:3">
-      <c r="A339" s="9">
+      <c r="A339" s="12">
         <v>4050</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="B339" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C339" s="7"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" ht="16.5" spans="1:3">
-      <c r="A340" s="9">
+      <c r="A340" s="12">
         <v>4051</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C340" s="7"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" ht="16.5" spans="1:3">
-      <c r="A341" s="9">
+      <c r="A341" s="12">
         <v>4052</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C341" s="7"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" ht="16.5" spans="1:3">
-      <c r="A342" s="9">
+      <c r="A342" s="12">
         <v>4053</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C342" s="7"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" ht="16.5" spans="1:3">
-      <c r="A343" s="9">
+      <c r="A343" s="12">
         <v>4054</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C343" s="7"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" ht="16.5" spans="1:3">
-      <c r="A344" s="9">
+      <c r="A344" s="12">
         <v>4055</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C344" s="7"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" ht="16.5" spans="1:3">
-      <c r="A345" s="9">
+      <c r="A345" s="12">
         <v>4056</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C345" s="7"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" ht="16.5" spans="1:3">
-      <c r="A346" s="9">
+      <c r="A346" s="12">
         <v>4057</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C346" s="7"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" ht="16.5" spans="1:3">
-      <c r="A347" s="9">
+      <c r="A347" s="12">
         <v>4058</v>
       </c>
-      <c r="B347" s="14" t="s">
+      <c r="B347" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C347" s="7"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" ht="16.5" spans="1:3">
-      <c r="A348" s="9">
+      <c r="A348" s="12">
         <v>4059</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C348" s="7"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" ht="16.5" spans="1:3">
-      <c r="A349" s="9">
+      <c r="A349" s="12">
         <v>4060</v>
       </c>
-      <c r="B349" s="14" t="s">
+      <c r="B349" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C349" s="7"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" ht="16.5" spans="1:3">
-      <c r="A350" s="9">
+      <c r="A350" s="12">
         <v>4061</v>
       </c>
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C350" s="7"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" ht="16.5" spans="1:3">
-      <c r="A351" s="9">
+      <c r="A351" s="12">
         <v>4062</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C351" s="7"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" ht="16.5" spans="1:3">
-      <c r="A352" s="9">
+      <c r="A352" s="12">
         <v>4063</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C352" s="7"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" ht="16.5" spans="1:3">
-      <c r="A353" s="9">
+      <c r="A353" s="12">
         <v>4064</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C353" s="7"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" ht="16.5" spans="1:3">
-      <c r="A354" s="9">
+      <c r="A354" s="12">
         <v>4065</v>
       </c>
-      <c r="B354" s="14" t="s">
+      <c r="B354" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C354" s="7"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" ht="16.5" spans="1:3">
-      <c r="A355" s="9">
+      <c r="A355" s="12">
         <v>4066</v>
       </c>
-      <c r="B355" s="14" t="s">
+      <c r="B355" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C355" s="7"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356" ht="16.5" spans="1:3">
-      <c r="A356" s="9">
+      <c r="A356" s="12">
         <v>4067</v>
       </c>
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C356" s="7"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" ht="16.5" spans="1:3">
-      <c r="A357" s="9">
+      <c r="A357" s="12">
         <v>4068</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C357" s="7"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" ht="16.5" spans="1:3">
-      <c r="A358" s="9">
+      <c r="A358" s="12">
         <v>4069</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C358" s="7"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" ht="16.5" spans="1:3">
-      <c r="A359" s="9">
+      <c r="A359" s="12">
         <v>4070</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C359" s="7"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" ht="16.5" spans="1:3">
-      <c r="A360" s="9">
+      <c r="A360" s="12">
         <v>4071</v>
       </c>
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C360" s="7"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" ht="16.5" spans="1:3">
-      <c r="A361" s="9">
+      <c r="A361" s="12">
         <v>4072</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C361" s="7"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" ht="16.5" spans="1:3">
-      <c r="A362" s="9">
+      <c r="A362" s="12">
         <v>4073</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C362" s="7"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" ht="16.5" spans="1:3">
-      <c r="A363" s="9">
+      <c r="A363" s="12">
         <v>4074</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C363" s="7"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" ht="16.5" spans="1:3">
-      <c r="A364" s="9">
+      <c r="A364" s="12">
         <v>4075</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C364" s="7"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" ht="16.5" spans="1:3">
-      <c r="A365" s="9">
+      <c r="A365" s="12">
         <v>4076</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C365" s="7"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" ht="16.5" spans="1:3">
-      <c r="A366" s="9">
+      <c r="A366" s="12">
         <v>4077</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C366" s="7"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" ht="16.5" spans="1:3">
-      <c r="A367" s="9">
+      <c r="A367" s="12">
         <v>4078</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C367" s="7"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" ht="16.5" spans="1:3">
-      <c r="A368" s="9">
+      <c r="A368" s="12">
         <v>4079</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C368" s="7"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" ht="16.5" spans="1:3">
-      <c r="A369" s="9">
+      <c r="A369" s="12">
         <v>4080</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C369" s="7"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" ht="16.5" spans="1:3">
-      <c r="A370" s="9">
+      <c r="A370" s="12">
         <v>4081</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C370" s="7"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" ht="16.5" spans="1:3">
-      <c r="A371" s="9">
+      <c r="A371" s="12">
         <v>4082</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="C371" s="7"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" ht="16.5" spans="1:3">
-      <c r="A372" s="9">
+      <c r="A372" s="12">
         <v>4083</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C372" s="7"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" ht="16.5" spans="1:3">
-      <c r="A373" s="9">
+      <c r="A373" s="12">
         <v>4084</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C373" s="7"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" ht="16.5" spans="1:3">
-      <c r="A374" s="9">
+      <c r="A374" s="12">
         <v>4085</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C374" s="7"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" ht="16.5" spans="1:3">
-      <c r="A375" s="9">
+      <c r="A375" s="12">
         <v>4086</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C375" s="7"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" ht="16.5" spans="1:3">
-      <c r="A376" s="9">
+      <c r="A376" s="12">
         <v>4087</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C376" s="7"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" ht="16.5" spans="1:3">
-      <c r="A377" s="9">
+      <c r="A377" s="12">
         <v>4088</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C377" s="7"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" ht="16.5" spans="1:3">
-      <c r="A378" s="9">
+      <c r="A378" s="12">
         <v>4089</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C378" s="7"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" ht="16.5" spans="1:3">
-      <c r="A379" s="9">
+      <c r="A379" s="12">
         <v>4090</v>
       </c>
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C379" s="7"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" ht="16.5" spans="1:3">
-      <c r="A380" s="9">
+      <c r="A380" s="12">
         <v>4091</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C380" s="7"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" ht="16.5" spans="1:3">
-      <c r="A381" s="9">
+      <c r="A381" s="12">
         <v>4092</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C381" s="7"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" ht="16.5" spans="1:3">
-      <c r="A382" s="9">
+      <c r="A382" s="12">
         <v>4093</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C382" s="7"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" ht="16.5" spans="1:3">
-      <c r="A383" s="9">
+      <c r="A383" s="12">
         <v>4094</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C383" s="7"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" ht="16.5" spans="1:3">
-      <c r="A384" s="9">
+      <c r="A384" s="12">
         <v>4095</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C384" s="7"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" ht="16.5" spans="1:3">
-      <c r="A385" s="9">
+      <c r="A385" s="12">
         <v>4096</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C385" s="7"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" ht="16.5" spans="1:3">
-      <c r="A386" s="9">
+      <c r="A386" s="12">
         <v>4097</v>
       </c>
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C386" s="7"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" ht="16.5" spans="1:3">
-      <c r="A387" s="9">
+      <c r="A387" s="12">
         <v>4098</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C387" s="7"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" ht="16.5" spans="1:3">
-      <c r="A388" s="9">
+      <c r="A388" s="12">
         <v>4099</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C388" s="7"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" ht="16.5" spans="1:3">
-      <c r="A389" s="9">
+      <c r="A389" s="12">
         <v>4100</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C389" s="7"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" ht="16.5" spans="1:3">
-      <c r="A390" s="9">
+      <c r="A390" s="12">
         <v>4101</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B390" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C390" s="7"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" ht="16.5" spans="1:3">
-      <c r="A391" s="9">
+      <c r="A391" s="12">
         <v>4102</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="B391" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C391" s="7"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" ht="16.5" spans="1:3">
-      <c r="A392" s="9">
+      <c r="A392" s="12">
         <v>4103</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B392" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C392" s="7"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" ht="16.5" spans="1:3">
-      <c r="A393" s="9">
+      <c r="A393" s="12">
         <v>4104</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C393" s="7"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" ht="16.5" spans="1:3">
-      <c r="A394" s="9">
+      <c r="A394" s="12">
         <v>4105</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B394" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C394" s="7"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" ht="16.5" spans="1:3">
-      <c r="A395" s="9">
+      <c r="A395" s="12">
         <v>4106</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B395" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C395" s="7"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" ht="16.5" spans="1:3">
-      <c r="A396" s="9">
+      <c r="A396" s="12">
         <v>4107</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B396" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C396" s="7"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" ht="16.5" spans="1:3">
-      <c r="A397" s="9">
+      <c r="A397" s="12">
         <v>4108</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C397" s="7"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" ht="16.5" spans="1:3">
-      <c r="A398" s="9">
+      <c r="A398" s="12">
         <v>5001</v>
       </c>
-      <c r="B398" s="13" t="s">
+      <c r="B398" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C398" s="7"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" ht="16.5" spans="1:3">
-      <c r="A399" s="9">
+      <c r="A399" s="12">
         <v>5002</v>
       </c>
-      <c r="B399" s="13" t="s">
+      <c r="B399" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C399" s="7"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" ht="16.5" spans="1:3">
-      <c r="A400" s="9">
+      <c r="A400" s="12">
         <v>5003</v>
       </c>
-      <c r="B400" s="13" t="s">
+      <c r="B400" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C400" s="7"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" ht="16.5" spans="1:3">
-      <c r="A401" s="9">
+      <c r="A401" s="12">
         <v>5004</v>
       </c>
-      <c r="B401" s="13" t="s">
+      <c r="B401" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C401" s="7"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402" ht="16.5" spans="1:3">
-      <c r="A402" s="9">
+      <c r="A402" s="12">
         <v>5005</v>
       </c>
-      <c r="B402" s="13" t="s">
+      <c r="B402" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C402" s="7"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" ht="16.5" spans="1:3">
-      <c r="A403" s="9">
+      <c r="A403" s="12">
         <v>5006</v>
       </c>
-      <c r="B403" s="13" t="s">
+      <c r="B403" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C403" s="7"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" ht="16.5" spans="1:3">
-      <c r="A404" s="9">
+      <c r="A404" s="12">
         <v>5007</v>
       </c>
-      <c r="B404" s="13" t="s">
+      <c r="B404" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C404" s="7"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" ht="16.5" spans="1:3">
-      <c r="A405" s="9">
+      <c r="A405" s="12">
         <v>5008</v>
       </c>
-      <c r="B405" s="13" t="s">
+      <c r="B405" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C405" s="7"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" ht="16.5" spans="1:3">
-      <c r="A406" s="9">
+      <c r="A406" s="12">
         <v>5009</v>
       </c>
-      <c r="B406" s="13" t="s">
+      <c r="B406" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C406" s="7"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" ht="16.5" spans="1:3">
-      <c r="A407" s="9">
+      <c r="A407" s="12">
         <v>5010</v>
       </c>
-      <c r="B407" s="13" t="s">
+      <c r="B407" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C407" s="7"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" ht="16.5" spans="1:3">
-      <c r="A408" s="9">
+      <c r="A408" s="12">
         <v>5011</v>
       </c>
-      <c r="B408" s="13" t="s">
+      <c r="B408" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C408" s="7"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409" ht="16.5" spans="1:3">
-      <c r="A409" s="9">
+      <c r="A409" s="12">
         <v>5012</v>
       </c>
-      <c r="B409" s="13" t="s">
+      <c r="B409" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C409" s="7"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410" ht="16.5" spans="1:3">
-      <c r="A410" s="9">
+      <c r="A410" s="12">
         <v>5013</v>
       </c>
-      <c r="B410" s="13" t="s">
+      <c r="B410" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C410" s="7"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" ht="16.5" spans="1:3">
-      <c r="A411" s="9">
+      <c r="A411" s="12">
         <v>5014</v>
       </c>
-      <c r="B411" s="13" t="s">
+      <c r="B411" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C411" s="7"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" ht="16.5" spans="1:3">
-      <c r="A412" s="9">
+      <c r="A412" s="12">
         <v>5015</v>
       </c>
-      <c r="B412" s="13" t="s">
+      <c r="B412" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C412" s="7"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" ht="16.5" spans="1:3">
-      <c r="A413" s="9">
+      <c r="A413" s="12">
         <v>5016</v>
       </c>
-      <c r="B413" s="13" t="s">
+      <c r="B413" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="C413" s="7"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" ht="16.5" spans="1:3">
-      <c r="A414" s="9">
+      <c r="A414" s="12">
         <v>5017</v>
       </c>
-      <c r="B414" s="13" t="s">
+      <c r="B414" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C414" s="7"/>
+      <c r="C414" s="5"/>
     </row>
     <row r="415" ht="16.5" spans="1:3">
-      <c r="A415" s="9">
+      <c r="A415" s="12">
         <v>5018</v>
       </c>
-      <c r="B415" s="13" t="s">
+      <c r="B415" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C415" s="7"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" ht="16.5" spans="1:3">
-      <c r="A416" s="9">
+      <c r="A416" s="12">
         <v>5019</v>
       </c>
-      <c r="B416" s="13" t="s">
+      <c r="B416" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C416" s="7"/>
+      <c r="C416" s="5"/>
     </row>
     <row r="417" ht="16.5" spans="1:3">
-      <c r="A417" s="9">
+      <c r="A417" s="12">
         <v>5020</v>
       </c>
-      <c r="B417" s="13" t="s">
+      <c r="B417" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C417" s="7"/>
+      <c r="C417" s="5"/>
     </row>
     <row r="418" ht="16.5" spans="1:3">
-      <c r="A418" s="9">
+      <c r="A418" s="12">
         <v>5021</v>
       </c>
-      <c r="B418" s="13" t="s">
+      <c r="B418" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="C418" s="7"/>
+      <c r="C418" s="5"/>
     </row>
     <row r="419" ht="16.5" spans="1:3">
-      <c r="A419" s="9">
+      <c r="A419" s="12">
         <v>5022</v>
       </c>
-      <c r="B419" s="13" t="s">
+      <c r="B419" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C419" s="7"/>
+      <c r="C419" s="5"/>
     </row>
     <row r="420" ht="16.5" spans="1:3">
-      <c r="A420" s="9">
+      <c r="A420" s="12">
         <v>5023</v>
       </c>
-      <c r="B420" s="13" t="s">
+      <c r="B420" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C420" s="7"/>
+      <c r="C420" s="5"/>
     </row>
     <row r="421" ht="16.5" spans="1:3">
-      <c r="A421" s="9">
+      <c r="A421" s="12">
         <v>5024</v>
       </c>
-      <c r="B421" s="13" t="s">
+      <c r="B421" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C421" s="7"/>
+      <c r="C421" s="5"/>
     </row>
     <row r="422" ht="16.5" spans="1:3">
-      <c r="A422" s="9">
+      <c r="A422" s="12">
         <v>5025</v>
       </c>
-      <c r="B422" s="13" t="s">
+      <c r="B422" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="C422" s="7"/>
+      <c r="C422" s="5"/>
     </row>
     <row r="423" ht="16.5" spans="1:3">
-      <c r="A423" s="9">
+      <c r="A423" s="12">
         <v>5026</v>
       </c>
-      <c r="B423" s="13" t="s">
+      <c r="B423" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C423" s="7"/>
+      <c r="C423" s="5"/>
     </row>
     <row r="424" ht="16.5" spans="1:3">
-      <c r="A424" s="9">
+      <c r="A424" s="12">
         <v>5027</v>
       </c>
-      <c r="B424" s="13" t="s">
+      <c r="B424" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="C424" s="7"/>
+      <c r="C424" s="5"/>
     </row>
     <row r="425" ht="16.5" spans="1:3">
-      <c r="A425" s="9">
+      <c r="A425" s="12">
         <v>5028</v>
       </c>
-      <c r="B425" s="13" t="s">
+      <c r="B425" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C425" s="7"/>
+      <c r="C425" s="5"/>
     </row>
     <row r="426" ht="16.5" spans="1:3">
-      <c r="A426" s="9">
+      <c r="A426" s="12">
         <v>5029</v>
       </c>
-      <c r="B426" s="13" t="s">
+      <c r="B426" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="C426" s="7"/>
+      <c r="C426" s="5"/>
     </row>
     <row r="427" ht="16.5" spans="1:3">
-      <c r="A427" s="9">
+      <c r="A427" s="12">
         <v>5030</v>
       </c>
-      <c r="B427" s="13" t="s">
+      <c r="B427" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C427" s="7"/>
+      <c r="C427" s="5"/>
     </row>
     <row r="428" ht="16.5" spans="1:3">
-      <c r="A428" s="9">
+      <c r="A428" s="12">
         <v>5031</v>
       </c>
-      <c r="B428" s="13" t="s">
+      <c r="B428" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C428" s="7"/>
+      <c r="C428" s="5"/>
     </row>
     <row r="429" ht="16.5" spans="1:3">
-      <c r="A429" s="9">
+      <c r="A429" s="12">
         <v>5032</v>
       </c>
-      <c r="B429" s="13" t="s">
+      <c r="B429" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C429" s="7"/>
+      <c r="C429" s="5"/>
     </row>
     <row r="430" ht="16.5" spans="1:3">
-      <c r="A430" s="9">
+      <c r="A430" s="12">
         <v>5033</v>
       </c>
-      <c r="B430" s="13" t="s">
+      <c r="B430" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="C430" s="7"/>
+      <c r="C430" s="5"/>
     </row>
     <row r="431" ht="16.5" spans="1:3">
-      <c r="A431" s="9">
+      <c r="A431" s="12">
         <v>5034</v>
       </c>
-      <c r="B431" s="13" t="s">
+      <c r="B431" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C431" s="7"/>
+      <c r="C431" s="5"/>
     </row>
     <row r="432" ht="16.5" spans="1:3">
-      <c r="A432" s="9">
+      <c r="A432" s="12">
         <v>5035</v>
       </c>
-      <c r="B432" s="13" t="s">
+      <c r="B432" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C432" s="7"/>
+      <c r="C432" s="5"/>
     </row>
     <row r="433" ht="16.5" spans="1:3">
-      <c r="A433" s="9">
+      <c r="A433" s="12">
         <v>5036</v>
       </c>
-      <c r="B433" s="13" t="s">
+      <c r="B433" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C433" s="7"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" ht="16.5" spans="1:3">
-      <c r="A434" s="9">
+      <c r="A434" s="12">
         <v>5037</v>
       </c>
-      <c r="B434" s="13" t="s">
+      <c r="B434" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C434" s="7"/>
+      <c r="C434" s="5"/>
     </row>
     <row r="435" ht="16.5" spans="1:3">
-      <c r="A435" s="9">
+      <c r="A435" s="12">
         <v>5038</v>
       </c>
-      <c r="B435" s="13" t="s">
+      <c r="B435" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C435" s="7"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="436" ht="16.5" spans="1:3">
-      <c r="A436" s="9">
+      <c r="A436" s="12">
         <v>5039</v>
       </c>
-      <c r="B436" s="13" t="s">
+      <c r="B436" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C436" s="7"/>
+      <c r="C436" s="5"/>
     </row>
     <row r="437" ht="16.5" spans="1:3">
-      <c r="A437" s="9">
+      <c r="A437" s="12">
         <v>5040</v>
       </c>
-      <c r="B437" s="13" t="s">
+      <c r="B437" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="C437" s="7"/>
+      <c r="C437" s="5"/>
     </row>
     <row r="438" ht="16.5" spans="1:3">
-      <c r="A438" s="9">
+      <c r="A438" s="12">
         <v>5041</v>
       </c>
-      <c r="B438" s="13" t="s">
+      <c r="B438" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C438" s="7"/>
+      <c r="C438" s="5"/>
     </row>
     <row r="439" ht="16.5" spans="1:3">
-      <c r="A439" s="9">
+      <c r="A439" s="12">
         <v>5042</v>
       </c>
-      <c r="B439" s="13" t="s">
+      <c r="B439" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C439" s="7"/>
+      <c r="C439" s="5"/>
     </row>
     <row r="440" ht="16.5" spans="1:3">
-      <c r="A440" s="9">
+      <c r="A440" s="12">
         <v>5043</v>
       </c>
-      <c r="B440" s="13" t="s">
+      <c r="B440" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C440" s="7"/>
+      <c r="C440" s="5"/>
     </row>
     <row r="441" ht="16.5" spans="1:3">
-      <c r="A441" s="9">
+      <c r="A441" s="12">
         <v>5044</v>
       </c>
-      <c r="B441" s="13" t="s">
+      <c r="B441" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C441" s="7"/>
+      <c r="C441" s="5"/>
     </row>
     <row r="442" ht="16.5" spans="1:3">
-      <c r="A442" s="9">
+      <c r="A442" s="12">
         <v>5045</v>
       </c>
-      <c r="B442" s="13" t="s">
+      <c r="B442" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C442" s="7"/>
+      <c r="C442" s="5"/>
     </row>
     <row r="443" ht="16.5" spans="1:3">
-      <c r="A443" s="9">
+      <c r="A443" s="12">
         <v>5046</v>
       </c>
-      <c r="B443" s="13" t="s">
+      <c r="B443" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C443" s="7"/>
+      <c r="C443" s="5"/>
     </row>
     <row r="444" ht="16.5" spans="1:3">
-      <c r="A444" s="9">
+      <c r="A444" s="12">
         <v>5047</v>
       </c>
-      <c r="B444" s="13" t="s">
+      <c r="B444" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C444" s="7"/>
+      <c r="C444" s="5"/>
     </row>
     <row r="445" ht="16.5" spans="1:3">
-      <c r="A445" s="9">
+      <c r="A445" s="12">
         <v>5048</v>
       </c>
-      <c r="B445" s="13" t="s">
+      <c r="B445" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C445" s="7"/>
+      <c r="C445" s="5"/>
     </row>
     <row r="446" ht="16.5" spans="1:3">
-      <c r="A446" s="9">
+      <c r="A446" s="12">
         <v>5049</v>
       </c>
-      <c r="B446" s="13" t="s">
+      <c r="B446" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="C446" s="7"/>
+      <c r="C446" s="5"/>
     </row>
     <row r="447" ht="16.5" spans="1:3">
-      <c r="A447" s="9">
+      <c r="A447" s="12">
         <v>5050</v>
       </c>
-      <c r="B447" s="13" t="s">
+      <c r="B447" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C447" s="7"/>
+      <c r="C447" s="5"/>
     </row>
     <row r="448" ht="16.5" spans="1:3">
-      <c r="A448" s="9">
+      <c r="A448" s="12">
         <v>5051</v>
       </c>
-      <c r="B448" s="14" t="s">
+      <c r="B448" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="C448" s="7"/>
+      <c r="C448" s="5"/>
     </row>
     <row r="449" ht="16.5" spans="1:3">
-      <c r="A449" s="9">
+      <c r="A449" s="12">
         <v>5052</v>
       </c>
-      <c r="B449" s="14" t="s">
+      <c r="B449" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C449" s="7"/>
+      <c r="C449" s="5"/>
     </row>
     <row r="450" ht="16.5" spans="1:3">
-      <c r="A450" s="9">
+      <c r="A450" s="12">
         <v>5053</v>
       </c>
-      <c r="B450" s="14" t="s">
+      <c r="B450" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C450" s="7"/>
+      <c r="C450" s="5"/>
     </row>
     <row r="451" ht="16.5" spans="1:3">
-      <c r="A451" s="9">
+      <c r="A451" s="12">
         <v>5054</v>
       </c>
-      <c r="B451" s="14" t="s">
+      <c r="B451" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C451" s="7"/>
+      <c r="C451" s="5"/>
     </row>
     <row r="452" ht="16.5" spans="1:3">
-      <c r="A452" s="9">
+      <c r="A452" s="12">
         <v>5055</v>
       </c>
-      <c r="B452" s="14" t="s">
+      <c r="B452" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C452" s="7"/>
+      <c r="C452" s="5"/>
     </row>
     <row r="453" ht="16.5" spans="1:3">
-      <c r="A453" s="9">
+      <c r="A453" s="12">
         <v>5056</v>
       </c>
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C453" s="7"/>
+      <c r="C453" s="5"/>
     </row>
     <row r="454" ht="16.5" spans="1:3">
-      <c r="A454" s="9">
+      <c r="A454" s="12">
         <v>5057</v>
       </c>
-      <c r="B454" s="14" t="s">
+      <c r="B454" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C454" s="7"/>
+      <c r="C454" s="5"/>
     </row>
     <row r="455" ht="16.5" spans="1:3">
-      <c r="A455" s="9">
+      <c r="A455" s="12">
         <v>5058</v>
       </c>
-      <c r="B455" s="14" t="s">
+      <c r="B455" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="C455" s="7"/>
+      <c r="C455" s="5"/>
     </row>
     <row r="456" ht="16.5" spans="1:3">
-      <c r="A456" s="9">
+      <c r="A456" s="12">
         <v>5059</v>
       </c>
-      <c r="B456" s="14" t="s">
+      <c r="B456" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C456" s="7"/>
+      <c r="C456" s="5"/>
     </row>
     <row r="457" ht="16.5" spans="1:3">
-      <c r="A457" s="9">
+      <c r="A457" s="12">
         <v>5060</v>
       </c>
-      <c r="B457" s="14" t="s">
+      <c r="B457" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C457" s="7"/>
+      <c r="C457" s="5"/>
     </row>
     <row r="458" ht="16.5" spans="1:3">
-      <c r="A458" s="9">
+      <c r="A458" s="12">
         <v>5061</v>
       </c>
-      <c r="B458" s="14" t="s">
+      <c r="B458" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C458" s="7"/>
+      <c r="C458" s="5"/>
     </row>
     <row r="459" ht="16.5" spans="1:3">
-      <c r="A459" s="9">
+      <c r="A459" s="12">
         <v>5062</v>
       </c>
-      <c r="B459" s="14" t="s">
+      <c r="B459" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="C459" s="7"/>
+      <c r="C459" s="5"/>
     </row>
     <row r="460" ht="16.5" spans="1:3">
-      <c r="A460" s="9">
+      <c r="A460" s="12">
         <v>5063</v>
       </c>
-      <c r="B460" s="14" t="s">
+      <c r="B460" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C460" s="7"/>
+      <c r="C460" s="5"/>
     </row>
     <row r="461" ht="16.5" spans="1:3">
-      <c r="A461" s="9">
+      <c r="A461" s="12">
         <v>5064</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C461" s="7"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462" ht="16.5" spans="1:3">
-      <c r="A462" s="9">
+      <c r="A462" s="12">
         <v>5065</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="B462" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C462" s="7"/>
+      <c r="C462" s="5"/>
     </row>
     <row r="463" ht="16.5" spans="1:3">
-      <c r="A463" s="9">
+      <c r="A463" s="12">
         <v>5066</v>
       </c>
-      <c r="B463" s="14" t="s">
+      <c r="B463" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C463" s="7"/>
+      <c r="C463" s="5"/>
     </row>
     <row r="464" ht="16.5" spans="1:3">
-      <c r="A464" s="9">
+      <c r="A464" s="12">
         <v>5067</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C464" s="7"/>
+      <c r="C464" s="5"/>
     </row>
     <row r="465" ht="16.5" spans="1:3">
-      <c r="A465" s="9">
+      <c r="A465" s="12">
         <v>5068</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C465" s="7"/>
+      <c r="C465" s="5"/>
     </row>
     <row r="466" ht="16.5" spans="1:3">
-      <c r="A466" s="9">
+      <c r="A466" s="12">
         <v>5069</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C466" s="7"/>
+      <c r="C466" s="5"/>
     </row>
     <row r="467" ht="16.5" spans="1:3">
-      <c r="A467" s="9">
+      <c r="A467" s="12">
         <v>5070</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C467" s="7"/>
+      <c r="C467" s="5"/>
     </row>
     <row r="468" ht="16.5" spans="1:3">
-      <c r="A468" s="9">
+      <c r="A468" s="12">
         <v>5071</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C468" s="7"/>
+      <c r="C468" s="5"/>
     </row>
     <row r="469" ht="16.5" spans="1:3">
-      <c r="A469" s="9">
+      <c r="A469" s="12">
         <v>5072</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="B469" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C469" s="7"/>
+      <c r="C469" s="5"/>
     </row>
     <row r="470" ht="16.5" spans="1:3">
-      <c r="A470" s="9">
+      <c r="A470" s="12">
         <v>5073</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="B470" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C470" s="7"/>
+      <c r="C470" s="5"/>
     </row>
     <row r="471" ht="16.5" spans="1:3">
-      <c r="A471" s="9">
+      <c r="A471" s="12">
         <v>5074</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C471" s="7"/>
+      <c r="C471" s="5"/>
     </row>
     <row r="472" ht="16.5" spans="1:3">
-      <c r="A472" s="9">
+      <c r="A472" s="12">
         <v>5075</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="C472" s="7"/>
+      <c r="C472" s="5"/>
     </row>
     <row r="473" ht="16.5" spans="1:3">
-      <c r="A473" s="9">
+      <c r="A473" s="12">
         <v>5076</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="C473" s="7"/>
+      <c r="C473" s="5"/>
     </row>
     <row r="474" ht="16.5" spans="1:3">
-      <c r="A474" s="9">
+      <c r="A474" s="12">
         <v>5077</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C474" s="7"/>
+      <c r="C474" s="5"/>
     </row>
     <row r="475" ht="16.5" spans="1:3">
-      <c r="A475" s="9">
+      <c r="A475" s="12">
         <v>5078</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C475" s="7"/>
+      <c r="C475" s="5"/>
     </row>
     <row r="476" ht="16.5" spans="1:3">
-      <c r="A476" s="9">
+      <c r="A476" s="12">
         <v>5079</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="C476" s="7"/>
+      <c r="C476" s="5"/>
     </row>
     <row r="477" ht="16.5" spans="1:3">
-      <c r="A477" s="9">
+      <c r="A477" s="12">
         <v>5080</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C477" s="7"/>
+      <c r="C477" s="5"/>
     </row>
     <row r="478" ht="16.5" spans="1:3">
-      <c r="A478" s="9">
+      <c r="A478" s="12">
         <v>5081</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="B478" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C478" s="7"/>
+      <c r="C478" s="5"/>
     </row>
     <row r="479" ht="16.5" spans="1:3">
-      <c r="A479" s="9">
+      <c r="A479" s="12">
         <v>5082</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="C479" s="7"/>
+      <c r="C479" s="5"/>
     </row>
     <row r="480" ht="16.5" spans="1:3">
-      <c r="A480" s="9">
+      <c r="A480" s="12">
         <v>5083</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="C480" s="7"/>
+      <c r="C480" s="5"/>
     </row>
     <row r="481" ht="16.5" spans="1:3">
-      <c r="A481" s="9">
+      <c r="A481" s="12">
         <v>5084</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="C481" s="7"/>
+      <c r="C481" s="5"/>
     </row>
     <row r="482" ht="16.5" spans="1:3">
-      <c r="A482" s="9">
+      <c r="A482" s="12">
         <v>5085</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C482" s="7"/>
+      <c r="C482" s="5"/>
     </row>
     <row r="483" ht="16.5" spans="1:3">
-      <c r="A483" s="9">
+      <c r="A483" s="12">
         <v>5086</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C483" s="7"/>
+      <c r="C483" s="5"/>
     </row>
     <row r="484" ht="16.5" spans="1:3">
-      <c r="A484" s="9">
+      <c r="A484" s="12">
         <v>5087</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="C484" s="7"/>
+      <c r="C484" s="5"/>
     </row>
     <row r="485" ht="16.5" spans="1:3">
-      <c r="A485" s="9">
+      <c r="A485" s="12">
         <v>5088</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="C485" s="7"/>
+      <c r="C485" s="5"/>
     </row>
     <row r="486" ht="16.5" spans="1:3">
-      <c r="A486" s="9">
+      <c r="A486" s="12">
         <v>5089</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C486" s="7"/>
+      <c r="C486" s="5"/>
     </row>
     <row r="487" ht="16.5" spans="1:3">
-      <c r="A487" s="9">
+      <c r="A487" s="12">
         <v>5090</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C487" s="7"/>
+      <c r="C487" s="5"/>
     </row>
     <row r="488" ht="16.5" spans="1:3">
-      <c r="A488" s="9">
+      <c r="A488" s="12">
         <v>5091</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C488" s="7"/>
+      <c r="C488" s="5"/>
     </row>
     <row r="489" ht="16.5" spans="1:3">
-      <c r="A489" s="9">
+      <c r="A489" s="12">
         <v>5092</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="C489" s="7"/>
+      <c r="C489" s="5"/>
     </row>
     <row r="490" ht="16.5" spans="1:3">
-      <c r="A490" s="9">
+      <c r="A490" s="12">
         <v>5093</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="B490" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C490" s="7"/>
+      <c r="C490" s="5"/>
     </row>
     <row r="491" ht="16.5" spans="1:3">
-      <c r="A491" s="9">
+      <c r="A491" s="12">
         <v>5094</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="B491" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C491" s="7"/>
+      <c r="C491" s="5"/>
     </row>
     <row r="492" ht="16.5" spans="1:3">
-      <c r="A492" s="9">
+      <c r="A492" s="12">
         <v>5095</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C492" s="7"/>
+      <c r="C492" s="5"/>
     </row>
     <row r="493" ht="16.5" spans="1:3">
-      <c r="A493" s="9">
+      <c r="A493" s="12">
         <v>5096</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="B493" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C493" s="7"/>
+      <c r="C493" s="5"/>
     </row>
     <row r="494" ht="16.5" spans="1:3">
-      <c r="A494" s="9">
+      <c r="A494" s="12">
         <v>5097</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B494" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C494" s="7"/>
+      <c r="C494" s="5"/>
     </row>
     <row r="495" ht="16.5" spans="1:3">
-      <c r="A495" s="9">
+      <c r="A495" s="12">
         <v>5098</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="C495" s="7"/>
+      <c r="C495" s="5"/>
     </row>
     <row r="496" ht="16.5" spans="1:3">
-      <c r="A496" s="9">
+      <c r="A496" s="12">
         <v>5099</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="C496" s="7"/>
+      <c r="C496" s="5"/>
     </row>
     <row r="497" ht="16.5" spans="1:3">
-      <c r="A497" s="9">
+      <c r="A497" s="12">
         <v>5100</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C497" s="7"/>
+      <c r="C497" s="5"/>
     </row>
     <row r="498" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A498" s="9">
+      <c r="A498" s="12">
         <v>5101</v>
       </c>
-      <c r="B498" s="13" t="s">
+      <c r="B498" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C498" s="7"/>
+      <c r="C498" s="5"/>
     </row>
     <row r="499" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A499" s="9">
+      <c r="A499" s="12">
         <v>5102</v>
       </c>
-      <c r="B499" s="13" t="s">
+      <c r="B499" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C499" s="7"/>
+      <c r="C499" s="5"/>
     </row>
     <row r="500" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A500" s="9">
+      <c r="A500" s="12">
         <v>5103</v>
       </c>
-      <c r="B500" s="13" t="s">
+      <c r="B500" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C500" s="7"/>
+      <c r="C500" s="5"/>
     </row>
     <row r="501" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A501" s="9">
+      <c r="A501" s="12">
         <v>5104</v>
       </c>
-      <c r="B501" s="13" t="s">
+      <c r="B501" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C501" s="7"/>
+      <c r="C501" s="5"/>
     </row>
     <row r="502" ht="16.5" spans="1:3">
-      <c r="A502" s="9">
+      <c r="A502" s="12">
         <v>6001</v>
       </c>
-      <c r="B502" s="13" t="s">
+      <c r="B502" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C502" s="7"/>
+      <c r="C502" s="5"/>
     </row>
     <row r="503" ht="16.5" spans="1:3">
-      <c r="A503" s="9">
+      <c r="A503" s="12">
         <v>6002</v>
       </c>
-      <c r="B503" s="13" t="s">
+      <c r="B503" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C503" s="7"/>
+      <c r="C503" s="5"/>
     </row>
     <row r="504" ht="16.5" spans="1:3">
-      <c r="A504" s="9">
+      <c r="A504" s="12">
         <v>6003</v>
       </c>
-      <c r="B504" s="16" t="s">
+      <c r="B504" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C504" s="7"/>
+      <c r="C504" s="5"/>
     </row>
     <row r="505" ht="16.5" spans="1:3">
-      <c r="A505" s="9">
+      <c r="A505" s="12">
         <v>6004</v>
       </c>
-      <c r="B505" s="13" t="s">
+      <c r="B505" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C505" s="7"/>
+      <c r="C505" s="5"/>
     </row>
     <row r="506" ht="16.5" spans="1:3">
-      <c r="A506" s="9">
+      <c r="A506" s="12">
         <v>6005</v>
       </c>
-      <c r="B506" s="13" t="s">
+      <c r="B506" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C506" s="7"/>
+      <c r="C506" s="5"/>
     </row>
     <row r="507" ht="16.5" spans="1:3">
-      <c r="A507" s="9">
+      <c r="A507" s="12">
         <v>6006</v>
       </c>
-      <c r="B507" s="13" t="s">
+      <c r="B507" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C507" s="7"/>
+      <c r="C507" s="5"/>
     </row>
     <row r="508" ht="16.5" spans="1:3">
-      <c r="A508" s="9">
+      <c r="A508" s="12">
         <v>6007</v>
       </c>
-      <c r="B508" s="13" t="s">
+      <c r="B508" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C508" s="7"/>
+      <c r="C508" s="5"/>
     </row>
     <row r="509" ht="16.5" spans="1:3">
-      <c r="A509" s="9">
+      <c r="A509" s="12">
         <v>6008</v>
       </c>
-      <c r="B509" s="13" t="s">
+      <c r="B509" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C509" s="7"/>
+      <c r="C509" s="5"/>
     </row>
     <row r="510" ht="16.5" spans="1:3">
-      <c r="A510" s="9">
+      <c r="A510" s="12">
         <v>6009</v>
       </c>
-      <c r="B510" s="13" t="s">
+      <c r="B510" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C510" s="7"/>
+      <c r="C510" s="5"/>
     </row>
     <row r="511" ht="16.5" spans="1:3">
-      <c r="A511" s="9">
+      <c r="A511" s="12">
         <v>6010</v>
       </c>
-      <c r="B511" s="13" t="s">
+      <c r="B511" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C511" s="7"/>
+      <c r="C511" s="5"/>
     </row>
     <row r="512" ht="16.5" spans="1:3">
-      <c r="A512" s="9">
+      <c r="A512" s="12">
         <v>6011</v>
       </c>
-      <c r="B512" s="13" t="s">
+      <c r="B512" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C512" s="7"/>
+      <c r="C512" s="5"/>
     </row>
     <row r="513" ht="16.5" spans="1:3">
-      <c r="A513" s="9">
+      <c r="A513" s="12">
         <v>6012</v>
       </c>
-      <c r="B513" s="13" t="s">
+      <c r="B513" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="C513" s="7"/>
+      <c r="C513" s="5"/>
     </row>
     <row r="514" ht="16.5" spans="1:3">
-      <c r="A514" s="9">
+      <c r="A514" s="12">
         <v>6013</v>
       </c>
-      <c r="B514" s="13" t="s">
+      <c r="B514" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C514" s="7"/>
+      <c r="C514" s="5"/>
     </row>
     <row r="515" ht="16.5" spans="1:3">
-      <c r="A515" s="9">
+      <c r="A515" s="12">
         <v>6014</v>
       </c>
-      <c r="B515" s="13" t="s">
+      <c r="B515" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="C515" s="7"/>
+      <c r="C515" s="5"/>
     </row>
     <row r="516" ht="16.5" spans="1:3">
-      <c r="A516" s="9">
+      <c r="A516" s="12">
         <v>6015</v>
       </c>
-      <c r="B516" s="13" t="s">
+      <c r="B516" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="C516" s="7"/>
+      <c r="C516" s="5"/>
     </row>
     <row r="517" ht="16.5" spans="1:3">
-      <c r="A517" s="9">
+      <c r="A517" s="12">
         <v>6016</v>
       </c>
-      <c r="B517" s="13" t="s">
+      <c r="B517" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C517" s="7"/>
+      <c r="C517" s="5"/>
     </row>
     <row r="518" ht="16.5" spans="1:3">
-      <c r="A518" s="9">
+      <c r="A518" s="12">
         <v>6017</v>
       </c>
-      <c r="B518" s="13" t="s">
+      <c r="B518" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C518" s="7"/>
+      <c r="C518" s="5"/>
     </row>
     <row r="519" ht="16.5" spans="1:3">
-      <c r="A519" s="9">
+      <c r="A519" s="12">
         <v>6018</v>
       </c>
-      <c r="B519" s="13" t="s">
+      <c r="B519" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C519" s="7"/>
+      <c r="C519" s="5"/>
     </row>
     <row r="520" ht="16.5" spans="1:3">
-      <c r="A520" s="9">
+      <c r="A520" s="12">
         <v>6019</v>
       </c>
-      <c r="B520" s="13" t="s">
+      <c r="B520" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="C520" s="7"/>
+      <c r="C520" s="5"/>
     </row>
     <row r="521" ht="16.5" spans="1:3">
-      <c r="A521" s="9">
+      <c r="A521" s="12">
         <v>6020</v>
       </c>
-      <c r="B521" s="13" t="s">
+      <c r="B521" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="C521" s="7"/>
+      <c r="C521" s="5"/>
     </row>
     <row r="522" ht="16.5" spans="1:3">
-      <c r="A522" s="9">
+      <c r="A522" s="12">
         <v>6021</v>
       </c>
-      <c r="B522" s="13" t="s">
+      <c r="B522" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C522" s="7"/>
+      <c r="C522" s="5"/>
     </row>
     <row r="523" ht="16.5" spans="1:3">
-      <c r="A523" s="9">
+      <c r="A523" s="12">
         <v>6022</v>
       </c>
-      <c r="B523" s="13" t="s">
+      <c r="B523" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="C523" s="7"/>
+      <c r="C523" s="5"/>
     </row>
     <row r="524" ht="16.5" spans="1:3">
-      <c r="A524" s="9">
+      <c r="A524" s="12">
         <v>6023</v>
       </c>
-      <c r="B524" s="13" t="s">
+      <c r="B524" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C524" s="7"/>
+      <c r="C524" s="5"/>
     </row>
     <row r="525" ht="16.5" spans="1:3">
-      <c r="A525" s="9">
+      <c r="A525" s="12">
         <v>6024</v>
       </c>
-      <c r="B525" s="13" t="s">
+      <c r="B525" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C525" s="7"/>
+      <c r="C525" s="5"/>
     </row>
     <row r="526" ht="16.5" spans="1:3">
-      <c r="A526" s="9">
+      <c r="A526" s="12">
         <v>6025</v>
       </c>
-      <c r="B526" s="13" t="s">
+      <c r="B526" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="C526" s="7"/>
+      <c r="C526" s="5"/>
     </row>
     <row r="527" ht="16.5" spans="1:3">
-      <c r="A527" s="9">
+      <c r="A527" s="12">
         <v>6026</v>
       </c>
-      <c r="B527" s="13" t="s">
+      <c r="B527" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C527" s="7"/>
+      <c r="C527" s="5"/>
     </row>
     <row r="528" ht="16.5" spans="1:3">
-      <c r="A528" s="9">
+      <c r="A528" s="12">
         <v>6027</v>
       </c>
-      <c r="B528" s="13" t="s">
+      <c r="B528" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C528" s="7"/>
+      <c r="C528" s="5"/>
     </row>
     <row r="529" ht="16.5" spans="1:3">
-      <c r="A529" s="9">
+      <c r="A529" s="12">
         <v>6028</v>
       </c>
-      <c r="B529" s="13" t="s">
+      <c r="B529" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C529" s="7"/>
+      <c r="C529" s="5"/>
     </row>
     <row r="530" ht="16.5" spans="1:3">
-      <c r="A530" s="9">
+      <c r="A530" s="12">
         <v>6029</v>
       </c>
-      <c r="B530" s="13" t="s">
+      <c r="B530" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C530" s="7"/>
+      <c r="C530" s="5"/>
     </row>
     <row r="531" ht="16.5" spans="1:3">
-      <c r="A531" s="9">
+      <c r="A531" s="12">
         <v>6030</v>
       </c>
-      <c r="B531" s="13" t="s">
+      <c r="B531" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C531" s="7"/>
+      <c r="C531" s="5"/>
     </row>
     <row r="532" ht="16.5" spans="1:3">
-      <c r="A532" s="9">
+      <c r="A532" s="12">
         <v>6031</v>
       </c>
-      <c r="B532" s="13" t="s">
+      <c r="B532" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C532" s="7"/>
+      <c r="C532" s="5"/>
     </row>
     <row r="533" ht="16.5" spans="1:3">
-      <c r="A533" s="9">
+      <c r="A533" s="12">
         <v>6032</v>
       </c>
-      <c r="B533" s="13" t="s">
+      <c r="B533" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C533" s="7"/>
+      <c r="C533" s="5"/>
     </row>
     <row r="534" ht="16.5" spans="1:3">
-      <c r="A534" s="9">
+      <c r="A534" s="12">
         <v>6033</v>
       </c>
-      <c r="B534" s="13" t="s">
+      <c r="B534" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C534" s="7"/>
+      <c r="C534" s="5"/>
     </row>
     <row r="535" ht="16.5" spans="1:3">
-      <c r="A535" s="9">
+      <c r="A535" s="12">
         <v>6034</v>
       </c>
-      <c r="B535" s="13" t="s">
+      <c r="B535" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C535" s="7"/>
+      <c r="C535" s="5"/>
     </row>
     <row r="536" ht="16.5" spans="1:3">
-      <c r="A536" s="9">
+      <c r="A536" s="12">
         <v>6035</v>
       </c>
-      <c r="B536" s="13" t="s">
+      <c r="B536" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C536" s="7"/>
+      <c r="C536" s="5"/>
     </row>
     <row r="537" ht="16.5" spans="1:3">
-      <c r="A537" s="9">
+      <c r="A537" s="12">
         <v>6036</v>
       </c>
-      <c r="B537" s="13" t="s">
+      <c r="B537" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="C537" s="7"/>
+      <c r="C537" s="5"/>
     </row>
     <row r="538" ht="16.5" spans="1:3">
-      <c r="A538" s="9">
+      <c r="A538" s="12">
         <v>6037</v>
       </c>
-      <c r="B538" s="13" t="s">
+      <c r="B538" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C538" s="7"/>
+      <c r="C538" s="5"/>
     </row>
     <row r="539" ht="16.5" spans="1:3">
-      <c r="A539" s="9">
+      <c r="A539" s="12">
         <v>6038</v>
       </c>
-      <c r="B539" s="13" t="s">
+      <c r="B539" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C539" s="7"/>
+      <c r="C539" s="5"/>
     </row>
     <row r="540" ht="16.5" spans="1:3">
-      <c r="A540" s="9">
+      <c r="A540" s="12">
         <v>6039</v>
       </c>
-      <c r="B540" s="13" t="s">
+      <c r="B540" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C540" s="7"/>
+      <c r="C540" s="5"/>
     </row>
     <row r="541" ht="16.5" spans="1:3">
-      <c r="A541" s="9">
+      <c r="A541" s="12">
         <v>6040</v>
       </c>
-      <c r="B541" s="13" t="s">
+      <c r="B541" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="C541" s="7"/>
+      <c r="C541" s="5"/>
     </row>
     <row r="542" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A542" s="9">
+      <c r="A542" s="12">
         <v>6041</v>
       </c>
-      <c r="B542" s="17" t="s">
+      <c r="B542" s="20" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="543" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A543" s="9">
+      <c r="A543" s="12">
         <v>6802</v>
       </c>
-      <c r="B543" s="17" t="s">
+      <c r="B543" s="20" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="544" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A544" s="9">
+      <c r="A544" s="12">
         <v>6803</v>
       </c>
-      <c r="B544" s="17" t="s">
+      <c r="B544" s="20" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="545" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A545" s="9">
+      <c r="A545" s="12">
         <v>7001</v>
       </c>
-      <c r="B545" s="18" t="s">
+      <c r="B545" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="546" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A546" s="9">
+      <c r="A546" s="12">
         <v>7002</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B546" s="16" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="547" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A547" s="9">
+      <c r="A547" s="12">
         <v>7003</v>
       </c>
-      <c r="B547" s="18" t="s">
+      <c r="B547" s="16" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="548" s="2" customFormat="1" ht="17.25" spans="1:2">
-      <c r="A548" s="9">
+      <c r="A548" s="12">
         <v>7004</v>
       </c>
-      <c r="B548" s="18" t="s">
+      <c r="B548" s="16" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="549" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A549" s="9">
+      <c r="A549" s="12">
         <v>10001</v>
       </c>
-      <c r="B549" s="19" t="s">
+      <c r="B549" s="21" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="550" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A550" s="9">
+      <c r="A550" s="12">
         <v>10002</v>
       </c>
-      <c r="B550" s="19" t="s">
+      <c r="B550" s="21" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="551" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A551" s="9">
+      <c r="A551" s="12">
         <v>10003</v>
       </c>
-      <c r="B551" s="19" t="s">
+      <c r="B551" s="21" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="552" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A552" s="9">
+      <c r="A552" s="12">
         <v>10004</v>
       </c>
-      <c r="B552" s="19" t="s">
+      <c r="B552" s="21" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="553" s="4" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A553" s="20">
+      <c r="A553" s="22">
         <v>10005</v>
       </c>
-      <c r="B553" s="21" t="s">
+      <c r="B553" s="23" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="554" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A554" s="9">
+      <c r="A554" s="12">
         <v>10006</v>
       </c>
-      <c r="B554" s="19" t="s">
+      <c r="B554" s="21" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="555" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A555" s="9">
+      <c r="A555" s="12">
         <v>10007</v>
       </c>
-      <c r="B555" s="19" t="s">
+      <c r="B555" s="21" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="556" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A556" s="9">
+      <c r="A556" s="12">
         <v>10008</v>
       </c>
-      <c r="B556" s="19" t="s">
+      <c r="B556" s="21" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="557" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A557" s="9">
+      <c r="A557" s="12">
         <v>10009</v>
       </c>
-      <c r="B557" s="19" t="s">
+      <c r="B557" s="21" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="558" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A558" s="9">
+      <c r="A558" s="12">
         <v>10010</v>
       </c>
-      <c r="B558" s="19" t="s">
+      <c r="B558" s="21" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="559" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A559" s="9">
+      <c r="A559" s="12">
         <v>10011</v>
       </c>
-      <c r="B559" s="19" t="s">
+      <c r="B559" s="21" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="560" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A560" s="9">
+      <c r="A560" s="12">
         <v>10021</v>
       </c>
-      <c r="B560" s="17" t="s">
+      <c r="B560" s="20" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="561" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A561" s="9">
+      <c r="A561" s="12">
         <v>10022</v>
       </c>
-      <c r="B561" s="17" t="s">
+      <c r="B561" s="20" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="562" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A562" s="9">
+      <c r="A562" s="12">
         <v>10023</v>
       </c>
-      <c r="B562" s="17" t="s">
+      <c r="B562" s="20" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="563" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A563" s="9">
+      <c r="A563" s="12">
         <v>10024</v>
       </c>
-      <c r="B563" s="17" t="s">
+      <c r="B563" s="20" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="564" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A564" s="9">
+      <c r="A564" s="12">
         <v>10025</v>
       </c>
-      <c r="B564" s="17" t="s">
+      <c r="B564" s="20" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="565" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A565" s="9">
+      <c r="A565" s="12">
         <v>10026</v>
       </c>
-      <c r="B565" s="17" t="s">
+      <c r="B565" s="20" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="566" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A566" s="9">
+      <c r="A566" s="12">
         <v>10027</v>
       </c>
-      <c r="B566" s="17" t="s">
+      <c r="B566" s="20" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="567" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A567" s="9">
+      <c r="A567" s="12">
         <v>10028</v>
       </c>
-      <c r="B567" s="17" t="s">
+      <c r="B567" s="20" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="568" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A568" s="9">
+      <c r="A568" s="12">
         <v>10029</v>
       </c>
-      <c r="B568" s="17" t="s">
+      <c r="B568" s="20" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="569" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A569" s="9">
+      <c r="A569" s="12">
         <v>10030</v>
       </c>
-      <c r="B569" s="17" t="s">
+      <c r="B569" s="20" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="570" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A570" s="9">
+      <c r="A570" s="12">
         <v>10031</v>
       </c>
-      <c r="B570" s="17" t="s">
+      <c r="B570" s="20" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="571" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A571" s="9">
+      <c r="A571" s="12">
         <v>10032</v>
       </c>
-      <c r="B571" s="17" t="s">
+      <c r="B571" s="20" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="572" s="3" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A572" s="9">
+      <c r="A572" s="12">
         <v>90001</v>
       </c>
-      <c r="B572" s="13" t="s">
+      <c r="B572" s="16" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="573" ht="16.5" spans="1:2">
-      <c r="A573" s="9">
+      <c r="A573" s="12">
         <v>90002</v>
       </c>
-      <c r="B573" s="13" t="s">
+      <c r="B573" s="16" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="574" ht="16.5" spans="1:2">
-      <c r="A574" s="9">
+      <c r="A574" s="12">
         <v>90003</v>
       </c>
-      <c r="B574" s="13" t="s">
+      <c r="B574" s="16" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="22">
+      <c r="A575" s="24">
         <v>8001</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B575" s="25" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="22">
+      <c r="A576" s="24">
         <v>8002</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B576" s="25" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="22">
+      <c r="A577" s="24">
         <v>8003</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B577" s="25" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="22">
+      <c r="A578" s="24">
         <v>8004</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B578" s="25" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="22">
+      <c r="A579" s="24">
         <v>8005</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="25" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="22">
+      <c r="A580" s="24">
         <v>8006</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B580" s="25" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="22">
+      <c r="A581" s="24">
         <v>8007</v>
       </c>
-      <c r="B581" t="s">
+      <c r="B581" s="25" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="22">
+      <c r="A582" s="24">
         <v>8008</v>
       </c>
-      <c r="B582" t="s">
+      <c r="B582" s="25" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="22">
+      <c r="A583" s="24">
         <v>8009</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="25" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="22">
+      <c r="A584" s="24">
         <v>8010</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B584" s="25" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="22">
+      <c r="A585" s="24">
         <v>8011</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B585" s="25" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="22">
+      <c r="A586" s="24">
         <v>8012</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B586" s="25" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="22">
+      <c r="A587" s="24">
         <v>8013</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B587" s="25" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="22">
+      <c r="A588" s="24">
         <v>8014</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B588" s="25" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="22">
+      <c r="A589" s="24">
         <v>8015</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B589" s="25" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="22">
+      <c r="A590" s="24">
         <v>8016</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B590" s="25" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="22">
+      <c r="A591" s="24">
         <v>8017</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="25" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="22">
+      <c r="A592" s="24">
         <v>8018</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B592" s="25" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="22">
+      <c r="A593" s="24">
         <v>8019</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B593" s="25" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="22">
+      <c r="A594" s="24">
         <v>8020</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B594" s="25" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="22">
+      <c r="A595" s="24">
         <v>8021</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B595" s="25" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="22">
+      <c r="A596" s="24">
         <v>8022</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B596" s="25" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="22">
+      <c r="A597" s="24">
         <v>8023</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B597" s="25" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="22">
+      <c r="A598" s="24">
         <v>8024</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B598" s="25" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="22">
+      <c r="A599" s="24">
         <v>8025</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="25" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="22">
+      <c r="A600" s="24">
         <v>8026</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B600" s="25" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="22">
+      <c r="A601" s="24">
         <v>8027</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B601" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="22">
+      <c r="A602" s="24">
         <v>8028</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B602" s="25" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="22">
+      <c r="A603" s="24">
         <v>8029</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="25" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="22">
+      <c r="A604" s="24">
         <v>8030</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B604" s="25" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="22">
+      <c r="A605" s="24">
         <v>8031</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B605" s="25" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="22">
+      <c r="A606" s="24">
         <v>8032</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B606" s="25" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="22">
+      <c r="A607" s="24">
         <v>8033</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B607" s="25" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="22">
+      <c r="A608" s="24">
         <v>8034</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="25" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="22">
+      <c r="A609" s="24">
         <v>8035</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="25" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="22">
+      <c r="A610" s="24">
         <v>8036</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B610" s="25" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="22">
+      <c r="A611" s="24">
         <v>8037</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B611" s="25" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="22">
+      <c r="A612" s="24">
         <v>8038</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B612" s="25" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="22">
+      <c r="A613" s="24">
         <v>8039</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B613" s="25" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="22">
+      <c r="A614" s="24">
         <v>8040</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="25" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="22">
+      <c r="A615" s="24">
         <v>8041</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="25" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="22">
+      <c r="A616" s="24">
         <v>8042</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B616" s="25" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="22">
+      <c r="A617" s="24">
         <v>8043</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B617" s="25" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="22">
+      <c r="A618" s="24">
         <v>8044</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B618" s="25" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="22">
+      <c r="A619" s="24">
         <v>8045</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B619" s="25" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="22">
+      <c r="A620" s="24">
         <v>8046</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B620" s="25" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="22">
+      <c r="A621" s="24">
         <v>8047</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B621" s="25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="22">
+      <c r="A622" s="24">
         <v>8048</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B622" s="25" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="22">
+      <c r="A623" s="24">
         <v>8049</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B623" s="25" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="22">
+      <c r="A624" s="24">
         <v>8050</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B624" s="25" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="22">
+      <c r="A625" s="24">
         <v>8051</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B625" s="25" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="22">
+      <c r="A626" s="24">
         <v>8052</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B626" s="25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="22">
+      <c r="A627" s="24">
         <v>8053</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B627" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="22">
+      <c r="A628" s="24">
         <v>8054</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B628" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="22">
+      <c r="A629" s="24">
         <v>8055</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B629" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="22">
+      <c r="A630" s="24">
         <v>8056</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B630" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="22">
+      <c r="A631" s="24">
         <v>8057</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B631" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="22">
+      <c r="A632" s="24">
         <v>9001</v>
       </c>
-      <c r="B632" s="23" t="s">
+      <c r="B632" s="25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="22">
+      <c r="A633" s="24">
         <v>9002</v>
       </c>
-      <c r="B633" s="23" t="s">
+      <c r="B633" s="25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="22">
+      <c r="A634" s="24">
         <v>9003</v>
       </c>
-      <c r="B634" s="23" t="s">
+      <c r="B634" s="25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="22">
+      <c r="A635" s="24">
         <v>9004</v>
       </c>
-      <c r="B635" s="23" t="s">
+      <c r="B635" s="25" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="22">
+      <c r="A636" s="24">
         <v>9005</v>
       </c>
-      <c r="B636" s="23" t="s">
+      <c r="B636" s="25" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="22">
+      <c r="A637" s="24">
         <v>9006</v>
       </c>
-      <c r="B637" s="23" t="s">
+      <c r="B637" s="25" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="22">
+      <c r="A638" s="24">
         <v>9007</v>
       </c>
-      <c r="B638" s="23" t="s">
+      <c r="B638" s="25" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="22">
+      <c r="A639" s="24">
         <v>9008</v>
       </c>
-      <c r="B639" s="23" t="s">
+      <c r="B639" s="25" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="22">
+      <c r="A640" s="24">
         <v>9009</v>
       </c>
-      <c r="B640" s="23" t="s">
+      <c r="B640" s="25" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="22">
+      <c r="A641" s="24">
         <v>9010</v>
       </c>
-      <c r="B641" s="23" t="s">
+      <c r="B641" s="25" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="22">
+      <c r="A642" s="24">
         <v>9011</v>
       </c>
-      <c r="B642" s="23" t="s">
+      <c r="B642" s="25" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="22">
+      <c r="A643" s="24">
         <v>9012</v>
       </c>
-      <c r="B643" s="23" t="s">
+      <c r="B643" s="25" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="22">
+      <c r="A644" s="24">
         <v>9013</v>
       </c>
-      <c r="B644" s="23" t="s">
+      <c r="B644" s="25" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="22">
+      <c r="A645" s="24">
         <v>9014</v>
       </c>
-      <c r="B645" s="23" t="s">
+      <c r="B645" s="25" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="22">
+      <c r="A646" s="24">
         <v>9015</v>
       </c>
-      <c r="B646" s="23" t="s">
+      <c r="B646" s="25" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="22">
+      <c r="A647" s="24">
         <v>9016</v>
       </c>
-      <c r="B647" s="23" t="s">
+      <c r="B647" s="25" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="22">
+      <c r="A648" s="24">
         <v>9017</v>
       </c>
-      <c r="B648" s="23" t="s">
+      <c r="B648" s="25" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="22">
+      <c r="A649" s="24">
         <v>9018</v>
       </c>
-      <c r="B649" s="23" t="s">
+      <c r="B649" s="25" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="22">
+      <c r="A650" s="24">
         <v>9019</v>
       </c>
-      <c r="B650" s="23" t="s">
+      <c r="B650" s="25" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="22">
+      <c r="A651" s="24">
         <v>9020</v>
       </c>
-      <c r="B651" s="23" t="s">
+      <c r="B651" s="25" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="22">
+      <c r="A652" s="24">
         <v>9021</v>
       </c>
-      <c r="B652" s="23" t="s">
+      <c r="B652" s="25" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="22">
+      <c r="A653" s="24">
         <v>9022</v>
       </c>
-      <c r="B653" s="23" t="s">
+      <c r="B653" s="25" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="22">
+      <c r="A654" s="24">
         <v>9023</v>
       </c>
-      <c r="B654" s="23" t="s">
+      <c r="B654" s="25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="22">
+      <c r="A655" s="24">
         <v>9024</v>
       </c>
-      <c r="B655" s="23" t="s">
+      <c r="B655" s="25" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="656" spans="1:2">
-      <c r="A656" s="22">
+      <c r="A656" s="24">
         <v>9025</v>
       </c>
-      <c r="B656" s="23" t="s">
+      <c r="B656" s="25" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="657" spans="1:2">
-      <c r="A657" s="22">
+      <c r="A657" s="24">
         <v>9026</v>
       </c>
-      <c r="B657" s="23" t="s">
+      <c r="B657" s="25" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="658" spans="1:2">
-      <c r="A658" s="22">
+      <c r="A658" s="24">
         <v>9027</v>
       </c>
-      <c r="B658" s="23" t="s">
+      <c r="B658" s="25" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="659" spans="1:2">
-      <c r="A659" s="22">
+      <c r="A659" s="24">
         <v>9028</v>
       </c>
-      <c r="B659" s="23" t="s">
+      <c r="B659" s="25" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="660" spans="1:2">
-      <c r="A660" s="22">
+      <c r="A660" s="24">
         <v>9029</v>
       </c>
-      <c r="B660" s="23" t="s">
+      <c r="B660" s="25" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="661" spans="1:2">
-      <c r="A661" s="22">
+      <c r="A661" s="24">
         <v>9030</v>
       </c>
-      <c r="B661" s="23" t="s">
+      <c r="B661" s="25" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="662" spans="1:2">
-      <c r="A662" s="22">
+      <c r="A662" s="24">
         <v>9031</v>
       </c>
-      <c r="B662" s="23" t="s">
+      <c r="B662" s="25" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="663" spans="1:2">
-      <c r="A663" s="22">
+      <c r="A663" s="24">
         <v>9032</v>
       </c>
-      <c r="B663" s="23" t="s">
+      <c r="B663" s="25" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="664" spans="1:2">
-      <c r="A664" s="22">
+      <c r="A664" s="24">
         <v>9033</v>
       </c>
-      <c r="B664" s="23" t="s">
+      <c r="B664" s="25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="665" spans="1:2">
-      <c r="A665" s="22">
+      <c r="A665" s="24">
         <v>9034</v>
       </c>
-      <c r="B665" s="23" t="s">
+      <c r="B665" s="25" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="666" spans="1:2">
-      <c r="A666" s="22">
+      <c r="A666" s="24">
         <v>9035</v>
       </c>
-      <c r="B666" s="23" t="s">
+      <c r="B666" s="25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="667" spans="1:2">
-      <c r="A667" s="22">
+      <c r="A667" s="24">
         <v>9036</v>
       </c>
-      <c r="B667" s="23" t="s">
+      <c r="B667" s="25" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="668" spans="1:2">
-      <c r="A668" s="22">
+      <c r="A668" s="24">
         <v>9037</v>
       </c>
-      <c r="B668" s="23" t="s">
+      <c r="B668" s="25" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="669" spans="1:2">
-      <c r="A669" s="22">
+      <c r="A669" s="24">
         <v>9038</v>
       </c>
-      <c r="B669" s="23" t="s">
+      <c r="B669" s="25" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="670" spans="1:2">
-      <c r="A670" s="22">
+      <c r="A670" s="24">
         <v>9039</v>
       </c>
-      <c r="B670" s="23" t="s">
+      <c r="B670" s="25" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="671" spans="1:2">
-      <c r="A671" s="22">
+      <c r="A671" s="24">
         <v>9040</v>
       </c>
-      <c r="B671" s="23" t="s">
+      <c r="B671" s="25" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="672" spans="1:2">
-      <c r="A672" s="22">
+      <c r="A672" s="24">
         <v>9041</v>
       </c>
-      <c r="B672" s="23" t="s">
+      <c r="B672" s="25" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="673" spans="1:2">
-      <c r="A673" s="22">
+      <c r="A673" s="24">
         <v>9042</v>
       </c>
-      <c r="B673" s="23" t="s">
+      <c r="B673" s="25" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="674" spans="1:2">
-      <c r="A674" s="22">
+      <c r="A674" s="24">
         <v>9043</v>
       </c>
-      <c r="B674" s="23" t="s">
+      <c r="B674" s="25" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="675" spans="1:2">
-      <c r="A675" s="22">
+      <c r="A675" s="24">
         <v>9044</v>
       </c>
-      <c r="B675" s="23" t="s">
+      <c r="B675" s="25" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="676" spans="1:2">
-      <c r="A676" s="22">
+      <c r="A676" s="24">
         <v>9045</v>
       </c>
-      <c r="B676" s="23" t="s">
+      <c r="B676" s="25" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="677" spans="1:2">
-      <c r="A677" s="22">
+      <c r="A677" s="24">
         <v>9046</v>
       </c>
-      <c r="B677" s="23" t="s">
+      <c r="B677" s="25" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="678" spans="1:2">
-      <c r="A678" s="22">
+      <c r="A678" s="24">
         <v>9047</v>
       </c>
-      <c r="B678" s="23" t="s">
+      <c r="B678" s="25" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="679" spans="1:2">
-      <c r="A679" s="22">
+      <c r="A679" s="24">
         <v>9048</v>
       </c>
-      <c r="B679" s="23" t="s">
+      <c r="B679" s="25" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="680" spans="1:2">
-      <c r="A680" s="22">
+      <c r="A680" s="24">
         <v>9049</v>
       </c>
-      <c r="B680" s="23" t="s">
+      <c r="B680" s="25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="681" spans="1:2">
-      <c r="A681" s="22">
+      <c r="A681" s="24">
         <v>9050</v>
       </c>
-      <c r="B681" s="23" t="s">
+      <c r="B681" s="25" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="682" spans="1:2">
-      <c r="A682" s="22">
+      <c r="A682" s="24">
         <v>9051</v>
       </c>
-      <c r="B682" s="23" t="s">
+      <c r="B682" s="25" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="683" spans="1:2">
-      <c r="A683" s="22">
+      <c r="A683" s="24">
         <v>9052</v>
       </c>
-      <c r="B683" s="23" t="s">
+      <c r="B683" s="25" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="684" spans="1:2">
-      <c r="A684" s="22">
+      <c r="A684" s="24">
         <v>9053</v>
       </c>
-      <c r="B684" s="23" t="s">
+      <c r="B684" s="25" t="s">
         <v>581</v>
       </c>
     </row>
+    <row r="685" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A685" s="12">
+        <v>9054</v>
+      </c>
+      <c r="B685" s="26" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="686" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A686" s="12">
+        <v>9055</v>
+      </c>
+      <c r="B686" s="26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="687" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A687" s="12">
+        <v>9056</v>
+      </c>
+      <c r="B687" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="688" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A688" s="12">
+        <v>9057</v>
+      </c>
+      <c r="B688" s="26" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="689" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A689" s="12">
+        <v>9058</v>
+      </c>
+      <c r="B689" s="26" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="690" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A690" s="12">
+        <v>9059</v>
+      </c>
+      <c r="B690" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="691" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A691" s="12">
+        <v>9060</v>
+      </c>
+      <c r="B691" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="692" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A692" s="12">
+        <v>9061</v>
+      </c>
+      <c r="B692" s="26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="693" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A693" s="12">
+        <v>9062</v>
+      </c>
+      <c r="B693" s="26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="694" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A694" s="12">
+        <v>9063</v>
+      </c>
+      <c r="B694" s="26" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="695" s="5" customFormat="1" ht="16.5" spans="1:2">
+      <c r="A695" s="12">
+        <v>9064</v>
+      </c>
+      <c r="B695" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="27">
+        <v>9201</v>
+      </c>
+      <c r="B696" s="25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="27">
+        <v>9202</v>
+      </c>
+      <c r="B697" s="25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="27">
+        <v>9203</v>
+      </c>
+      <c r="B698" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="27">
+        <v>9204</v>
+      </c>
+      <c r="B699" s="25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="27">
+        <v>9205</v>
+      </c>
+      <c r="B700" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="27">
+        <v>9206</v>
+      </c>
+      <c r="B701" s="25" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="27">
+        <v>9207</v>
+      </c>
+      <c r="B702" s="25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="27">
+        <v>9208</v>
+      </c>
+      <c r="B703" s="25" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="27">
+        <v>9209</v>
+      </c>
+      <c r="B704" s="25" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="27">
+        <v>9210</v>
+      </c>
+      <c r="B705" s="25" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="27">
+        <v>9211</v>
+      </c>
+      <c r="B706" s="25" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="27">
+        <v>9212</v>
+      </c>
+      <c r="B707" s="25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="27">
+        <v>9213</v>
+      </c>
+      <c r="B708" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="27">
+        <v>9214</v>
+      </c>
+      <c r="B709" s="25" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="27">
+        <v>9215</v>
+      </c>
+      <c r="B710" s="25" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="27">
+        <v>9216</v>
+      </c>
+      <c r="B711" s="25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="27">
+        <v>9217</v>
+      </c>
+      <c r="B712" s="25" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="27">
+        <v>9218</v>
+      </c>
+      <c r="B713" s="25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="27">
+        <v>9219</v>
+      </c>
+      <c r="B714" s="25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="27">
+        <v>9220</v>
+      </c>
+      <c r="B715" s="25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="27">
+        <v>9221</v>
+      </c>
+      <c r="B716" s="25" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="27">
+        <v>9222</v>
+      </c>
+      <c r="B717" s="25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="27">
+        <v>9223</v>
+      </c>
+      <c r="B718" s="25" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="27">
+        <v>9224</v>
+      </c>
+      <c r="B719" s="25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="27">
+        <v>9225</v>
+      </c>
+      <c r="B720" s="25" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="27">
+        <v>9226</v>
+      </c>
+      <c r="B721" s="25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="27">
+        <v>9227</v>
+      </c>
+      <c r="B722" s="25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="27">
+        <v>9228</v>
+      </c>
+      <c r="B723" s="25" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="27">
+        <v>9229</v>
+      </c>
+      <c r="B724" s="25" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="27">
+        <v>9230</v>
+      </c>
+      <c r="B725" s="25" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="27">
+        <v>9231</v>
+      </c>
+      <c r="B726" s="25" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="27">
+        <v>9232</v>
+      </c>
+      <c r="B727" s="25" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="27">
+        <v>9233</v>
+      </c>
+      <c r="B728" s="25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="27">
+        <v>9234</v>
+      </c>
+      <c r="B729" s="25" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="27">
+        <v>9235</v>
+      </c>
+      <c r="B730" s="25" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="27">
+        <v>9236</v>
+      </c>
+      <c r="B731" s="25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="27">
+        <v>9237</v>
+      </c>
+      <c r="B732" s="25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="27">
+        <v>9238</v>
+      </c>
+      <c r="B733" s="25" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="27">
+        <v>9239</v>
+      </c>
+      <c r="B734" s="25" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="27">
+        <v>9240</v>
+      </c>
+      <c r="B735" s="25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="27">
+        <v>9241</v>
+      </c>
+      <c r="B736" s="25" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="27">
+        <v>9242</v>
+      </c>
+      <c r="B737" s="25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="27">
+        <v>9243</v>
+      </c>
+      <c r="B738" s="25" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="27">
+        <v>9244</v>
+      </c>
+      <c r="B739" s="25" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="27">
+        <v>9245</v>
+      </c>
+      <c r="B740" s="25" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="27">
+        <v>9246</v>
+      </c>
+      <c r="B741" s="25" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="27">
+        <v>9247</v>
+      </c>
+      <c r="B742" s="25" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="27">
+        <v>9248</v>
+      </c>
+      <c r="B743" s="25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="27">
+        <v>9249</v>
+      </c>
+      <c r="B744" s="25" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="27">
+        <v>9250</v>
+      </c>
+      <c r="B745" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="27">
+        <v>9251</v>
+      </c>
+      <c r="B746" s="25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="27">
+        <v>9252</v>
+      </c>
+      <c r="B747" s="25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="27">
+        <v>9253</v>
+      </c>
+      <c r="B748" s="25" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="27">
+        <v>9254</v>
+      </c>
+      <c r="B749" s="25" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="27">
+        <v>9255</v>
+      </c>
+      <c r="B750" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="27">
+        <v>9256</v>
+      </c>
+      <c r="B751" s="25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="27">
+        <v>9257</v>
+      </c>
+      <c r="B752" s="25" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="27">
+        <v>9258</v>
+      </c>
+      <c r="B753" s="25" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="27">
+        <v>9259</v>
+      </c>
+      <c r="B754" s="25" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="27">
+        <v>9260</v>
+      </c>
+      <c r="B755" s="25" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="27">
+        <v>9261</v>
+      </c>
+      <c r="B756" s="25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="27">
+        <v>9262</v>
+      </c>
+      <c r="B757" s="25" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="27">
+        <v>9263</v>
+      </c>
+      <c r="B758" s="25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="27">
+        <v>9264</v>
+      </c>
+      <c r="B759" s="25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="27">
+        <v>9265</v>
+      </c>
+      <c r="B760" s="25" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="27">
+        <v>9266</v>
+      </c>
+      <c r="B761" s="25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="27">
+        <v>9267</v>
+      </c>
+      <c r="B762" s="25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="27">
+        <v>9268</v>
+      </c>
+      <c r="B763" s="25" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="27">
+        <v>9269</v>
+      </c>
+      <c r="B764" s="25" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="27">
+        <v>9270</v>
+      </c>
+      <c r="B765" s="25" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="27">
+        <v>9271</v>
+      </c>
+      <c r="B766" s="25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="27">
+        <v>9272</v>
+      </c>
+      <c r="B767" s="25" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="27">
+        <v>9273</v>
+      </c>
+      <c r="B768" s="25" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="27">
+        <v>9274</v>
+      </c>
+      <c r="B769" s="25" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="27">
+        <v>9275</v>
+      </c>
+      <c r="B770" s="25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="27">
+        <v>9276</v>
+      </c>
+      <c r="B771" s="25" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="27">
+        <v>9277</v>
+      </c>
+      <c r="B772" s="25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="27">
+        <v>9278</v>
+      </c>
+      <c r="B773" s="25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="27">
+        <v>9279</v>
+      </c>
+      <c r="B774" s="25" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="27">
+        <v>9280</v>
+      </c>
+      <c r="B775" s="25" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="27">
+        <v>9281</v>
+      </c>
+      <c r="B776" s="25" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="27">
+        <v>9282</v>
+      </c>
+      <c r="B777" s="25" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="27">
+        <v>9283</v>
+      </c>
+      <c r="B778" s="25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="27">
+        <v>9284</v>
+      </c>
+      <c r="B779" s="25" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="27">
+        <v>9285</v>
+      </c>
+      <c r="B780" s="25" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="27">
+        <v>9286</v>
+      </c>
+      <c r="B781" s="25" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="27">
+        <v>9287</v>
+      </c>
+      <c r="B782" s="25" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="27">
+        <v>9288</v>
+      </c>
+      <c r="B783" s="25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="27">
+        <v>9289</v>
+      </c>
+      <c r="B784" s="25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="27">
+        <v>9290</v>
+      </c>
+      <c r="B785" s="25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="27">
+        <v>9291</v>
+      </c>
+      <c r="B786" s="25" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="27">
+        <v>9292</v>
+      </c>
+      <c r="B787" s="25" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="27">
+        <v>9293</v>
+      </c>
+      <c r="B788" s="25" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="27">
+        <v>9294</v>
+      </c>
+      <c r="B789" s="25" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="27">
+        <v>9295</v>
+      </c>
+      <c r="B790" s="25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="27">
+        <v>9296</v>
+      </c>
+      <c r="B791" s="25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="27">
+        <v>9297</v>
+      </c>
+      <c r="B792" s="25" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="27">
+        <v>9298</v>
+      </c>
+      <c r="B793" s="25" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="27">
+        <v>9299</v>
+      </c>
+      <c r="B794" s="25" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="27">
+        <v>9300</v>
+      </c>
+      <c r="B795" s="25" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="27">
+        <v>9301</v>
+      </c>
+      <c r="B796" s="25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="27">
+        <v>9302</v>
+      </c>
+      <c r="B797" s="25" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="27">
+        <v>9303</v>
+      </c>
+      <c r="B798" s="25" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="27">
+        <v>9304</v>
+      </c>
+      <c r="B799" s="25" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="27">
+        <v>9305</v>
+      </c>
+      <c r="B800" s="25" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="27">
+        <v>9306</v>
+      </c>
+      <c r="B801" s="25" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="27">
+        <v>9307</v>
+      </c>
+      <c r="B802" s="25" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="27">
+        <v>9308</v>
+      </c>
+      <c r="B803" s="25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="27">
+        <v>9309</v>
+      </c>
+      <c r="B804" s="25" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="27">
+        <v>9310</v>
+      </c>
+      <c r="B805" s="25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="27">
+        <v>9311</v>
+      </c>
+      <c r="B806" s="25" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="27">
+        <v>9312</v>
+      </c>
+      <c r="B807" s="25" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="27">
+        <v>9313</v>
+      </c>
+      <c r="B808" s="25" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="27">
+        <v>9314</v>
+      </c>
+      <c r="B809" s="25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" s="27">
+        <v>9315</v>
+      </c>
+      <c r="B810" s="25" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" s="27">
+        <v>9316</v>
+      </c>
+      <c r="B811" s="25" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" s="27">
+        <v>9317</v>
+      </c>
+      <c r="B812" s="25" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" s="27">
+        <v>9318</v>
+      </c>
+      <c r="B813" s="25" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" s="27">
+        <v>9319</v>
+      </c>
+      <c r="B814" s="25" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" s="27">
+        <v>9320</v>
+      </c>
+      <c r="B815" s="25" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" s="28">
+        <v>90011</v>
+      </c>
+      <c r="B816" s="29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" s="28">
+        <v>90012</v>
+      </c>
+      <c r="B817" s="29" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C684">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:C815" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
